--- a/ExperimentFolder_v23.9.19/DataStorage/Segmententabelle.xlsx
+++ b/ExperimentFolder_v23.9.19/DataStorage/Segmententabelle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
   <si>
     <t>Subject</t>
   </si>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t>Start/End/Stress</t>
+  </si>
+  <si>
+    <t>es</t>
+  </si>
+  <si>
+    <t>fw</t>
   </si>
 </sst>
 </file>
@@ -452,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z12"/>
+  <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:Z22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -946,6 +952,384 @@
         <v>2.56</v>
       </c>
     </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.45846064814814813</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.46072916666666663</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.4642013888888889</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.46593749999999995</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.47050925925925924</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.47197916666666667</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.47576388888888888</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0.47625000000000001</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0.47972222222222222</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0.4808796296296296</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0.4845949074074074</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R14" s="1">
+        <v>0.49142361111111116</v>
+      </c>
+      <c r="S14" s="1">
+        <v>0.49489583333333331</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U14" s="1">
+        <v>0.49531249999999999</v>
+      </c>
+      <c r="V14" s="1">
+        <v>0.49879629629629635</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X14" s="1">
+        <v>0.50402777777777774</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>0.50749999999999995</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="E15" s="2">
+        <f>(C14-B14)*86400</f>
+        <v>195.99999999999866</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="H15">
+        <f>(F14-B14)*86400</f>
+        <v>645.99999999999704</v>
+      </c>
+      <c r="K15">
+        <f>(I14-B14)*86400</f>
+        <v>1168.0000000000018</v>
+      </c>
+      <c r="N15">
+        <f>(L14-B14)*86400</f>
+        <v>1537.000000000002</v>
+      </c>
+      <c r="Q15">
+        <f>(O14-B14)*86400</f>
+        <v>1936.9999999999991</v>
+      </c>
+      <c r="T15">
+        <f>(R14-B14)*86400</f>
+        <v>2848.0000000000055</v>
+      </c>
+      <c r="W15">
+        <f>(U14-B14)*86400</f>
+        <v>3184.0000000000005</v>
+      </c>
+      <c r="Z15">
+        <f>(X14-B14)*86400</f>
+        <v>3936.9999999999982</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="E16" s="2">
+        <f>(D14-B14)*86400</f>
+        <v>496.00000000000239</v>
+      </c>
+      <c r="H16">
+        <f>(G14-B14)*86400</f>
+        <v>1040.9999999999995</v>
+      </c>
+      <c r="K16">
+        <f>(J14-B14)*86400</f>
+        <v>1495.0000000000002</v>
+      </c>
+      <c r="N16">
+        <f>(M14-B14)*86400</f>
+        <v>1837.0000000000009</v>
+      </c>
+      <c r="Q16">
+        <f>(P14-B14)*86400</f>
+        <v>2258.0000000000014</v>
+      </c>
+      <c r="T16">
+        <f>(S14-B14)*86400</f>
+        <v>3147.9999999999995</v>
+      </c>
+      <c r="W16">
+        <f>(V14-B14)*86400</f>
+        <v>3485.0000000000059</v>
+      </c>
+      <c r="Z16">
+        <f>(Y14-B14)*86400</f>
+        <v>4236.9999999999973</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>10</v>
+      </c>
+      <c r="K17">
+        <v>6</v>
+      </c>
+      <c r="N17">
+        <v>2</v>
+      </c>
+      <c r="Q17">
+        <v>5.28</v>
+      </c>
+      <c r="T17">
+        <v>5</v>
+      </c>
+      <c r="W17">
+        <v>5.33</v>
+      </c>
+      <c r="Z17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>10</v>
+      </c>
+      <c r="K18">
+        <v>6</v>
+      </c>
+      <c r="Q18">
+        <v>5.75</v>
+      </c>
+      <c r="W18">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.73925925925925917</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.74119212962962966</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.74466435185185187</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.74832175925925926</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.75284722222222211</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.75535879629629632</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.76019675925925922</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0.76123842592592583</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0.76471064814814815</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0.76700231481481485</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0.77071759259259265</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R20" s="1">
+        <v>0.77896990740740746</v>
+      </c>
+      <c r="S20" s="1">
+        <v>0.78244212962962967</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U20" s="1">
+        <v>0.78489583333333324</v>
+      </c>
+      <c r="V20" s="1">
+        <v>0.7883796296296296</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X20" s="1">
+        <v>0.79546296296296293</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>0.79893518518518514</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="E21" s="2">
+        <f>(C20-B20)*86400</f>
+        <v>167.00000000001012</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="H21">
+        <f>(F20-B20)*86400</f>
+        <v>783.00000000000728</v>
+      </c>
+      <c r="K21">
+        <f>(I20-B20)*86400</f>
+        <v>1391.0000000000095</v>
+      </c>
+      <c r="N21">
+        <f>(L20-B20)*86400</f>
+        <v>1898.9999999999995</v>
+      </c>
+      <c r="Q21">
+        <f>(O20-B20)*86400</f>
+        <v>2397.00000000001</v>
+      </c>
+      <c r="T21">
+        <f>(R20-B20)*86400</f>
+        <v>3431.0000000000118</v>
+      </c>
+      <c r="W21">
+        <f>(U20-B20)*86400</f>
+        <v>3942.9999999999991</v>
+      </c>
+      <c r="Z21">
+        <f>(X20-B20)*86400</f>
+        <v>4856.0000000000045</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="E22" s="2">
+        <f>(D20-B20)*86400</f>
+        <v>467.00000000000904</v>
+      </c>
+      <c r="H22">
+        <f>(G20-B20)*86400</f>
+        <v>1173.9999999999982</v>
+      </c>
+      <c r="K22">
+        <f>(J20-B20)*86400</f>
+        <v>1809.0000000000045</v>
+      </c>
+      <c r="N22">
+        <f>(M20-B20)*86400</f>
+        <v>2199.0000000000082</v>
+      </c>
+      <c r="Q22">
+        <f>(P20-B20)*86400</f>
+        <v>2718.0000000000123</v>
+      </c>
+      <c r="T22">
+        <f>(S20-B20)*86400</f>
+        <v>3731.0000000000109</v>
+      </c>
+      <c r="W22">
+        <f>(V20-B20)*86400</f>
+        <v>4244.0000000000045</v>
+      </c>
+      <c r="Z22">
+        <f>(Y20-B20)*86400</f>
+        <v>5156.0000000000036</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>7</v>
+      </c>
+      <c r="K23">
+        <v>5</v>
+      </c>
+      <c r="N23">
+        <v>3</v>
+      </c>
+      <c r="Q23">
+        <v>5.66</v>
+      </c>
+      <c r="T23">
+        <v>3</v>
+      </c>
+      <c r="W23">
+        <v>6.36</v>
+      </c>
+      <c r="Z23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <v>9</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="Q24">
+        <v>4.66</v>
+      </c>
+      <c r="W24">
+        <v>2.66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ExperimentFolder_v23.9.19/DataStorage/Segmententabelle.xlsx
+++ b/ExperimentFolder_v23.9.19/DataStorage/Segmententabelle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="135" windowWidth="14115" windowHeight="8265"/>
+    <workbookView xWindow="600" yWindow="132" windowWidth="14112" windowHeight="8268"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="44">
   <si>
     <t>Subject</t>
   </si>
@@ -118,6 +118,36 @@
   </si>
   <si>
     <t>fw</t>
+  </si>
+  <si>
+    <t>ka</t>
+  </si>
+  <si>
+    <t>lb</t>
+  </si>
+  <si>
+    <t>lp</t>
+  </si>
+  <si>
+    <t>lw</t>
+  </si>
+  <si>
+    <t>mb</t>
+  </si>
+  <si>
+    <t>mch</t>
+  </si>
+  <si>
+    <t>md</t>
+  </si>
+  <si>
+    <t>mf</t>
+  </si>
+  <si>
+    <t>pg</t>
+  </si>
+  <si>
+    <t>rs</t>
   </si>
 </sst>
 </file>
@@ -153,10 +183,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -458,40 +489,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z24"/>
+  <dimension ref="A1:Z84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:Z22"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.88671875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="18" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.88671875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="18" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
@@ -1328,6 +1359,1902 @@
       </c>
       <c r="W24">
         <v>2.66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.42959490740740741</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.43190972222222218</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.43538194444444445</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.43784722222222222</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.44237268518518519</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0.44487268518518519</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0.44965277777777773</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0.450625</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0.45409722222222221</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0.45626157407407408</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0.45997685185185189</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R26" s="1">
+        <v>0.46811342592592592</v>
+      </c>
+      <c r="S26" s="1">
+        <v>0.47158564814814818</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U26" s="1">
+        <v>0.47206018518518517</v>
+      </c>
+      <c r="V26" s="1">
+        <v>0.47554398148148147</v>
+      </c>
+      <c r="W26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X26" s="1">
+        <v>0.48303240740740744</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>0.48650462962962965</v>
+      </c>
+      <c r="Z26" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E27" s="2">
+        <f>(C26-B26)*86400</f>
+        <v>199.99999999999608</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="H27">
+        <f>(F26-B26)*86400</f>
+        <v>712.99999999999955</v>
+      </c>
+      <c r="K27">
+        <f>(I26-B26)*86400</f>
+        <v>1320</v>
+      </c>
+      <c r="N27">
+        <f>(L26-B26)*86400</f>
+        <v>1816.9999999999995</v>
+      </c>
+      <c r="Q27">
+        <f>(O26-B26)*86400</f>
+        <v>2304.0000000000005</v>
+      </c>
+      <c r="T27">
+        <f>(R26-B26)*86400</f>
+        <v>3327.9999999999991</v>
+      </c>
+      <c r="W27">
+        <f>(U26-B26)*86400</f>
+        <v>3668.9999999999982</v>
+      </c>
+      <c r="Z27">
+        <f>(X26-B26)*86400</f>
+        <v>4617.0000000000027</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E28" s="2">
+        <f>(D26-B26)*86400</f>
+        <v>499.99999999999983</v>
+      </c>
+      <c r="H28">
+        <f>(G26-B26)*86400</f>
+        <v>1104</v>
+      </c>
+      <c r="K28">
+        <f>(J26-B26)*86400</f>
+        <v>1732.9999999999959</v>
+      </c>
+      <c r="N28">
+        <f>(M26-B26)*86400</f>
+        <v>2116.9999999999982</v>
+      </c>
+      <c r="Q28">
+        <f>(P26-B26)*86400</f>
+        <v>2625.0000000000027</v>
+      </c>
+      <c r="T28">
+        <f>(S26-B26)*86400</f>
+        <v>3628.0000000000027</v>
+      </c>
+      <c r="W28">
+        <f>(V26-B26)*86400</f>
+        <v>3969.9999999999986</v>
+      </c>
+      <c r="Z28">
+        <f>(Y26-B26)*86400</f>
+        <v>4917.0000000000009</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <v>5</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="N29">
+        <v>2</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>6.75</v>
+      </c>
+      <c r="T29">
+        <v>5</v>
+      </c>
+      <c r="W29" s="2">
+        <v>7.7</v>
+      </c>
+      <c r="Z29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="H30">
+        <v>8</v>
+      </c>
+      <c r="K30">
+        <v>4</v>
+      </c>
+      <c r="Q30">
+        <v>5.63</v>
+      </c>
+      <c r="W30">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.39018518518518519</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.3923726851851852</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.39584490740740735</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.39804398148148151</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.40256944444444448</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0.40457175925925926</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0.40855324074074079</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0.40915509259259258</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0.41262731481481479</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O32" s="1">
+        <v>0.41407407407407404</v>
+      </c>
+      <c r="P32" s="1">
+        <v>0.41781249999999998</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R32" s="1">
+        <v>0.42277777777777775</v>
+      </c>
+      <c r="S32" s="1">
+        <v>0.42625000000000002</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U32" s="1">
+        <v>0.42696759259259259</v>
+      </c>
+      <c r="V32" s="1">
+        <v>0.43046296296296299</v>
+      </c>
+      <c r="W32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X32" s="1">
+        <v>0.43633101851851852</v>
+      </c>
+      <c r="Y32" s="1">
+        <v>0.43980324074074079</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E33" s="2">
+        <f>(C32-B32)*86400</f>
+        <v>189.00000000000077</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="H33">
+        <f>(F32-B32)*86400</f>
+        <v>679.00000000000227</v>
+      </c>
+      <c r="K33">
+        <f>(I32-B32)*86400</f>
+        <v>1242.9999999999993</v>
+      </c>
+      <c r="N33">
+        <f>(L32-B32)*86400</f>
+        <v>1638.9999999999989</v>
+      </c>
+      <c r="Q33">
+        <f>(O32-B32)*86400</f>
+        <v>2063.9999999999964</v>
+      </c>
+      <c r="T33">
+        <f>(R32-B32)*86400</f>
+        <v>2815.9999999999973</v>
+      </c>
+      <c r="W33">
+        <f>(U32-B32)*86400</f>
+        <v>3177.9999999999995</v>
+      </c>
+      <c r="Z33">
+        <f>(X32-B32)*86400</f>
+        <v>3986.9999999999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E34" s="2">
+        <f>(D32-B32)*86400</f>
+        <v>488.99999999999488</v>
+      </c>
+      <c r="H34">
+        <f>(G32-B32)*86400</f>
+        <v>1070.0000000000025</v>
+      </c>
+      <c r="K34">
+        <f>(J32-B32)*86400</f>
+        <v>1587.0000000000034</v>
+      </c>
+      <c r="N34">
+        <f>(M32-B32)*86400</f>
+        <v>1938.9999999999977</v>
+      </c>
+      <c r="Q34">
+        <f>(P32-B32)*86400</f>
+        <v>2386.9999999999973</v>
+      </c>
+      <c r="T34">
+        <f>(S32-B32)*86400</f>
+        <v>3116.0000000000009</v>
+      </c>
+      <c r="W34">
+        <f>(V32-B32)*86400</f>
+        <v>3480.0000000000018</v>
+      </c>
+      <c r="Z34">
+        <f>(Y32-B32)*86400</f>
+        <v>4287.0000000000036</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="H35">
+        <v>9</v>
+      </c>
+      <c r="K35">
+        <v>6</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>5.81</v>
+      </c>
+      <c r="T35">
+        <v>5</v>
+      </c>
+      <c r="W35">
+        <v>6.9</v>
+      </c>
+      <c r="Z35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="H36">
+        <v>8</v>
+      </c>
+      <c r="K36">
+        <v>6</v>
+      </c>
+      <c r="Q36">
+        <v>5.28</v>
+      </c>
+      <c r="W36">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0.68614583333333334</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.68870370370370371</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.69217592592592592</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0.69486111111111104</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0.69938657407407412</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0.70187499999999992</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0.70591435185185192</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0.70671296296296304</v>
+      </c>
+      <c r="M38" s="1">
+        <v>0.71018518518518514</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O38" s="1">
+        <v>0.71247685185185183</v>
+      </c>
+      <c r="P38" s="1">
+        <v>0.71619212962962964</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R38" s="1">
+        <v>0.72373842592592597</v>
+      </c>
+      <c r="S38" s="1">
+        <v>0.72721064814814806</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U38" s="1">
+        <v>0.72928240740740735</v>
+      </c>
+      <c r="V38" s="1">
+        <v>0.7327662037037036</v>
+      </c>
+      <c r="W38" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X38" s="1">
+        <v>0.74182870370370368</v>
+      </c>
+      <c r="Y38" s="1">
+        <v>0.74530092592592589</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E39" s="2">
+        <f>(C38-B38)*86400</f>
+        <v>220.99999999999937</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="H39">
+        <f>(F38-B38)*86400</f>
+        <v>752.99999999999295</v>
+      </c>
+      <c r="K39">
+        <f>(I38-B38)*86400</f>
+        <v>1358.9999999999918</v>
+      </c>
+      <c r="N39">
+        <f>(L38-B38)*86400</f>
+        <v>1777.0000000000059</v>
+      </c>
+      <c r="Q39">
+        <f>(O38-B38)*86400</f>
+        <v>2274.9999999999977</v>
+      </c>
+      <c r="T39">
+        <f>(R38-B38)*86400</f>
+        <v>3248.0000000000027</v>
+      </c>
+      <c r="W39">
+        <f>(U38-B38)*86400</f>
+        <v>3726.9999999999941</v>
+      </c>
+      <c r="Z39">
+        <f>(X38-B38)*86400</f>
+        <v>4810.9999999999973</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E40" s="2">
+        <f>(D38-B38)*86400</f>
+        <v>520.99999999999829</v>
+      </c>
+      <c r="H40">
+        <f>(G38-B38)*86400</f>
+        <v>1144.000000000003</v>
+      </c>
+      <c r="K40">
+        <f>(J38-B38)*86400</f>
+        <v>1708.0000000000048</v>
+      </c>
+      <c r="N40">
+        <f>(M38-B38)*86400</f>
+        <v>2076.9999999999955</v>
+      </c>
+      <c r="Q40">
+        <f>(P38-B38)*86400</f>
+        <v>2595.9999999999995</v>
+      </c>
+      <c r="T40">
+        <f>(S38-B38)*86400</f>
+        <v>3547.9999999999918</v>
+      </c>
+      <c r="W40">
+        <f>(V38-B38)*86400</f>
+        <v>4027.99999999999</v>
+      </c>
+      <c r="Z40">
+        <f>(Y38-B38)*86400</f>
+        <v>5110.9999999999964</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="H41">
+        <v>8</v>
+      </c>
+      <c r="K41">
+        <v>4</v>
+      </c>
+      <c r="N41">
+        <v>3</v>
+      </c>
+      <c r="Q41">
+        <v>6.28</v>
+      </c>
+      <c r="T41">
+        <v>3</v>
+      </c>
+      <c r="W41">
+        <v>5.53</v>
+      </c>
+      <c r="Z41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="H42">
+        <v>8</v>
+      </c>
+      <c r="K42">
+        <v>3</v>
+      </c>
+      <c r="Q42">
+        <v>4.75</v>
+      </c>
+      <c r="W42">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0.40891203703703699</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.41065972222222219</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.41413194444444446</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0.41561342592592593</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0.42018518518518522</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0.42224537037037035</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0.42675925925925928</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L44" s="1">
+        <v>0.42753472222222227</v>
+      </c>
+      <c r="M44" s="1">
+        <v>0.43100694444444443</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O44" s="1">
+        <v>0.43241898148148145</v>
+      </c>
+      <c r="P44" s="1">
+        <v>0.43612268518518515</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R44" s="1">
+        <v>0.4445601851851852</v>
+      </c>
+      <c r="S44" s="1">
+        <v>0.44803240740740741</v>
+      </c>
+      <c r="T44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U44" s="1">
+        <v>0.4485763888888889</v>
+      </c>
+      <c r="V44" s="1">
+        <v>0.45204861111111111</v>
+      </c>
+      <c r="W44" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X44" s="1">
+        <v>0.45768518518518514</v>
+      </c>
+      <c r="Y44" s="1">
+        <v>0.4611574074074074</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E45" s="2">
+        <f>(C44-B44)*86400</f>
+        <v>151.00000000000122</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="H45">
+        <f>(F44-B44)*86400</f>
+        <v>579.00000000000421</v>
+      </c>
+      <c r="K45">
+        <f>(I44-B44)*86400</f>
+        <v>1152.0000000000027</v>
+      </c>
+      <c r="N45">
+        <f>(L44-B44)*86400</f>
+        <v>1609.0000000000084</v>
+      </c>
+      <c r="Q45">
+        <f>(O44-B44)*86400</f>
+        <v>2031.0000000000009</v>
+      </c>
+      <c r="T45">
+        <f>(R44-B44)*86400</f>
+        <v>3080.000000000005</v>
+      </c>
+      <c r="W45">
+        <f>(U44-B44)*86400</f>
+        <v>3427.000000000005</v>
+      </c>
+      <c r="Z45">
+        <f>(X44-B44)*86400</f>
+        <v>4214</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E46" s="2">
+        <f>(D44-B44)*86400</f>
+        <v>451.00000000000495</v>
+      </c>
+      <c r="H46">
+        <f>(G44-B44)*86400</f>
+        <v>974.00000000000682</v>
+      </c>
+      <c r="K46">
+        <f>(J44-B44)*86400</f>
+        <v>1542.0000000000061</v>
+      </c>
+      <c r="N46">
+        <f>(M44-B44)*86400</f>
+        <v>1909.0000000000027</v>
+      </c>
+      <c r="Q46">
+        <f>(P44-B44)*86400</f>
+        <v>2351.0000000000014</v>
+      </c>
+      <c r="T46">
+        <f>(S44-B44)*86400</f>
+        <v>3380.0000000000041</v>
+      </c>
+      <c r="W46">
+        <f>(V44-B44)*86400</f>
+        <v>3727.0000000000036</v>
+      </c>
+      <c r="Z46">
+        <f>(Y44-B44)*86400</f>
+        <v>4514.0000000000036</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>10</v>
+      </c>
+      <c r="K47">
+        <v>7</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="T47">
+        <v>3</v>
+      </c>
+      <c r="W47">
+        <v>5.66</v>
+      </c>
+      <c r="Z47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="H48">
+        <v>10</v>
+      </c>
+      <c r="K48">
+        <v>6</v>
+      </c>
+      <c r="Q48">
+        <v>5.31</v>
+      </c>
+      <c r="W48">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0.40179398148148149</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.40557870370370369</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0.4090509259259259</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0.41189814814814812</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0.41645833333333332</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0.41924768518518518</v>
+      </c>
+      <c r="J50" s="1">
+        <v>0.42398148148148151</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L50" s="1">
+        <v>0.42495370370370367</v>
+      </c>
+      <c r="M50" s="1">
+        <v>0.42842592592592593</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O50" s="1">
+        <v>0.43041666666666667</v>
+      </c>
+      <c r="P50" s="1">
+        <v>0.43413194444444447</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R50" s="1">
+        <v>0.4412962962962963</v>
+      </c>
+      <c r="S50" s="1">
+        <v>0.44476851851851856</v>
+      </c>
+      <c r="T50" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U50" s="1">
+        <v>0.44545138888888891</v>
+      </c>
+      <c r="V50" s="1">
+        <v>0.44893518518518521</v>
+      </c>
+      <c r="W50" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X50" s="1">
+        <v>0.45585648148148145</v>
+      </c>
+      <c r="Y50" s="1">
+        <v>0.45932870370370371</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E51" s="2">
+        <f>(C50-B50)*86400</f>
+        <v>326.99999999999835</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="H51">
+        <f>(F50-B50)*86400</f>
+        <v>872.99999999999739</v>
+      </c>
+      <c r="K51">
+        <f>(I50-B50)*86400</f>
+        <v>1507.9999999999991</v>
+      </c>
+      <c r="N51">
+        <f>(L50-B50)*86400</f>
+        <v>2000.9999999999964</v>
+      </c>
+      <c r="Q51">
+        <f>(O50-B50)*86400</f>
+        <v>2472.9999999999995</v>
+      </c>
+      <c r="T51">
+        <f>(R50-B50)*86400</f>
+        <v>3412.9999999999995</v>
+      </c>
+      <c r="W51">
+        <f>(U50-B50)*86400</f>
+        <v>3772.0000000000014</v>
+      </c>
+      <c r="Z51">
+        <f>(X50-B50)*86400</f>
+        <v>4670.9999999999964</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E52" s="2">
+        <f>(D50-B50)*86400</f>
+        <v>626.99999999999727</v>
+      </c>
+      <c r="H52">
+        <f>(G50-B50)*86400</f>
+        <v>1266.9999999999982</v>
+      </c>
+      <c r="K52">
+        <f>(J50-B50)*86400</f>
+        <v>1917.0000000000023</v>
+      </c>
+      <c r="N52">
+        <f>(M50-B50)*86400</f>
+        <v>2301</v>
+      </c>
+      <c r="Q52">
+        <f>(P50-B50)*86400</f>
+        <v>2794.0000000000018</v>
+      </c>
+      <c r="T52">
+        <f>(S50-B50)*86400</f>
+        <v>3713.0000000000032</v>
+      </c>
+      <c r="W52">
+        <f>(V50-B50)*86400</f>
+        <v>4073.0000000000018</v>
+      </c>
+      <c r="Z52">
+        <f>(Y50-B50)*86400</f>
+        <v>4971</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="H53">
+        <v>4</v>
+      </c>
+      <c r="K53">
+        <v>7</v>
+      </c>
+      <c r="N53">
+        <v>2</v>
+      </c>
+      <c r="Q53">
+        <v>5.84</v>
+      </c>
+      <c r="T53">
+        <v>5</v>
+      </c>
+      <c r="W53">
+        <v>6.06</v>
+      </c>
+      <c r="Z53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="H54">
+        <v>5</v>
+      </c>
+      <c r="K54">
+        <v>6</v>
+      </c>
+      <c r="Q54">
+        <v>4.84</v>
+      </c>
+      <c r="W54">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B56" s="1">
+        <v>0.55021990740740734</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0.55237268518518523</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0.55584490740740744</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0.55751157407407403</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0.56207175925925923</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I56" s="1">
+        <v>0.56365740740740744</v>
+      </c>
+      <c r="J56" s="1">
+        <v>0.56800925925925927</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L56" s="1">
+        <v>0.56855324074074076</v>
+      </c>
+      <c r="M56" s="1">
+        <v>0.57202546296296297</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O56" s="1">
+        <v>0.573125</v>
+      </c>
+      <c r="P56" s="1">
+        <v>0.5768402777777778</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R56" s="1">
+        <v>0.58266203703703701</v>
+      </c>
+      <c r="S56" s="1">
+        <v>0.58613425925925922</v>
+      </c>
+      <c r="T56" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U56" s="1">
+        <v>0.58668981481481486</v>
+      </c>
+      <c r="V56" s="1">
+        <v>0.59843750000000007</v>
+      </c>
+      <c r="W56" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X56" s="1">
+        <v>0.59474537037037034</v>
+      </c>
+      <c r="Y56" s="1">
+        <v>0.59821759259259266</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E57" s="2">
+        <f>(C56-B56)*86400</f>
+        <v>186.00000000000989</v>
+      </c>
+      <c r="F57" s="2"/>
+      <c r="H57">
+        <f>(F56-B56)*86400</f>
+        <v>630.0000000000025</v>
+      </c>
+      <c r="K57">
+        <f>(I56-B56)*86400</f>
+        <v>1161.0000000000089</v>
+      </c>
+      <c r="N57">
+        <f>(L56-B56)*86400</f>
+        <v>1584.0000000000077</v>
+      </c>
+      <c r="Q57">
+        <f>(O56-B56)*86400</f>
+        <v>1979.0000000000057</v>
+      </c>
+      <c r="T57">
+        <f>(R56-B56)*86400</f>
+        <v>2803.0000000000032</v>
+      </c>
+      <c r="W57">
+        <f>(U56-B56)*86400</f>
+        <v>3151.0000000000095</v>
+      </c>
+      <c r="Z57">
+        <f>(X56-B56)*86400</f>
+        <v>3847.0000000000036</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E58" s="2">
+        <f>(D56-B56)*86400</f>
+        <v>486.00000000000881</v>
+      </c>
+      <c r="H58">
+        <f>(G56-B56)*86400</f>
+        <v>1024.0000000000034</v>
+      </c>
+      <c r="K58">
+        <f>(J56-B56)*86400</f>
+        <v>1537.0000000000068</v>
+      </c>
+      <c r="N58">
+        <f>(M56-B56)*86400</f>
+        <v>1884.0000000000068</v>
+      </c>
+      <c r="Q58">
+        <f>(P56-B56)*86400</f>
+        <v>2300.0000000000077</v>
+      </c>
+      <c r="T58">
+        <f>(S56-B56)*86400</f>
+        <v>3103.0000000000023</v>
+      </c>
+      <c r="W58">
+        <f>(V56-B56)*86400</f>
+        <v>4166.0000000000118</v>
+      </c>
+      <c r="Z58">
+        <f>(Y56-B56)*86400</f>
+        <v>4147.0000000000118</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="H59">
+        <v>10</v>
+      </c>
+      <c r="K59">
+        <v>4</v>
+      </c>
+      <c r="N59">
+        <v>2</v>
+      </c>
+      <c r="Q59">
+        <v>5.28</v>
+      </c>
+      <c r="T59">
+        <v>5</v>
+      </c>
+      <c r="W59">
+        <v>5.3</v>
+      </c>
+      <c r="Z59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="H60">
+        <v>5</v>
+      </c>
+      <c r="K60">
+        <v>2</v>
+      </c>
+      <c r="Q60">
+        <v>5.16</v>
+      </c>
+      <c r="W60">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>40</v>
+      </c>
+      <c r="B62" s="1">
+        <v>0.5035532407407407</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0.50611111111111107</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0.50958333333333339</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0.5116666666666666</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0.51623842592592595</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I62" s="1">
+        <v>0.51906249999999998</v>
+      </c>
+      <c r="J62" s="1">
+        <v>0.52324074074074078</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L62" s="1">
+        <v>0.52432870370370377</v>
+      </c>
+      <c r="M62" s="1">
+        <v>0.52780092592592587</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O62" s="1">
+        <v>0.52953703703703703</v>
+      </c>
+      <c r="P62" s="1">
+        <v>0.53325231481481483</v>
+      </c>
+      <c r="Q62" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R62" s="1">
+        <v>0.54010416666666672</v>
+      </c>
+      <c r="S62" s="1">
+        <v>0.54357638888888882</v>
+      </c>
+      <c r="T62" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U62" s="1">
+        <v>0.54432870370370368</v>
+      </c>
+      <c r="V62" s="1">
+        <v>0.54781250000000004</v>
+      </c>
+      <c r="W62" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X62" s="1">
+        <v>0.55313657407407402</v>
+      </c>
+      <c r="Y62" s="1">
+        <v>0.55660879629629634</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C63" s="1"/>
+      <c r="E63" s="2">
+        <f>(C62-B62)*86400</f>
+        <v>220.99999999999937</v>
+      </c>
+      <c r="F63" s="2"/>
+      <c r="H63">
+        <f>(F62-B62)*86400</f>
+        <v>700.99999999999773</v>
+      </c>
+      <c r="K63">
+        <f>(I62-B62)*86400</f>
+        <v>1340.0000000000016</v>
+      </c>
+      <c r="N63">
+        <f>(L62-B62)*86400</f>
+        <v>1795.0000000000089</v>
+      </c>
+      <c r="Q63">
+        <f>(O62-B62)*86400</f>
+        <v>2245.0000000000023</v>
+      </c>
+      <c r="T63">
+        <f>(R62-B62)*86400</f>
+        <v>3158.0000000000077</v>
+      </c>
+      <c r="W63">
+        <f>(U62-B62)*86400</f>
+        <v>3523.0000000000009</v>
+      </c>
+      <c r="Z63">
+        <f>(X62-B62)*86400</f>
+        <v>4283.9999999999982</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C64" s="1"/>
+      <c r="E64" s="2">
+        <f>(D62-B62)*86400</f>
+        <v>521.00000000000796</v>
+      </c>
+      <c r="H64">
+        <f>(G62-B62)*86400</f>
+        <v>1096.000000000005</v>
+      </c>
+      <c r="K64">
+        <f>(J62-B62)*86400</f>
+        <v>1701.0000000000068</v>
+      </c>
+      <c r="N64">
+        <f>(M62-B62)*86400</f>
+        <v>2094.9999999999982</v>
+      </c>
+      <c r="Q64">
+        <f>(P62-B62)*86400</f>
+        <v>2566.0000000000045</v>
+      </c>
+      <c r="T64">
+        <f>(S62-B62)*86400</f>
+        <v>3457.9999999999968</v>
+      </c>
+      <c r="W64">
+        <f>(V62-B62)*86400</f>
+        <v>3824.0000000000064</v>
+      </c>
+      <c r="Z64">
+        <f>(Y62-B62)*86400</f>
+        <v>4584.0000000000064</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C65" s="1"/>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>7</v>
+      </c>
+      <c r="K65">
+        <v>4</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="T65">
+        <v>5</v>
+      </c>
+      <c r="W65">
+        <v>6.06</v>
+      </c>
+      <c r="Z65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="H66">
+        <v>7</v>
+      </c>
+      <c r="K66">
+        <v>4</v>
+      </c>
+      <c r="Q66">
+        <v>1.96</v>
+      </c>
+      <c r="W66">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>41</v>
+      </c>
+      <c r="B68" s="1">
+        <v>0.60223379629629636</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0.60579861111111111</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0.60927083333333332</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F68" s="1">
+        <v>0.6111805555555555</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0.61571759259259262</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I68" s="1">
+        <v>0.61760416666666662</v>
+      </c>
+      <c r="J68" s="1">
+        <v>0.6219675925925926</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L68" s="1">
+        <v>0.62296296296296294</v>
+      </c>
+      <c r="M68" s="1">
+        <v>0.62643518518518515</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O68" s="1">
+        <v>0.6283333333333333</v>
+      </c>
+      <c r="P68" s="1">
+        <v>0.63203703703703706</v>
+      </c>
+      <c r="Q68" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R68" s="1">
+        <v>0.63927083333333334</v>
+      </c>
+      <c r="S68" s="1">
+        <v>0.64274305555555555</v>
+      </c>
+      <c r="T68" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U68" s="1">
+        <v>0.64391203703703703</v>
+      </c>
+      <c r="V68" s="1">
+        <v>0.64739583333333328</v>
+      </c>
+      <c r="W68" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X68" s="1">
+        <v>0.65256944444444442</v>
+      </c>
+      <c r="Y68" s="1">
+        <v>0.65604166666666663</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C69" s="1"/>
+      <c r="E69" s="2">
+        <f>(C68-B68)*86400</f>
+        <v>307.9999999999938</v>
+      </c>
+      <c r="F69" s="2"/>
+      <c r="H69">
+        <f>(F68-B68)*86400</f>
+        <v>772.99999999998977</v>
+      </c>
+      <c r="K69">
+        <f>(I68-B68)*86400</f>
+        <v>1327.9999999999902</v>
+      </c>
+      <c r="N69">
+        <f>(L68-B68)*86400</f>
+        <v>1790.9999999999923</v>
+      </c>
+      <c r="Q69">
+        <f>(O68-B68)*86400</f>
+        <v>2254.9999999999914</v>
+      </c>
+      <c r="T69">
+        <f>(R68-B68)*86400</f>
+        <v>3199.999999999995</v>
+      </c>
+      <c r="W69">
+        <f>(U68-B68)*86400</f>
+        <v>3600.9999999999936</v>
+      </c>
+      <c r="Z69">
+        <f>(X68-B68)*86400</f>
+        <v>4348.9999999999927</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C70" s="1"/>
+      <c r="E70" s="2">
+        <f>(D68-B68)*86400</f>
+        <v>607.99999999999272</v>
+      </c>
+      <c r="H70">
+        <f>(G68-B68)*86400</f>
+        <v>1164.9999999999966</v>
+      </c>
+      <c r="K70">
+        <f>(J68-B68)*86400</f>
+        <v>1704.9999999999948</v>
+      </c>
+      <c r="N70">
+        <f>(M68-B68)*86400</f>
+        <v>2090.9999999999909</v>
+      </c>
+      <c r="Q70">
+        <f>(P68-B68)*86400</f>
+        <v>2574.9999999999964</v>
+      </c>
+      <c r="T70">
+        <f>(S68-B68)*86400</f>
+        <v>3499.9999999999941</v>
+      </c>
+      <c r="W70">
+        <f>(V68-B68)*86400</f>
+        <v>3901.9999999999895</v>
+      </c>
+      <c r="Z70">
+        <f>(Y68-B68)*86400</f>
+        <v>4648.9999999999909</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E71">
+        <v>2</v>
+      </c>
+      <c r="H71">
+        <v>4</v>
+      </c>
+      <c r="K71">
+        <v>3</v>
+      </c>
+      <c r="N71">
+        <v>2</v>
+      </c>
+      <c r="Q71">
+        <v>5.78</v>
+      </c>
+      <c r="T71">
+        <v>5</v>
+      </c>
+      <c r="W71">
+        <v>4.63</v>
+      </c>
+      <c r="Z71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="H72">
+        <v>3</v>
+      </c>
+      <c r="K72">
+        <v>5</v>
+      </c>
+      <c r="Q72">
+        <v>4.53</v>
+      </c>
+      <c r="W72">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>42</v>
+      </c>
+      <c r="B74" s="1">
+        <v>0.47842592592592598</v>
+      </c>
+      <c r="C74" s="1">
+        <v>0.47968749999999999</v>
+      </c>
+      <c r="D74" s="1">
+        <v>0.4831597222222222</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F74" s="1">
+        <v>0.4848958333333333</v>
+      </c>
+      <c r="G74" s="1">
+        <v>0.48946759259259259</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I74" s="1">
+        <v>0.4914351851851852</v>
+      </c>
+      <c r="J74" s="1">
+        <v>0.49496527777777777</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L74" s="1">
+        <v>0.49563657407407408</v>
+      </c>
+      <c r="M74" s="1">
+        <v>0.49910879629629629</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O74" s="1">
+        <v>0.5009837962962963</v>
+      </c>
+      <c r="P74" s="1">
+        <v>0.50469907407407411</v>
+      </c>
+      <c r="Q74" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R74" s="1">
+        <v>0.51009259259259265</v>
+      </c>
+      <c r="S74" s="1">
+        <v>0.51356481481481475</v>
+      </c>
+      <c r="T74" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U74" s="1">
+        <v>0.51447916666666671</v>
+      </c>
+      <c r="V74" s="1">
+        <v>0.51796296296296296</v>
+      </c>
+      <c r="W74" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X74" s="1">
+        <v>0.52704861111111112</v>
+      </c>
+      <c r="Y74" s="1">
+        <v>0.53052083333333333</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C75" s="1"/>
+      <c r="E75" s="2">
+        <f>(C74-B74)*86400</f>
+        <v>108.99999999999466</v>
+      </c>
+      <c r="F75" s="2"/>
+      <c r="H75">
+        <f>(F74-B74)*86400</f>
+        <v>558.99999999999307</v>
+      </c>
+      <c r="K75">
+        <f>(I74-B74)*86400</f>
+        <v>1123.9999999999966</v>
+      </c>
+      <c r="N75">
+        <f>(L74-B74)*86400</f>
+        <v>1486.9999999999959</v>
+      </c>
+      <c r="Q75">
+        <f>(O74-B74)*86400</f>
+        <v>1948.9999999999961</v>
+      </c>
+      <c r="T75">
+        <f>(R74-B74)*86400</f>
+        <v>2736.0000000000009</v>
+      </c>
+      <c r="W75">
+        <f>(U74-B74)*86400</f>
+        <v>3114.9999999999995</v>
+      </c>
+      <c r="Z75">
+        <f>(X74-B74)*86400</f>
+        <v>4200.9999999999964</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C76" s="1"/>
+      <c r="E76" s="2">
+        <f>(D74-B74)*86400</f>
+        <v>408.99999999999358</v>
+      </c>
+      <c r="H76">
+        <f>(G74-B74)*86400</f>
+        <v>953.99999999999568</v>
+      </c>
+      <c r="K76">
+        <f>(J74-B74)*86400</f>
+        <v>1428.9999999999948</v>
+      </c>
+      <c r="N76">
+        <f>(M74-B74)*86400</f>
+        <v>1786.9999999999948</v>
+      </c>
+      <c r="Q76">
+        <f>(P74-B74)*86400</f>
+        <v>2269.9999999999982</v>
+      </c>
+      <c r="T76">
+        <f>(S74-B74)*86400</f>
+        <v>3035.99999999999</v>
+      </c>
+      <c r="W76">
+        <f>(V74-B74)*86400</f>
+        <v>3415.999999999995</v>
+      </c>
+      <c r="Z76">
+        <f>(Y74-B74)*86400</f>
+        <v>4500.9999999999955</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E77">
+        <v>2</v>
+      </c>
+      <c r="H77">
+        <v>5</v>
+      </c>
+      <c r="K77">
+        <v>3</v>
+      </c>
+      <c r="N77">
+        <v>2</v>
+      </c>
+      <c r="Q77">
+        <v>5.31</v>
+      </c>
+      <c r="T77">
+        <v>5</v>
+      </c>
+      <c r="W77">
+        <v>5.43</v>
+      </c>
+      <c r="Z77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="H78">
+        <v>6</v>
+      </c>
+      <c r="K78">
+        <v>3</v>
+      </c>
+      <c r="Q78">
+        <v>4.97</v>
+      </c>
+      <c r="W78">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>43</v>
+      </c>
+      <c r="B80" s="1">
+        <v>0.6896064814814814</v>
+      </c>
+      <c r="C80" s="1">
+        <v>0.69295138888888896</v>
+      </c>
+      <c r="D80" s="1">
+        <v>0.69642361111111117</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F80" s="1">
+        <v>0.69807870370370362</v>
+      </c>
+      <c r="G80" s="1">
+        <v>0.7026041666666667</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I80" s="1">
+        <v>0.70496527777777773</v>
+      </c>
+      <c r="J80" s="1">
+        <v>0.70945601851851858</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L80" s="1">
+        <v>0.71015046296296302</v>
+      </c>
+      <c r="M80" s="1">
+        <v>0.71362268518518512</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O80" s="1">
+        <v>0.71547453703703701</v>
+      </c>
+      <c r="P80" s="1">
+        <v>0.71918981481481481</v>
+      </c>
+      <c r="Q80" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R80" s="1">
+        <v>0.72857638888888887</v>
+      </c>
+      <c r="S80" s="1">
+        <v>0.73204861111111119</v>
+      </c>
+      <c r="T80" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U80" s="1">
+        <v>0.73285879629629624</v>
+      </c>
+      <c r="V80" s="1">
+        <v>0.73634259259259249</v>
+      </c>
+      <c r="W80" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X80" s="1">
+        <v>0.74515046296296295</v>
+      </c>
+      <c r="Y80" s="1">
+        <v>0.74862268518518515</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C81" s="1"/>
+      <c r="E81" s="2">
+        <f>(C80-B80)*86400</f>
+        <v>289.00000000001319</v>
+      </c>
+      <c r="F81" s="2"/>
+      <c r="H81">
+        <f>(F80-B80)*86400</f>
+        <v>731.99999999999932</v>
+      </c>
+      <c r="K81">
+        <f>(I80-B80)*86400</f>
+        <v>1327.0000000000027</v>
+      </c>
+      <c r="N81">
+        <f>(L80-B80)*86400</f>
+        <v>1775.0000000000121</v>
+      </c>
+      <c r="Q81">
+        <f>(O80-B80)*86400</f>
+        <v>2235.0000000000041</v>
+      </c>
+      <c r="T81">
+        <f>(R80-B80)*86400</f>
+        <v>3367.000000000005</v>
+      </c>
+      <c r="W81">
+        <f>(U80-B80)*86400</f>
+        <v>3737.0000000000023</v>
+      </c>
+      <c r="Z81">
+        <f>(X80-B80)*86400</f>
+        <v>4799.0000000000055</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C82" s="1"/>
+      <c r="E82" s="2">
+        <f>(D80-B80)*86400</f>
+        <v>589.00000000001216</v>
+      </c>
+      <c r="H82">
+        <f>(G80-B80)*86400</f>
+        <v>1123.0000000000093</v>
+      </c>
+      <c r="K82">
+        <f>(J80-B80)*86400</f>
+        <v>1715.0000000000123</v>
+      </c>
+      <c r="N82">
+        <f>(M80-B80)*86400</f>
+        <v>2075.0000000000014</v>
+      </c>
+      <c r="Q82">
+        <f>(P80-B80)*86400</f>
+        <v>2556.0000000000064</v>
+      </c>
+      <c r="T82">
+        <f>(S80-B80)*86400</f>
+        <v>3667.0000000000136</v>
+      </c>
+      <c r="W82">
+        <f>(V80-B80)*86400</f>
+        <v>4037.9999999999982</v>
+      </c>
+      <c r="Z82">
+        <f>(Y80-B80)*86400</f>
+        <v>5099.0000000000045</v>
+      </c>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>5</v>
+      </c>
+      <c r="K83">
+        <v>2</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
+      <c r="Q83">
+        <v>5.47</v>
+      </c>
+      <c r="T83">
+        <v>5</v>
+      </c>
+      <c r="W83">
+        <v>6.9</v>
+      </c>
+      <c r="Z83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="H84">
+        <v>7</v>
+      </c>
+      <c r="K84">
+        <v>3</v>
+      </c>
+      <c r="Q84">
+        <v>5.18</v>
+      </c>
+      <c r="W84">
+        <v>2.33</v>
       </c>
     </row>
   </sheetData>
@@ -1342,7 +3269,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1354,7 +3281,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ExperimentFolder_v23.9.19/DataStorage/Segmententabelle.xlsx
+++ b/ExperimentFolder_v23.9.19/DataStorage/Segmententabelle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="132" windowWidth="14112" windowHeight="8268"/>
+    <workbookView xWindow="600" yWindow="135" windowWidth="14115" windowHeight="8265"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -154,10 +154,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -183,11 +190,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="21" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -491,41 +501,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AC54" sqref="AC54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="18" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="18" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -605,7 +615,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -685,7 +695,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="14.45" x14ac:dyDescent="0.25">
       <c r="E3" s="2">
         <f>(C2-B2)*86400</f>
         <v>272.99999999999471</v>
@@ -720,7 +730,7 @@
         <v>4990.9999999999964</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="14.45" x14ac:dyDescent="0.25">
       <c r="E4" s="2">
         <f>(D2-B2)*86400</f>
         <v>573.00000000000318</v>
@@ -754,7 +764,7 @@
         <v>5291.0000000000055</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="14.45" x14ac:dyDescent="0.25">
       <c r="E5">
         <v>1</v>
       </c>
@@ -780,7 +790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="14.45" x14ac:dyDescent="0.25">
       <c r="H6">
         <v>7</v>
       </c>
@@ -794,7 +804,7 @@
         <v>3.26</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -874,7 +884,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="14.45" x14ac:dyDescent="0.25">
       <c r="E9" s="2">
         <f>(C8-B8)*86400</f>
         <v>216.99999999999716</v>
@@ -909,7 +919,7 @@
         <v>4298.9999999999955</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="14.45" x14ac:dyDescent="0.25">
       <c r="E10" s="2">
         <f>(D8-B8)*86400</f>
         <v>517.00000000000091</v>
@@ -943,7 +953,7 @@
         <v>4598.9999999999945</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="14.45" x14ac:dyDescent="0.25">
       <c r="E11">
         <v>1</v>
       </c>
@@ -969,7 +979,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="14.45" x14ac:dyDescent="0.25">
       <c r="H12">
         <v>10</v>
       </c>
@@ -983,7 +993,7 @@
         <v>2.56</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1063,7 +1073,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="14.45" x14ac:dyDescent="0.25">
       <c r="E15" s="2">
         <f>(C14-B14)*86400</f>
         <v>195.99999999999866</v>
@@ -1098,7 +1108,7 @@
         <v>3936.9999999999982</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="14.45" x14ac:dyDescent="0.25">
       <c r="E16" s="2">
         <f>(D14-B14)*86400</f>
         <v>496.00000000000239</v>
@@ -1132,7 +1142,7 @@
         <v>4236.9999999999973</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="14.45" x14ac:dyDescent="0.25">
       <c r="E17">
         <v>1</v>
       </c>
@@ -1158,7 +1168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="14.45" x14ac:dyDescent="0.25">
       <c r="H18">
         <v>10</v>
       </c>
@@ -1172,7 +1182,7 @@
         <v>2.23</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -1252,7 +1262,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="14.45" x14ac:dyDescent="0.25">
       <c r="E21" s="2">
         <f>(C20-B20)*86400</f>
         <v>167.00000000001012</v>
@@ -1287,7 +1297,7 @@
         <v>4856.0000000000045</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="14.45" x14ac:dyDescent="0.25">
       <c r="E22" s="2">
         <f>(D20-B20)*86400</f>
         <v>467.00000000000904</v>
@@ -1321,7 +1331,7 @@
         <v>5156.0000000000036</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="14.45" x14ac:dyDescent="0.25">
       <c r="E23">
         <v>2</v>
       </c>
@@ -1347,7 +1357,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="14.45" x14ac:dyDescent="0.25">
       <c r="H24">
         <v>9</v>
       </c>
@@ -1361,7 +1371,7 @@
         <v>2.66</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -1441,7 +1451,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E27" s="2">
         <f>(C26-B26)*86400</f>
         <v>199.99999999999608</v>
@@ -1476,7 +1486,7 @@
         <v>4617.0000000000027</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E28" s="2">
         <f>(D26-B26)*86400</f>
         <v>499.99999999999983</v>
@@ -1510,7 +1520,7 @@
         <v>4917.0000000000009</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E29">
         <v>2</v>
       </c>
@@ -1536,7 +1546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="H30">
         <v>8</v>
       </c>
@@ -1550,7 +1560,7 @@
         <v>2.23</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -1627,7 +1637,7 @@
         <v>0.43980324074074079</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E33" s="2">
         <f>(C32-B32)*86400</f>
         <v>189.00000000000077</v>
@@ -1662,7 +1672,7 @@
         <v>3986.9999999999995</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E34" s="2">
         <f>(D32-B32)*86400</f>
         <v>488.99999999999488</v>
@@ -1696,7 +1706,7 @@
         <v>4287.0000000000036</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E35">
         <v>2</v>
       </c>
@@ -1722,7 +1732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="H36">
         <v>8</v>
       </c>
@@ -1736,7 +1746,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1816,7 +1826,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E39" s="2">
         <f>(C38-B38)*86400</f>
         <v>220.99999999999937</v>
@@ -1851,7 +1861,7 @@
         <v>4810.9999999999973</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E40" s="2">
         <f>(D38-B38)*86400</f>
         <v>520.99999999999829</v>
@@ -1885,7 +1895,7 @@
         <v>5110.9999999999964</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E41">
         <v>2</v>
       </c>
@@ -1911,7 +1921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="H42">
         <v>8</v>
       </c>
@@ -1925,7 +1935,7 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>37</v>
       </c>
@@ -2005,7 +2015,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E45" s="2">
         <f>(C44-B44)*86400</f>
         <v>151.00000000000122</v>
@@ -2040,7 +2050,7 @@
         <v>4214</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E46" s="2">
         <f>(D44-B44)*86400</f>
         <v>451.00000000000495</v>
@@ -2074,7 +2084,7 @@
         <v>4514.0000000000036</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E47">
         <v>1</v>
       </c>
@@ -2100,7 +2110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="H48">
         <v>10</v>
       </c>
@@ -2114,7 +2124,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>38</v>
       </c>
@@ -2194,7 +2204,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E51" s="2">
         <f>(C50-B50)*86400</f>
         <v>326.99999999999835</v>
@@ -2229,7 +2239,7 @@
         <v>4670.9999999999964</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E52" s="2">
         <f>(D50-B50)*86400</f>
         <v>626.99999999999727</v>
@@ -2263,7 +2273,7 @@
         <v>4971</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E53">
         <v>2</v>
       </c>
@@ -2289,7 +2299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="H54">
         <v>5</v>
       </c>
@@ -2303,7 +2313,7 @@
         <v>2.83</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>39</v>
       </c>
@@ -2383,7 +2393,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E57" s="2">
         <f>(C56-B56)*86400</f>
         <v>186.00000000000989</v>
@@ -2418,7 +2428,7 @@
         <v>3847.0000000000036</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E58" s="2">
         <f>(D56-B56)*86400</f>
         <v>486.00000000000881</v>
@@ -2452,7 +2462,7 @@
         <v>4147.0000000000118</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E59">
         <v>2</v>
       </c>
@@ -2478,7 +2488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="H60">
         <v>5</v>
       </c>
@@ -2492,185 +2502,235 @@
         <v>3.23</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62" s="5">
         <v>0.5035532407407407</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62" s="5">
         <v>0.50611111111111107</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62" s="5">
         <v>0.50958333333333339</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E62" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F62" s="1">
+      <c r="F62" s="5">
         <v>0.5116666666666666</v>
       </c>
-      <c r="G62" s="1">
+      <c r="G62" s="5">
         <v>0.51623842592592595</v>
       </c>
-      <c r="H62" s="1" t="s">
+      <c r="H62" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I62" s="1">
+      <c r="I62" s="5">
         <v>0.51906249999999998</v>
       </c>
-      <c r="J62" s="1">
+      <c r="J62" s="5">
         <v>0.52324074074074078</v>
       </c>
-      <c r="K62" s="1" t="s">
+      <c r="K62" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L62" s="1">
+      <c r="L62" s="5">
         <v>0.52432870370370377</v>
       </c>
-      <c r="M62" s="1">
+      <c r="M62" s="5">
         <v>0.52780092592592587</v>
       </c>
-      <c r="N62" s="1" t="s">
+      <c r="N62" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="O62" s="1">
+      <c r="O62" s="5">
         <v>0.52953703703703703</v>
       </c>
-      <c r="P62" s="1">
+      <c r="P62" s="5">
         <v>0.53325231481481483</v>
       </c>
-      <c r="Q62" s="1" t="s">
+      <c r="Q62" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="R62" s="1">
+      <c r="R62" s="5">
         <v>0.54010416666666672</v>
       </c>
-      <c r="S62" s="1">
+      <c r="S62" s="5">
         <v>0.54357638888888882</v>
       </c>
-      <c r="T62" s="1" t="s">
+      <c r="T62" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="U62" s="1">
+      <c r="U62" s="5">
         <v>0.54432870370370368</v>
       </c>
-      <c r="V62" s="1">
+      <c r="V62" s="5">
         <v>0.54781250000000004</v>
       </c>
-      <c r="W62" s="1" t="s">
+      <c r="W62" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="X62" s="1">
+      <c r="X62" s="5">
         <v>0.55313657407407402</v>
       </c>
-      <c r="Y62" s="1">
+      <c r="Y62" s="5">
         <v>0.55660879629629634</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="Z62" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C63" s="1"/>
-      <c r="E63" s="2">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="6">
         <f>(C62-B62)*86400</f>
         <v>220.99999999999937</v>
       </c>
-      <c r="F63" s="2"/>
-      <c r="H63">
+      <c r="F63" s="6"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4">
         <f>(F62-B62)*86400</f>
         <v>700.99999999999773</v>
       </c>
-      <c r="K63">
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4">
         <f>(I62-B62)*86400</f>
         <v>1340.0000000000016</v>
       </c>
-      <c r="N63">
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4">
         <f>(L62-B62)*86400</f>
         <v>1795.0000000000089</v>
       </c>
-      <c r="Q63">
+      <c r="O63" s="4"/>
+      <c r="P63" s="4"/>
+      <c r="Q63" s="4">
         <f>(O62-B62)*86400</f>
         <v>2245.0000000000023</v>
       </c>
-      <c r="T63">
+      <c r="R63" s="4"/>
+      <c r="S63" s="4"/>
+      <c r="T63" s="4">
         <f>(R62-B62)*86400</f>
         <v>3158.0000000000077</v>
       </c>
-      <c r="W63">
+      <c r="U63" s="4"/>
+      <c r="V63" s="4"/>
+      <c r="W63" s="4">
         <f>(U62-B62)*86400</f>
         <v>3523.0000000000009</v>
       </c>
-      <c r="Z63">
+      <c r="X63" s="4"/>
+      <c r="Y63" s="4"/>
+      <c r="Z63" s="4">
         <f>(X62-B62)*86400</f>
         <v>4283.9999999999982</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C64" s="1"/>
-      <c r="E64" s="2">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="6">
         <f>(D62-B62)*86400</f>
         <v>521.00000000000796</v>
       </c>
-      <c r="H64">
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4">
         <f>(G62-B62)*86400</f>
         <v>1096.000000000005</v>
       </c>
-      <c r="K64">
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4">
         <f>(J62-B62)*86400</f>
         <v>1701.0000000000068</v>
       </c>
-      <c r="N64">
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="4">
         <f>(M62-B62)*86400</f>
         <v>2094.9999999999982</v>
       </c>
-      <c r="Q64">
+      <c r="O64" s="4"/>
+      <c r="P64" s="4"/>
+      <c r="Q64" s="4">
         <f>(P62-B62)*86400</f>
         <v>2566.0000000000045</v>
       </c>
-      <c r="T64">
+      <c r="R64" s="4"/>
+      <c r="S64" s="4"/>
+      <c r="T64" s="4">
         <f>(S62-B62)*86400</f>
         <v>3457.9999999999968</v>
       </c>
-      <c r="W64">
+      <c r="U64" s="4"/>
+      <c r="V64" s="4"/>
+      <c r="W64" s="4">
         <f>(V62-B62)*86400</f>
         <v>3824.0000000000064</v>
       </c>
-      <c r="Z64">
+      <c r="X64" s="4"/>
+      <c r="Y64" s="4"/>
+      <c r="Z64" s="4">
         <f>(Y62-B62)*86400</f>
         <v>4584.0000000000064</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C65" s="1"/>
-      <c r="E65">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4">
         <v>1</v>
       </c>
-      <c r="H65">
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4">
         <v>7</v>
       </c>
-      <c r="K65">
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4">
         <v>4</v>
       </c>
-      <c r="N65">
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="4">
         <v>1</v>
       </c>
-      <c r="Q65">
+      <c r="O65" s="4"/>
+      <c r="P65" s="4"/>
+      <c r="Q65" s="4">
         <v>5.0599999999999996</v>
       </c>
-      <c r="T65">
+      <c r="R65" s="4"/>
+      <c r="S65" s="4"/>
+      <c r="T65" s="4">
         <v>5</v>
       </c>
-      <c r="W65">
+      <c r="U65" s="4"/>
+      <c r="V65" s="4"/>
+      <c r="W65" s="4">
         <v>6.06</v>
       </c>
-      <c r="Z65">
+      <c r="X65" s="4"/>
+      <c r="Y65" s="4"/>
+      <c r="Z65" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="H66">
         <v>7</v>
       </c>
@@ -2684,7 +2744,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>41</v>
       </c>
@@ -2764,7 +2824,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C69" s="1"/>
       <c r="E69" s="2">
         <f>(C68-B68)*86400</f>
@@ -2800,7 +2860,7 @@
         <v>4348.9999999999927</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C70" s="1"/>
       <c r="E70" s="2">
         <f>(D68-B68)*86400</f>
@@ -2835,7 +2895,7 @@
         <v>4648.9999999999909</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E71">
         <v>2</v>
       </c>
@@ -2861,7 +2921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="H72">
         <v>3</v>
       </c>
@@ -2875,7 +2935,7 @@
         <v>3.57</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>42</v>
       </c>
@@ -2955,7 +3015,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C75" s="1"/>
       <c r="E75" s="2">
         <f>(C74-B74)*86400</f>
@@ -2991,7 +3051,7 @@
         <v>4200.9999999999964</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C76" s="1"/>
       <c r="E76" s="2">
         <f>(D74-B74)*86400</f>
@@ -3026,7 +3086,7 @@
         <v>4500.9999999999955</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E77">
         <v>2</v>
       </c>
@@ -3052,7 +3112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="H78">
         <v>6</v>
       </c>
@@ -3066,7 +3126,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>43</v>
       </c>
@@ -3146,7 +3206,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C81" s="1"/>
       <c r="E81" s="2">
         <f>(C80-B80)*86400</f>
@@ -3182,7 +3242,7 @@
         <v>4799.0000000000055</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C82" s="1"/>
       <c r="E82" s="2">
         <f>(D80-B80)*86400</f>
@@ -3217,7 +3277,7 @@
         <v>5099.0000000000045</v>
       </c>
     </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E83">
         <v>1</v>
       </c>
@@ -3243,7 +3303,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="H84">
         <v>7</v>
       </c>
@@ -3269,7 +3329,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3281,7 +3341,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ExperimentFolder_v23.9.19/DataStorage/Segmententabelle.xlsx
+++ b/ExperimentFolder_v23.9.19/DataStorage/Segmententabelle.xlsx
@@ -154,7 +154,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,6 +165,20 @@
     <font>
       <sz val="11"/>
       <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -190,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -198,6 +212,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="21" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="21" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -501,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AC54" sqref="AC54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,157 +633,190 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="8">
         <v>0.66851851851851851</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="8">
         <v>0.67167824074074067</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="8">
         <v>0.67515046296296299</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="8">
         <v>0.67707175925925922</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="8">
         <v>0.6815972222222223</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="8">
         <v>0.6840856481481481</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="8">
         <v>0.69019675925925927</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="8">
         <v>0.69221064814814814</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="8">
         <v>0.69568287037037047</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="8">
         <v>0.69811342592592596</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2" s="8">
         <v>0.70182870370370365</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2" s="8">
         <v>0.71127314814814813</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S2" s="8">
         <v>0.71474537037037045</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="T2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="1">
+      <c r="U2" s="8">
         <v>0.71537037037037043</v>
       </c>
-      <c r="V2" s="1">
+      <c r="V2" s="8">
         <v>0.71885416666666668</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="W2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="X2" s="1">
+      <c r="X2" s="8">
         <v>0.72628472222222218</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="Y2" s="8">
         <v>0.7297569444444445</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="Z2" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="E3" s="2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10">
         <f>(C2-B2)*86400</f>
         <v>272.99999999999471</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="H3">
+      <c r="F3" s="10"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9">
         <f>(F2-B2)*86400</f>
         <v>738.99999999999727</v>
       </c>
-      <c r="K3">
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9">
         <f>(I2-B2)*86400</f>
         <v>1344.9999999999959</v>
       </c>
-      <c r="N3">
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9">
         <f>(L2-B2)*86400</f>
         <v>2047.0000000000002</v>
       </c>
-      <c r="Q3">
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9">
         <f>(O2-B2)*86400</f>
         <v>2557.0000000000032</v>
       </c>
-      <c r="T3">
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9">
         <f>(R2-B2)*86400</f>
         <v>3693.9999999999986</v>
       </c>
-      <c r="W3">
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9">
         <f>(U2-B2)*86400</f>
         <v>4048.0000000000059</v>
       </c>
-      <c r="Z3">
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9">
         <f>(X2-B2)*86400</f>
         <v>4990.9999999999964</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="E4" s="2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10">
         <f>(D2-B2)*86400</f>
         <v>573.00000000000318</v>
       </c>
-      <c r="H4">
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9">
         <f>(G2-B2)*86400</f>
         <v>1130.0000000000073</v>
       </c>
-      <c r="K4">
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9">
         <f>(J2-B2)*86400</f>
         <v>1873.0000000000018</v>
       </c>
-      <c r="N4">
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9">
         <f>(M2-B2)*86400</f>
         <v>2347.0000000000086</v>
       </c>
-      <c r="Q4">
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9">
         <f>(P2-B2)*86400</f>
         <v>2877.9999999999959</v>
       </c>
-      <c r="T4">
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9">
         <f>(S2-B2)*86400</f>
         <v>3994.0000000000073</v>
       </c>
-      <c r="W4">
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9">
         <f>(V2-B2)*86400</f>
         <v>4349.0000000000018</v>
       </c>
-      <c r="Z4">
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9">
         <f>(Y2-B2)*86400</f>
         <v>5291.0000000000055</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="E5">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="E5" s="9">
         <v>1</v>
       </c>
       <c r="H5">
@@ -774,30 +825,30 @@
       <c r="K5">
         <v>2</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="9">
         <v>1</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="9">
         <v>7</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="9">
         <v>5</v>
       </c>
       <c r="W5">
         <v>7.33</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="H6">
         <v>7</v>
       </c>
       <c r="K6">
         <v>3</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="9">
         <v>4.75</v>
       </c>
       <c r="W6">
@@ -2015,7 +2066,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E45" s="2">
         <f>(C44-B44)*86400</f>
         <v>151.00000000000122</v>
@@ -2050,7 +2101,7 @@
         <v>4214</v>
       </c>
     </row>
-    <row r="46" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E46" s="2">
         <f>(D44-B44)*86400</f>
         <v>451.00000000000495</v>
@@ -2084,7 +2135,7 @@
         <v>4514.0000000000036</v>
       </c>
     </row>
-    <row r="47" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E47">
         <v>1</v>
       </c>
@@ -2110,7 +2161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="H48">
         <v>10</v>
       </c>
@@ -2124,7 +2175,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="50" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>38</v>
       </c>
@@ -2204,7 +2255,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E51" s="2">
         <f>(C50-B50)*86400</f>
         <v>326.99999999999835</v>
@@ -2239,7 +2290,7 @@
         <v>4670.9999999999964</v>
       </c>
     </row>
-    <row r="52" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E52" s="2">
         <f>(D50-B50)*86400</f>
         <v>626.99999999999727</v>
@@ -2273,7 +2324,7 @@
         <v>4971</v>
       </c>
     </row>
-    <row r="53" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E53">
         <v>2</v>
       </c>
@@ -2299,7 +2350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="H54">
         <v>5</v>
       </c>
@@ -2313,7 +2364,7 @@
         <v>2.83</v>
       </c>
     </row>
-    <row r="56" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>39</v>
       </c>
@@ -2393,7 +2444,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E57" s="2">
         <f>(C56-B56)*86400</f>
         <v>186.00000000000989</v>
@@ -2428,7 +2479,7 @@
         <v>3847.0000000000036</v>
       </c>
     </row>
-    <row r="58" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E58" s="2">
         <f>(D56-B56)*86400</f>
         <v>486.00000000000881</v>
@@ -2462,7 +2513,7 @@
         <v>4147.0000000000118</v>
       </c>
     </row>
-    <row r="59" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E59">
         <v>2</v>
       </c>
@@ -2488,7 +2539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="H60">
         <v>5</v>
       </c>
@@ -2730,21 +2781,36 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="H66">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="H66" s="7">
         <v>7</v>
       </c>
-      <c r="K66">
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7">
         <v>4</v>
       </c>
-      <c r="Q66">
+      <c r="L66" s="7"/>
+      <c r="M66" s="7"/>
+      <c r="N66" s="7"/>
+      <c r="O66" s="7"/>
+      <c r="P66" s="7"/>
+      <c r="Q66" s="7">
         <v>1.96</v>
       </c>
-      <c r="W66">
+      <c r="R66" s="7"/>
+      <c r="S66" s="7"/>
+      <c r="T66" s="7"/>
+      <c r="U66" s="7"/>
+      <c r="V66" s="7"/>
+      <c r="W66" s="7">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="68" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="X66" s="7"/>
+      <c r="Y66" s="7"/>
+      <c r="Z66" s="7"/>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>41</v>
       </c>
@@ -2824,7 +2890,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C69" s="1"/>
       <c r="E69" s="2">
         <f>(C68-B68)*86400</f>
@@ -2860,7 +2926,7 @@
         <v>4348.9999999999927</v>
       </c>
     </row>
-    <row r="70" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C70" s="1"/>
       <c r="E70" s="2">
         <f>(D68-B68)*86400</f>
@@ -2895,7 +2961,7 @@
         <v>4648.9999999999909</v>
       </c>
     </row>
-    <row r="71" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E71">
         <v>2</v>
       </c>
@@ -2921,7 +2987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="H72">
         <v>3</v>
       </c>
@@ -2935,7 +3001,7 @@
         <v>3.57</v>
       </c>
     </row>
-    <row r="74" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>42</v>
       </c>
@@ -3015,7 +3081,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C75" s="1"/>
       <c r="E75" s="2">
         <f>(C74-B74)*86400</f>
@@ -3051,7 +3117,7 @@
         <v>4200.9999999999964</v>
       </c>
     </row>
-    <row r="76" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C76" s="1"/>
       <c r="E76" s="2">
         <f>(D74-B74)*86400</f>
@@ -3086,7 +3152,7 @@
         <v>4500.9999999999955</v>
       </c>
     </row>
-    <row r="77" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E77">
         <v>2</v>
       </c>
@@ -3112,7 +3178,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="H78">
         <v>6</v>
       </c>
@@ -3126,7 +3192,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="80" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>43</v>
       </c>
@@ -3206,7 +3272,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="3:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C81" s="1"/>
       <c r="E81" s="2">
         <f>(C80-B80)*86400</f>
@@ -3242,7 +3308,7 @@
         <v>4799.0000000000055</v>
       </c>
     </row>
-    <row r="82" spans="3:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C82" s="1"/>
       <c r="E82" s="2">
         <f>(D80-B80)*86400</f>
@@ -3277,7 +3343,7 @@
         <v>5099.0000000000045</v>
       </c>
     </row>
-    <row r="83" spans="3:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:26" x14ac:dyDescent="0.25">
       <c r="E83">
         <v>1</v>
       </c>
@@ -3303,7 +3369,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="3:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.25">
       <c r="H84">
         <v>7</v>
       </c>

--- a/ExperimentFolder_v23.9.19/DataStorage/Segmententabelle.xlsx
+++ b/ExperimentFolder_v23.9.19/DataStorage/Segmententabelle.xlsx
@@ -12,11 +12,12 @@
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="45">
   <si>
     <t>Subject</t>
   </si>
@@ -148,6 +149,9 @@
   </si>
   <si>
     <t>rs</t>
+  </si>
+  <si>
+    <t>um 30 sec gekürzt</t>
   </si>
 </sst>
 </file>
@@ -519,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:H6"/>
+    <sheetView tabSelected="1" topLeftCell="L6" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,7 +557,7 @@
     <col min="26" max="26" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -662,7 +666,7 @@
         <v>0.6840856481481481</v>
       </c>
       <c r="J2" s="8">
-        <v>0.69019675925925927</v>
+        <v>0.68984953703703711</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>30</v>
@@ -779,10 +783,12 @@
         <v>1130.0000000000073</v>
       </c>
       <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
+      <c r="J4" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="K4" s="9">
         <f>(J2-B2)*86400</f>
-        <v>1873.0000000000018</v>
+        <v>1843.0000000000068</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
@@ -819,22 +825,23 @@
       <c r="E5" s="9">
         <v>1</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="9">
         <v>9</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="9">
         <v>2</v>
       </c>
       <c r="N5" s="9">
         <v>1</v>
       </c>
+      <c r="P5" s="9"/>
       <c r="Q5" s="9">
         <v>7</v>
       </c>
       <c r="T5" s="9">
         <v>5</v>
       </c>
-      <c r="W5">
+      <c r="W5" s="9">
         <v>7.33</v>
       </c>
       <c r="Z5" s="9">
@@ -842,20 +849,20 @@
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="H6">
+      <c r="H6" s="9">
         <v>7</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="9">
         <v>3</v>
       </c>
       <c r="Q6" s="9">
         <v>4.75</v>
       </c>
-      <c r="W6">
+      <c r="W6" s="9">
         <v>3.26</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -935,7 +942,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E9" s="2">
         <f>(C8-B8)*86400</f>
         <v>216.99999999999716</v>
@@ -970,7 +977,7 @@
         <v>4298.9999999999955</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E10" s="2">
         <f>(D8-B8)*86400</f>
         <v>517.00000000000091</v>
@@ -1004,7 +1011,7 @@
         <v>4598.9999999999945</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E11">
         <v>1</v>
       </c>
@@ -1030,7 +1037,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="H12">
         <v>10</v>
       </c>
@@ -1044,7 +1051,7 @@
         <v>2.56</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1124,7 +1131,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E15" s="2">
         <f>(C14-B14)*86400</f>
         <v>195.99999999999866</v>
@@ -1159,7 +1166,7 @@
         <v>3936.9999999999982</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E16" s="2">
         <f>(D14-B14)*86400</f>
         <v>496.00000000000239</v>
@@ -1193,7 +1200,7 @@
         <v>4236.9999999999973</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E17">
         <v>1</v>
       </c>
@@ -1219,7 +1226,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="H18">
         <v>10</v>
       </c>
@@ -1233,7 +1240,7 @@
         <v>2.23</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -1313,7 +1320,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E21" s="2">
         <f>(C20-B20)*86400</f>
         <v>167.00000000001012</v>
@@ -1348,7 +1355,7 @@
         <v>4856.0000000000045</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E22" s="2">
         <f>(D20-B20)*86400</f>
         <v>467.00000000000904</v>
@@ -1382,7 +1389,7 @@
         <v>5156.0000000000036</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E23">
         <v>2</v>
       </c>
@@ -1408,7 +1415,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="H24">
         <v>9</v>
       </c>
@@ -1422,7 +1429,7 @@
         <v>2.66</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -1502,7 +1509,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E27" s="2">
         <f>(C26-B26)*86400</f>
         <v>199.99999999999608</v>
@@ -1537,7 +1544,7 @@
         <v>4617.0000000000027</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E28" s="2">
         <f>(D26-B26)*86400</f>
         <v>499.99999999999983</v>
@@ -1571,7 +1578,7 @@
         <v>4917.0000000000009</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E29">
         <v>2</v>
       </c>
@@ -1597,7 +1604,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="H30">
         <v>8</v>
       </c>
@@ -1611,7 +1618,7 @@
         <v>2.23</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -1688,7 +1695,7 @@
         <v>0.43980324074074079</v>
       </c>
     </row>
-    <row r="33" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E33" s="2">
         <f>(C32-B32)*86400</f>
         <v>189.00000000000077</v>
@@ -1723,7 +1730,7 @@
         <v>3986.9999999999995</v>
       </c>
     </row>
-    <row r="34" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E34" s="2">
         <f>(D32-B32)*86400</f>
         <v>488.99999999999488</v>
@@ -1757,7 +1764,7 @@
         <v>4287.0000000000036</v>
       </c>
     </row>
-    <row r="35" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E35">
         <v>2</v>
       </c>
@@ -1783,7 +1790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="H36">
         <v>8</v>
       </c>
@@ -1797,7 +1804,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="38" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1877,7 +1884,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E39" s="2">
         <f>(C38-B38)*86400</f>
         <v>220.99999999999937</v>
@@ -1912,7 +1919,7 @@
         <v>4810.9999999999973</v>
       </c>
     </row>
-    <row r="40" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E40" s="2">
         <f>(D38-B38)*86400</f>
         <v>520.99999999999829</v>
@@ -1946,7 +1953,7 @@
         <v>5110.9999999999964</v>
       </c>
     </row>
-    <row r="41" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E41">
         <v>2</v>
       </c>
@@ -1972,7 +1979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="H42">
         <v>8</v>
       </c>
@@ -1986,7 +1993,7 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="44" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>37</v>
       </c>

--- a/ExperimentFolder_v23.9.19/DataStorage/Segmententabelle.xlsx
+++ b/ExperimentFolder_v23.9.19/DataStorage/Segmententabelle.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="52">
   <si>
     <t>Subject</t>
   </si>
@@ -151,14 +150,35 @@
     <t>rs</t>
   </si>
   <si>
-    <t>um 30 sec gekürzt</t>
+    <t>Korrektur:</t>
+  </si>
+  <si>
+    <t>Korrekturzeit</t>
+  </si>
+  <si>
+    <t>Gerät</t>
+  </si>
+  <si>
+    <t>HTW</t>
+  </si>
+  <si>
+    <t>Privat</t>
+  </si>
+  <si>
+    <t>EndRecording</t>
+  </si>
+  <si>
+    <t>EndParadigm</t>
+  </si>
+  <si>
+    <t>visual inspection</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,32 +188,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="5"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -208,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -216,10 +227,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="21" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="21" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -521,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z84"/>
+  <dimension ref="A1:AB93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L6" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,313 +567,368 @@
     <col min="26" max="26" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="AA1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="5">
         <v>0.66851851851851851</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="5">
         <v>0.67167824074074067</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="5">
         <v>0.67515046296296299</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="5">
         <v>0.67707175925925922</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="5">
         <v>0.6815972222222223</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="5">
         <v>0.6840856481481481</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="5">
         <v>0.68984953703703711</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="5">
         <v>0.69221064814814814</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2" s="5">
         <v>0.69568287037037047</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="8">
+      <c r="O2" s="5">
         <v>0.69811342592592596</v>
       </c>
-      <c r="P2" s="8">
+      <c r="P2" s="5">
         <v>0.70182870370370365</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="8">
+      <c r="R2" s="5">
         <v>0.71127314814814813</v>
       </c>
-      <c r="S2" s="8">
+      <c r="S2" s="5">
         <v>0.71474537037037045</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="8">
+      <c r="U2" s="5">
         <v>0.71537037037037043</v>
       </c>
-      <c r="V2" s="8">
+      <c r="V2" s="5">
         <v>0.71885416666666668</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="W2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="X2" s="8">
+      <c r="X2" s="5">
         <v>0.72628472222222218</v>
       </c>
-      <c r="Y2" s="8">
+      <c r="Y2" s="5">
         <v>0.7297569444444445</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="Z2" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10">
-        <f>(C2-B2)*86400</f>
+      <c r="AA2" s="1">
+        <v>0.72995370370370372</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>0.72995370370370372</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="6">
+        <f>((C2-B2)*86400)-B4</f>
         <v>272.99999999999471</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9">
-        <f>(F2-B2)*86400</f>
+      <c r="F3" s="6"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4">
+        <f>((F2-B2)*86400)-B4</f>
         <v>738.99999999999727</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9">
-        <f>(I2-B2)*86400</f>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4">
+        <f>((I2-B2)*86400)-B4</f>
         <v>1344.9999999999959</v>
       </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9">
-        <f>(L2-B2)*86400</f>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4">
+        <f>((L2-B2)*86400)-B4</f>
         <v>2047.0000000000002</v>
       </c>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9">
-        <f>(O2-B2)*86400</f>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4">
+        <f>((O2-B2)*86400)-B4</f>
         <v>2557.0000000000032</v>
       </c>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9">
-        <f>(R2-B2)*86400</f>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4">
+        <f>((R2-B2)*86400)-B4</f>
         <v>3693.9999999999986</v>
       </c>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9">
-        <f>(U2-B2)*86400</f>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4">
+        <f>((U2-B2)*86400)-B4</f>
         <v>4048.0000000000059</v>
       </c>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9">
-        <f>(X2-B2)*86400</f>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4">
+        <f>((X2-B2)*86400)-B4</f>
         <v>4990.9999999999964</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10">
-        <f>(D2-B2)*86400</f>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6">
+        <f>((D2-B2)*86400)-B4</f>
         <v>573.00000000000318</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9">
-        <f>(G2-B2)*86400</f>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4">
+        <f>((G2-B2)*86400)-B4</f>
         <v>1130.0000000000073</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" s="9">
-        <f>(J2-B2)*86400</f>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4">
+        <f>((J2-B2)*86400)-B4</f>
         <v>1843.0000000000068</v>
       </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9">
-        <f>(M2-B2)*86400</f>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4">
+        <f>((M2-B2)*86400)-B4</f>
         <v>2347.0000000000086</v>
       </c>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9">
-        <f>(P2-B2)*86400</f>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4">
+        <f>((P2-B2)*86400)-B4</f>
         <v>2877.9999999999959</v>
       </c>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9">
-        <f>(S2-B2)*86400</f>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4">
+        <f>((S2-B2)*86400)-B4</f>
         <v>3994.0000000000073</v>
       </c>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9">
-        <f>(V2-B2)*86400</f>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4">
+        <f>((V2-B2)*86400)-B4</f>
         <v>4349.0000000000018</v>
       </c>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="9">
-        <f>(Y2-B2)*86400</f>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4">
+        <f>((Y2-B2)*86400)-B4</f>
         <v>5291.0000000000055</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E5" s="9">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4">
         <v>1</v>
       </c>
-      <c r="H5" s="9">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4">
         <v>9</v>
       </c>
-      <c r="K5" s="9">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4">
         <v>2</v>
       </c>
-      <c r="N5" s="9">
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4">
         <v>1</v>
       </c>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9">
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4">
         <v>7</v>
       </c>
-      <c r="T5" s="9">
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4">
         <v>5</v>
       </c>
-      <c r="W5" s="9">
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4">
         <v>7.33</v>
       </c>
-      <c r="Z5" s="9">
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="H6" s="9">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4">
         <v>7</v>
       </c>
-      <c r="K6" s="9">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4">
         <v>3</v>
       </c>
-      <c r="Q6" s="9">
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4">
         <v>4.75</v>
       </c>
-      <c r="W6" s="9">
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4">
         <v>3.26</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="1">
@@ -941,77 +1006,89 @@
       <c r="Z8" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA8" s="1">
+        <v>0.50451388888888882</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>0.50457175925925923</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
       <c r="E9" s="2">
-        <f>(C8-B8)*86400</f>
-        <v>216.99999999999716</v>
+        <f>((C8-B8)*86400)-B10</f>
+        <v>211.99999999999716</v>
       </c>
       <c r="F9" s="2"/>
       <c r="H9">
-        <f>(F8-B8)*86400</f>
-        <v>715.99999999999523</v>
+        <f>((F8-B8)*86400)-B10</f>
+        <v>710.99999999999523</v>
       </c>
       <c r="K9">
-        <f>(I8-B8)*86400</f>
-        <v>1282.9999999999975</v>
+        <f>((I8-B8)*86400)-B10</f>
+        <v>1277.9999999999975</v>
       </c>
       <c r="N9">
-        <f>(L8-B8)*86400</f>
-        <v>1747.9999999999982</v>
+        <f>((L8-B8)*86400)-B10</f>
+        <v>1742.9999999999982</v>
       </c>
       <c r="Q9">
-        <f>(O8-B8)*86400</f>
-        <v>2205.9999999999964</v>
+        <f>((O8-B8)*86400)-B10</f>
+        <v>2200.9999999999964</v>
       </c>
       <c r="T9">
-        <f>(R8-B8)*86400</f>
-        <v>3127.9999999999932</v>
+        <f>((R8-B8)*86400)-B10</f>
+        <v>3122.9999999999932</v>
       </c>
       <c r="W9">
-        <f>(U8-B8)*86400</f>
-        <v>3478.9999999999955</v>
+        <f>((U8-B8)*86400)-B10</f>
+        <v>3473.9999999999955</v>
       </c>
       <c r="Z9">
-        <f>(X8-B8)*86400</f>
-        <v>4298.9999999999955</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+        <f>((X8-B8)*86400)-B10</f>
+        <v>4293.9999999999955</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>5</v>
+      </c>
       <c r="E10" s="2">
-        <f>(D8-B8)*86400</f>
-        <v>517.00000000000091</v>
+        <f>((D8-B8)*86400)-B10</f>
+        <v>512.00000000000091</v>
       </c>
       <c r="H10">
-        <f>(G8-B8)*86400</f>
-        <v>1105.9999999999986</v>
+        <f>((G8-B8)*86400)-B10</f>
+        <v>1100.9999999999986</v>
       </c>
       <c r="K10">
-        <f>(J8-B8)*86400</f>
-        <v>1646.0000000000016</v>
+        <f>((J8-B8)*86400)-B10</f>
+        <v>1641.0000000000016</v>
       </c>
       <c r="N10">
-        <f>(M8-B8)*86400</f>
-        <v>2047.9999999999973</v>
+        <f>((M8-B8)*86400)-B10</f>
+        <v>2042.9999999999973</v>
       </c>
       <c r="Q10">
-        <f>(P8-B8)*86400</f>
-        <v>2526.9999999999986</v>
+        <f>((P8-B8)*86400)-B10</f>
+        <v>2521.9999999999986</v>
       </c>
       <c r="T10">
-        <f>(S8-B8)*86400</f>
-        <v>3427.9999999999973</v>
+        <f>((S8-B8)*86400)-B10</f>
+        <v>3422.9999999999973</v>
       </c>
       <c r="W10">
-        <f>(V8-B8)*86400</f>
-        <v>3778.9999999999991</v>
+        <f>((V8-B8)*86400)-B10</f>
+        <v>3773.9999999999991</v>
       </c>
       <c r="Z10">
-        <f>(Y8-B8)*86400</f>
-        <v>4598.9999999999945</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+        <f>((Y8-B8)*86400)-B10</f>
+        <v>4593.9999999999945</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E11">
         <v>1</v>
       </c>
@@ -1037,7 +1114,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="H12">
         <v>10</v>
       </c>
@@ -1051,8 +1128,8 @@
         <v>2.56</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="1">
@@ -1130,77 +1207,89 @@
       <c r="Z14" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA14" s="7">
+        <v>0.50714120370370364</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>0.50771990740740736</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
       <c r="E15" s="2">
-        <f>(C14-B14)*86400</f>
-        <v>195.99999999999866</v>
+        <f>((C14-B14)*86400)-B16</f>
+        <v>143.99999999999866</v>
       </c>
       <c r="F15" s="2"/>
       <c r="H15">
-        <f>(F14-B14)*86400</f>
-        <v>645.99999999999704</v>
+        <f>((F14-B14)*86400)-B16</f>
+        <v>593.99999999999704</v>
       </c>
       <c r="K15">
-        <f>(I14-B14)*86400</f>
-        <v>1168.0000000000018</v>
+        <f>((I14-B14)*86400)-B16</f>
+        <v>1116.0000000000018</v>
       </c>
       <c r="N15">
-        <f>(L14-B14)*86400</f>
-        <v>1537.000000000002</v>
+        <f>((L14-B14)*86400)-B16</f>
+        <v>1485.000000000002</v>
       </c>
       <c r="Q15">
-        <f>(O14-B14)*86400</f>
-        <v>1936.9999999999991</v>
+        <f>((O14-B14)*86400)-B16</f>
+        <v>1884.9999999999991</v>
       </c>
       <c r="T15">
-        <f>(R14-B14)*86400</f>
-        <v>2848.0000000000055</v>
+        <f>((R14-B14)*86400)-B16</f>
+        <v>2796.0000000000055</v>
       </c>
       <c r="W15">
-        <f>(U14-B14)*86400</f>
-        <v>3184.0000000000005</v>
+        <f>((U14-B14)*86400)-B16</f>
+        <v>3132.0000000000005</v>
       </c>
       <c r="Z15">
-        <f>(X14-B14)*86400</f>
-        <v>3936.9999999999982</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+        <f>((X14-B14)*86400)-B16</f>
+        <v>3884.9999999999982</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>52</v>
+      </c>
       <c r="E16" s="2">
-        <f>(D14-B14)*86400</f>
-        <v>496.00000000000239</v>
+        <f>((D14-B14)*86400)-B16</f>
+        <v>444.00000000000239</v>
       </c>
       <c r="H16">
-        <f>(G14-B14)*86400</f>
-        <v>1040.9999999999995</v>
+        <f>((G14-B14)*86400)-B16</f>
+        <v>988.99999999999955</v>
       </c>
       <c r="K16">
-        <f>(J14-B14)*86400</f>
-        <v>1495.0000000000002</v>
+        <f>((J14-B14)*86400)-B16</f>
+        <v>1443.0000000000002</v>
       </c>
       <c r="N16">
-        <f>(M14-B14)*86400</f>
-        <v>1837.0000000000009</v>
+        <f>((M14-B14)*86400)-B16</f>
+        <v>1785.0000000000009</v>
       </c>
       <c r="Q16">
-        <f>(P14-B14)*86400</f>
-        <v>2258.0000000000014</v>
+        <f>((P14-B14)*86400)-B16</f>
+        <v>2206.0000000000014</v>
       </c>
       <c r="T16">
-        <f>(S14-B14)*86400</f>
-        <v>3147.9999999999995</v>
+        <f>((S14-B14)*86400)-B16</f>
+        <v>3095.9999999999995</v>
       </c>
       <c r="W16">
-        <f>(V14-B14)*86400</f>
-        <v>3485.0000000000059</v>
+        <f>((V14-B14)*86400)-B16</f>
+        <v>3433.0000000000059</v>
       </c>
       <c r="Z16">
-        <f>(Y14-B14)*86400</f>
-        <v>4236.9999999999973</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+        <f>((Y14-B14)*86400)-B16</f>
+        <v>4184.9999999999973</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E17">
         <v>1</v>
       </c>
@@ -1226,7 +1315,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="H18">
         <v>10</v>
       </c>
@@ -1240,1931 +1329,1968 @@
         <v>2.23</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19">
+        <v>142</v>
+      </c>
+      <c r="H19">
+        <v>598</v>
+      </c>
+      <c r="N19">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>442</v>
+      </c>
+      <c r="H20">
+        <v>992</v>
+      </c>
+      <c r="N20">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B22" s="1">
         <v>0.73925925925925917</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C22" s="1">
         <v>0.74119212962962966</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D22" s="1">
         <v>0.74466435185185187</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F22" s="1">
         <v>0.74832175925925926</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G22" s="1">
         <v>0.75284722222222211</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I22" s="1">
         <v>0.75535879629629632</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J22" s="1">
         <v>0.76019675925925922</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="K22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L22" s="1">
         <v>0.76123842592592583</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M22" s="1">
         <v>0.76471064814814815</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="N22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O20" s="1">
+      <c r="O22" s="1">
         <v>0.76700231481481485</v>
       </c>
-      <c r="P20" s="1">
+      <c r="P22" s="1">
         <v>0.77071759259259265</v>
       </c>
-      <c r="Q20" s="1" t="s">
+      <c r="Q22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="R20" s="1">
+      <c r="R22" s="1">
         <v>0.77896990740740746</v>
       </c>
-      <c r="S20" s="1">
+      <c r="S22" s="1">
         <v>0.78244212962962967</v>
       </c>
-      <c r="T20" s="1" t="s">
+      <c r="T22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="U20" s="1">
+      <c r="U22" s="1">
         <v>0.78489583333333324</v>
       </c>
-      <c r="V20" s="1">
+      <c r="V22" s="1">
         <v>0.7883796296296296</v>
       </c>
-      <c r="W20" s="1" t="s">
+      <c r="W22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="X20" s="1">
+      <c r="X22" s="1">
         <v>0.79546296296296293</v>
       </c>
-      <c r="Y20" s="1">
+      <c r="Y22" s="1">
         <v>0.79893518518518514</v>
       </c>
-      <c r="Z20" s="1" t="s">
+      <c r="Z22" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E21" s="2">
-        <f>(C20-B20)*86400</f>
+      <c r="AA22" s="7">
+        <v>0.79927083333333337</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>0.79914351851851861</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="2">
+        <f>((C22-B22)*86400)-B24</f>
         <v>167.00000000001012</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="H21">
-        <f>(F20-B20)*86400</f>
+      <c r="F23" s="2"/>
+      <c r="H23">
+        <f>((F22-B22)*86400)-B24</f>
         <v>783.00000000000728</v>
       </c>
-      <c r="K21">
-        <f>(I20-B20)*86400</f>
+      <c r="K23">
+        <f>((I22-B22)*86400)-B24</f>
         <v>1391.0000000000095</v>
       </c>
-      <c r="N21">
-        <f>(L20-B20)*86400</f>
+      <c r="N23">
+        <f>((L22-B22)*86400)-B24</f>
         <v>1898.9999999999995</v>
       </c>
-      <c r="Q21">
-        <f>(O20-B20)*86400</f>
+      <c r="Q23">
+        <f>((O22-B22)*86400)-B24</f>
         <v>2397.00000000001</v>
       </c>
-      <c r="T21">
-        <f>(R20-B20)*86400</f>
+      <c r="T23">
+        <f>((R22-B22)*86400)-B24</f>
         <v>3431.0000000000118</v>
       </c>
-      <c r="W21">
-        <f>(U20-B20)*86400</f>
+      <c r="W23">
+        <f>((U22-B22)*86400)-B24</f>
         <v>3942.9999999999991</v>
       </c>
-      <c r="Z21">
-        <f>(X20-B20)*86400</f>
+      <c r="Z23">
+        <f>((X22-B22)*86400)-B24</f>
         <v>4856.0000000000045</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E22" s="2">
-        <f>(D20-B20)*86400</f>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <f>((D22-B22)*86400)-B24</f>
         <v>467.00000000000904</v>
       </c>
-      <c r="H22">
-        <f>(G20-B20)*86400</f>
+      <c r="H24">
+        <f>((G22-B22)*86400)-B24</f>
         <v>1173.9999999999982</v>
       </c>
-      <c r="K22">
-        <f>(J20-B20)*86400</f>
+      <c r="K24">
+        <f>((J22-B22)*86400)-B24</f>
         <v>1809.0000000000045</v>
       </c>
-      <c r="N22">
-        <f>(M20-B20)*86400</f>
+      <c r="N24">
+        <f>((M22-B22)*86400)-B24</f>
         <v>2199.0000000000082</v>
       </c>
-      <c r="Q22">
-        <f>(P20-B20)*86400</f>
+      <c r="Q24">
+        <f>((P22-B22)*86400)-B24</f>
         <v>2718.0000000000123</v>
       </c>
-      <c r="T22">
-        <f>(S20-B20)*86400</f>
+      <c r="T24">
+        <f>((S22-B22)*86400)-B24</f>
         <v>3731.0000000000109</v>
       </c>
-      <c r="W22">
-        <f>(V20-B20)*86400</f>
+      <c r="W24">
+        <f>((V22-B22)*86400)-B24</f>
         <v>4244.0000000000045</v>
       </c>
-      <c r="Z22">
-        <f>(Y20-B20)*86400</f>
+      <c r="Z24">
+        <f>((Y22-B22)*86400)-B24</f>
         <v>5156.0000000000036</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E23">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="E25">
         <v>2</v>
       </c>
-      <c r="H23">
+      <c r="H25">
         <v>7</v>
       </c>
-      <c r="K23">
+      <c r="K25">
         <v>5</v>
       </c>
-      <c r="N23">
+      <c r="N25">
         <v>3</v>
       </c>
-      <c r="Q23">
+      <c r="Q25">
         <v>5.66</v>
       </c>
-      <c r="T23">
+      <c r="T25">
         <v>3</v>
       </c>
-      <c r="W23">
+      <c r="W25">
         <v>6.36</v>
       </c>
-      <c r="Z23">
+      <c r="Z25">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="H24">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="H26">
         <v>9</v>
       </c>
-      <c r="K24">
+      <c r="K26">
         <v>3</v>
       </c>
-      <c r="Q24">
+      <c r="Q26">
         <v>4.66</v>
       </c>
-      <c r="W24">
+      <c r="W26">
         <v>2.66</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B30" s="1">
         <v>0.42959490740740741</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C30" s="1">
         <v>0.43190972222222218</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D30" s="1">
         <v>0.43538194444444445</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F30" s="1">
         <v>0.43784722222222222</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G30" s="1">
         <v>0.44237268518518519</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I30" s="1">
         <v>0.44487268518518519</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J30" s="1">
         <v>0.44965277777777773</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="K30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L26" s="1">
+      <c r="L30" s="1">
         <v>0.450625</v>
       </c>
-      <c r="M26" s="1">
+      <c r="M30" s="1">
         <v>0.45409722222222221</v>
       </c>
-      <c r="N26" s="1" t="s">
+      <c r="N30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O26" s="1">
+      <c r="O30" s="1">
         <v>0.45626157407407408</v>
       </c>
-      <c r="P26" s="1">
+      <c r="P30" s="1">
         <v>0.45997685185185189</v>
       </c>
-      <c r="Q26" s="1" t="s">
+      <c r="Q30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="R26" s="1">
+      <c r="R30" s="1">
         <v>0.46811342592592592</v>
       </c>
-      <c r="S26" s="1">
+      <c r="S30" s="1">
         <v>0.47158564814814818</v>
       </c>
-      <c r="T26" s="1" t="s">
+      <c r="T30" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="U26" s="1">
+      <c r="U30" s="1">
         <v>0.47206018518518517</v>
       </c>
-      <c r="V26" s="1">
+      <c r="V30" s="1">
         <v>0.47554398148148147</v>
       </c>
-      <c r="W26" s="1" t="s">
+      <c r="W30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="X26" s="1">
+      <c r="X30" s="1">
         <v>0.48303240740740744</v>
       </c>
-      <c r="Y26" s="1">
+      <c r="Y30" s="1">
         <v>0.48650462962962965</v>
       </c>
-      <c r="Z26" s="1" t="s">
+      <c r="Z30" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E27" s="2">
-        <f>(C26-B26)*86400</f>
-        <v>199.99999999999608</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="H27">
-        <f>(F26-B26)*86400</f>
-        <v>712.99999999999955</v>
-      </c>
-      <c r="K27">
-        <f>(I26-B26)*86400</f>
-        <v>1320</v>
-      </c>
-      <c r="N27">
-        <f>(L26-B26)*86400</f>
-        <v>1816.9999999999995</v>
-      </c>
-      <c r="Q27">
-        <f>(O26-B26)*86400</f>
-        <v>2304.0000000000005</v>
-      </c>
-      <c r="T27">
-        <f>(R26-B26)*86400</f>
-        <v>3327.9999999999991</v>
-      </c>
-      <c r="W27">
-        <f>(U26-B26)*86400</f>
-        <v>3668.9999999999982</v>
-      </c>
-      <c r="Z27">
-        <f>(X26-B26)*86400</f>
-        <v>4617.0000000000027</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E28" s="2">
-        <f>(D26-B26)*86400</f>
-        <v>499.99999999999983</v>
-      </c>
-      <c r="H28">
-        <f>(G26-B26)*86400</f>
-        <v>1104</v>
-      </c>
-      <c r="K28">
-        <f>(J26-B26)*86400</f>
-        <v>1732.9999999999959</v>
-      </c>
-      <c r="N28">
-        <f>(M26-B26)*86400</f>
-        <v>2116.9999999999982</v>
-      </c>
-      <c r="Q28">
-        <f>(P26-B26)*86400</f>
-        <v>2625.0000000000027</v>
-      </c>
-      <c r="T28">
-        <f>(S26-B26)*86400</f>
-        <v>3628.0000000000027</v>
-      </c>
-      <c r="W28">
-        <f>(V26-B26)*86400</f>
-        <v>3969.9999999999986</v>
-      </c>
-      <c r="Z28">
-        <f>(Y26-B26)*86400</f>
-        <v>4917.0000000000009</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E29">
+      <c r="AA30" s="7">
+        <v>0.48643518518518519</v>
+      </c>
+      <c r="AB30" s="1">
+        <v>0.48673611111111109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="2">
+        <f>((C30-B30)*86400)-B32</f>
+        <v>173.99999999999608</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="H31">
+        <f>((F30-B30)*86400)-B32</f>
+        <v>686.99999999999955</v>
+      </c>
+      <c r="K31">
+        <f>((I30-B30)*86400)-B32</f>
+        <v>1294</v>
+      </c>
+      <c r="N31">
+        <f>((L30-B30)*86400)-B32</f>
+        <v>1790.9999999999995</v>
+      </c>
+      <c r="Q31">
+        <f>((O30-B30)*86400)-B32</f>
+        <v>2278.0000000000005</v>
+      </c>
+      <c r="T31">
+        <f>((R30-B30)*86400)-B32</f>
+        <v>3301.9999999999991</v>
+      </c>
+      <c r="W31">
+        <f>((U30-B30)*86400)-B32</f>
+        <v>3642.9999999999982</v>
+      </c>
+      <c r="Z31">
+        <f>((X30-B30)*86400)-B32</f>
+        <v>4591.0000000000027</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>26</v>
+      </c>
+      <c r="E32" s="2">
+        <f>((D30-B30)*86400)-B32</f>
+        <v>473.99999999999983</v>
+      </c>
+      <c r="H32">
+        <f>((G30-B30)*86400)-B32</f>
+        <v>1078</v>
+      </c>
+      <c r="K32">
+        <f>((J30-B30)*86400)-B32</f>
+        <v>1706.9999999999959</v>
+      </c>
+      <c r="N32">
+        <f>((M30-B30)*86400)-B32</f>
+        <v>2090.9999999999982</v>
+      </c>
+      <c r="Q32">
+        <f>((P30-B30)*86400)-B32</f>
+        <v>2599.0000000000027</v>
+      </c>
+      <c r="T32">
+        <f>((S30-B30)*86400)-B32</f>
+        <v>3602.0000000000027</v>
+      </c>
+      <c r="W32">
+        <f>((V30-B30)*86400)-B32</f>
+        <v>3943.9999999999986</v>
+      </c>
+      <c r="Z32">
+        <f>((Y30-B30)*86400)-B32</f>
+        <v>4891.0000000000009</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="E33">
         <v>2</v>
       </c>
-      <c r="H29">
+      <c r="H33">
         <v>5</v>
       </c>
-      <c r="K29">
+      <c r="K33">
         <v>3</v>
       </c>
-      <c r="N29">
+      <c r="N33">
         <v>2</v>
       </c>
-      <c r="Q29" s="2">
+      <c r="Q33" s="2">
         <v>6.75</v>
       </c>
-      <c r="T29">
+      <c r="T33">
         <v>5</v>
       </c>
-      <c r="W29" s="2">
+      <c r="W33" s="2">
         <v>7.7</v>
       </c>
-      <c r="Z29">
+      <c r="Z33">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="H30">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="H34">
         <v>8</v>
       </c>
-      <c r="K30">
+      <c r="K34">
         <v>4</v>
       </c>
-      <c r="Q30">
+      <c r="Q34">
         <v>5.63</v>
       </c>
-      <c r="W30">
+      <c r="W34">
         <v>2.23</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B36" s="1">
         <v>0.39018518518518519</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C36" s="1">
         <v>0.3923726851851852</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D36" s="1">
         <v>0.39584490740740735</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F36" s="1">
         <v>0.39804398148148151</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G36" s="1">
         <v>0.40256944444444448</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I36" s="1">
         <v>0.40457175925925926</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J36" s="1">
         <v>0.40855324074074079</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="K36" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L32" s="1">
+      <c r="L36" s="1">
         <v>0.40915509259259258</v>
       </c>
-      <c r="M32" s="1">
+      <c r="M36" s="1">
         <v>0.41262731481481479</v>
       </c>
-      <c r="N32" s="1" t="s">
+      <c r="N36" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O32" s="1">
+      <c r="O36" s="1">
         <v>0.41407407407407404</v>
       </c>
-      <c r="P32" s="1">
+      <c r="P36" s="1">
         <v>0.41781249999999998</v>
       </c>
-      <c r="Q32" s="1" t="s">
+      <c r="Q36" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="R32" s="1">
+      <c r="R36" s="1">
         <v>0.42277777777777775</v>
       </c>
-      <c r="S32" s="1">
+      <c r="S36" s="1">
         <v>0.42625000000000002</v>
       </c>
-      <c r="T32" s="1" t="s">
+      <c r="T36" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="U32" s="1">
+      <c r="U36" s="1">
         <v>0.42696759259259259</v>
       </c>
-      <c r="V32" s="1">
+      <c r="V36" s="1">
         <v>0.43046296296296299</v>
       </c>
-      <c r="W32" s="1" t="s">
+      <c r="W36" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="X32" s="1">
+      <c r="X36" s="1">
         <v>0.43633101851851852</v>
       </c>
-      <c r="Y32" s="1">
+      <c r="Y36" s="1">
         <v>0.43980324074074079</v>
       </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E33" s="2">
-        <f>(C32-B32)*86400</f>
+      <c r="Z36" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA36" s="7">
+        <v>0.44045138888888885</v>
+      </c>
+      <c r="AB36" s="1">
+        <v>0.4403819444444444</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" s="2">
+        <f>((C36-B36)*86400)-B38</f>
         <v>189.00000000000077</v>
       </c>
-      <c r="F33" s="2"/>
-      <c r="H33">
-        <f>(F32-B32)*86400</f>
+      <c r="F37" s="2"/>
+      <c r="H37">
+        <f>((F36-B36)*86400)-B38</f>
         <v>679.00000000000227</v>
       </c>
-      <c r="K33">
-        <f>(I32-B32)*86400</f>
+      <c r="K37">
+        <f>((I36-B36)*86400)-B38</f>
         <v>1242.9999999999993</v>
       </c>
-      <c r="N33">
-        <f>(L32-B32)*86400</f>
+      <c r="N37">
+        <f>((L36-B36)*86400)-B38</f>
         <v>1638.9999999999989</v>
       </c>
-      <c r="Q33">
-        <f>(O32-B32)*86400</f>
+      <c r="Q37">
+        <f>((O36-B36)*86400)-B38</f>
         <v>2063.9999999999964</v>
       </c>
-      <c r="T33">
-        <f>(R32-B32)*86400</f>
+      <c r="T37">
+        <f>((R36-B36)*86400)-B38</f>
         <v>2815.9999999999973</v>
       </c>
-      <c r="W33">
-        <f>(U32-B32)*86400</f>
+      <c r="W37">
+        <f>((U36-B36)*86400)-B38</f>
         <v>3177.9999999999995</v>
       </c>
-      <c r="Z33">
-        <f>(X32-B32)*86400</f>
+      <c r="Z37">
+        <f>((X36-B36)*86400)-B38</f>
         <v>3986.9999999999995</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E34" s="2">
-        <f>(D32-B32)*86400</f>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="E38" s="2">
+        <f>((D36-B36)*86400)-B38</f>
         <v>488.99999999999488</v>
       </c>
-      <c r="H34">
-        <f>(G32-B32)*86400</f>
+      <c r="H38">
+        <f>((G36-B36)*86400)-B38</f>
         <v>1070.0000000000025</v>
       </c>
-      <c r="K34">
-        <f>(J32-B32)*86400</f>
+      <c r="K38">
+        <f>((J36-B36)*86400)-B38</f>
         <v>1587.0000000000034</v>
       </c>
-      <c r="N34">
-        <f>(M32-B32)*86400</f>
+      <c r="N38">
+        <f>((M36-B36)*86400)-B38</f>
         <v>1938.9999999999977</v>
       </c>
-      <c r="Q34">
-        <f>(P32-B32)*86400</f>
+      <c r="Q38">
+        <f>((P36-B36)*86400)-B38</f>
         <v>2386.9999999999973</v>
       </c>
-      <c r="T34">
-        <f>(S32-B32)*86400</f>
+      <c r="T38">
+        <f>((S36-B36)*86400)-B38</f>
         <v>3116.0000000000009</v>
       </c>
-      <c r="W34">
-        <f>(V32-B32)*86400</f>
+      <c r="W38">
+        <f>((V36-B36)*86400)-B38</f>
         <v>3480.0000000000018</v>
       </c>
-      <c r="Z34">
-        <f>(Y32-B32)*86400</f>
+      <c r="Z38">
+        <f>((Y36-B36)*86400)-B38</f>
         <v>4287.0000000000036</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E35">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="E39">
         <v>2</v>
       </c>
-      <c r="H35">
+      <c r="H39">
         <v>9</v>
       </c>
-      <c r="K35">
+      <c r="K39">
         <v>6</v>
       </c>
-      <c r="N35">
+      <c r="N39">
         <v>1</v>
       </c>
-      <c r="Q35">
+      <c r="Q39">
         <v>5.81</v>
       </c>
-      <c r="T35">
+      <c r="T39">
         <v>5</v>
       </c>
-      <c r="W35">
+      <c r="W39">
         <v>6.9</v>
       </c>
-      <c r="Z35">
+      <c r="Z39">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="H36">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="H40">
         <v>8</v>
       </c>
-      <c r="K36">
+      <c r="K40">
         <v>6</v>
       </c>
-      <c r="Q36">
+      <c r="Q40">
         <v>5.28</v>
       </c>
-      <c r="W36">
+      <c r="W40">
         <v>2.6</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B42" s="1">
         <v>0.68614583333333334</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C42" s="1">
         <v>0.68870370370370371</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D42" s="1">
         <v>0.69217592592592592</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F42" s="1">
         <v>0.69486111111111104</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G42" s="1">
         <v>0.69938657407407412</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="H42" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I38" s="1">
+      <c r="I42" s="1">
         <v>0.70187499999999992</v>
       </c>
-      <c r="J38" s="1">
+      <c r="J42" s="1">
         <v>0.70591435185185192</v>
       </c>
-      <c r="K38" s="1" t="s">
+      <c r="K42" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L38" s="1">
+      <c r="L42" s="1">
         <v>0.70671296296296304</v>
       </c>
-      <c r="M38" s="1">
+      <c r="M42" s="1">
         <v>0.71018518518518514</v>
       </c>
-      <c r="N38" s="1" t="s">
+      <c r="N42" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O38" s="1">
+      <c r="O42" s="1">
         <v>0.71247685185185183</v>
       </c>
-      <c r="P38" s="1">
+      <c r="P42" s="1">
         <v>0.71619212962962964</v>
       </c>
-      <c r="Q38" s="1" t="s">
+      <c r="Q42" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="R38" s="1">
+      <c r="R42" s="1">
         <v>0.72373842592592597</v>
       </c>
-      <c r="S38" s="1">
+      <c r="S42" s="1">
         <v>0.72721064814814806</v>
       </c>
-      <c r="T38" s="1" t="s">
+      <c r="T42" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="U38" s="1">
+      <c r="U42" s="1">
         <v>0.72928240740740735</v>
       </c>
-      <c r="V38" s="1">
+      <c r="V42" s="1">
         <v>0.7327662037037036</v>
       </c>
-      <c r="W38" s="1" t="s">
+      <c r="W42" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="X38" s="1">
+      <c r="X42" s="1">
         <v>0.74182870370370368</v>
       </c>
-      <c r="Y38" s="1">
+      <c r="Y42" s="1">
         <v>0.74530092592592589</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="Z42" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E39" s="2">
-        <f>(C38-B38)*86400</f>
+      <c r="AA42" s="7">
+        <v>0.74577546296296304</v>
+      </c>
+      <c r="AB42" s="1">
+        <v>0.74570601851851848</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" s="2">
+        <f>((C42-B42)*86400)-B44</f>
         <v>220.99999999999937</v>
       </c>
-      <c r="F39" s="2"/>
-      <c r="H39">
-        <f>(F38-B38)*86400</f>
+      <c r="F43" s="2"/>
+      <c r="H43">
+        <f>((F42-B42)*86400)-B44</f>
         <v>752.99999999999295</v>
       </c>
-      <c r="K39">
-        <f>(I38-B38)*86400</f>
+      <c r="K43">
+        <f>((I42-B42)*86400)-B44</f>
         <v>1358.9999999999918</v>
       </c>
-      <c r="N39">
-        <f>(L38-B38)*86400</f>
+      <c r="N43">
+        <f>((L42-B42)*86400)-B44</f>
         <v>1777.0000000000059</v>
       </c>
-      <c r="Q39">
-        <f>(O38-B38)*86400</f>
+      <c r="Q43">
+        <f>((O42-B42)*86400)-B44</f>
         <v>2274.9999999999977</v>
       </c>
-      <c r="T39">
-        <f>(R38-B38)*86400</f>
+      <c r="T43">
+        <f>((R42-B42)*86400)-B44</f>
         <v>3248.0000000000027</v>
       </c>
-      <c r="W39">
-        <f>(U38-B38)*86400</f>
+      <c r="W43">
+        <f>((U42-B42)*86400)-B44</f>
         <v>3726.9999999999941</v>
       </c>
-      <c r="Z39">
-        <f>(X38-B38)*86400</f>
+      <c r="Z43">
+        <f>((X42-B42)*86400)-B44</f>
         <v>4810.9999999999973</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E40" s="2">
-        <f>(D38-B38)*86400</f>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="E44" s="2">
+        <f>((D42-B42)*86400)-B44</f>
         <v>520.99999999999829</v>
       </c>
-      <c r="H40">
-        <f>(G38-B38)*86400</f>
+      <c r="H44">
+        <f>((G42-B42)*86400)-B44</f>
         <v>1144.000000000003</v>
       </c>
-      <c r="K40">
-        <f>(J38-B38)*86400</f>
+      <c r="K44">
+        <f>((J42-B42)*86400)-B44</f>
         <v>1708.0000000000048</v>
       </c>
-      <c r="N40">
-        <f>(M38-B38)*86400</f>
+      <c r="N44">
+        <f>((M42-B42)*86400)-B44</f>
         <v>2076.9999999999955</v>
       </c>
-      <c r="Q40">
-        <f>(P38-B38)*86400</f>
+      <c r="Q44">
+        <f>((P42-B42)*86400)-B44</f>
         <v>2595.9999999999995</v>
       </c>
-      <c r="T40">
-        <f>(S38-B38)*86400</f>
+      <c r="T44">
+        <f>((S42-B42)*86400)-B44</f>
         <v>3547.9999999999918</v>
       </c>
-      <c r="W40">
-        <f>(V38-B38)*86400</f>
+      <c r="W44">
+        <f>((V42-B42)*86400)-B44</f>
         <v>4027.99999999999</v>
       </c>
-      <c r="Z40">
-        <f>(Y38-B38)*86400</f>
+      <c r="Z44">
+        <f>((Y42-B42)*86400)-B44</f>
         <v>5110.9999999999964</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E41">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="E45">
         <v>2</v>
       </c>
-      <c r="H41">
+      <c r="H45">
         <v>8</v>
       </c>
-      <c r="K41">
+      <c r="K45">
         <v>4</v>
       </c>
-      <c r="N41">
+      <c r="N45">
         <v>3</v>
       </c>
-      <c r="Q41">
+      <c r="Q45">
         <v>6.28</v>
       </c>
-      <c r="T41">
+      <c r="T45">
         <v>3</v>
       </c>
-      <c r="W41">
+      <c r="W45">
         <v>5.53</v>
       </c>
-      <c r="Z41">
+      <c r="Z45">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="H42">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="H46">
         <v>8</v>
       </c>
-      <c r="K42">
+      <c r="K46">
         <v>3</v>
       </c>
-      <c r="Q42">
+      <c r="Q46">
         <v>4.75</v>
       </c>
-      <c r="W42">
+      <c r="W46">
         <v>3.06</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>37</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B48" s="1">
         <v>0.40891203703703699</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C48" s="1">
         <v>0.41065972222222219</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D48" s="1">
         <v>0.41413194444444446</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F48" s="1">
         <v>0.41561342592592593</v>
       </c>
-      <c r="G44" s="1">
+      <c r="G48" s="1">
         <v>0.42018518518518522</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="H48" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I44" s="1">
+      <c r="I48" s="1">
         <v>0.42224537037037035</v>
       </c>
-      <c r="J44" s="1">
+      <c r="J48" s="1">
         <v>0.42675925925925928</v>
       </c>
-      <c r="K44" s="1" t="s">
+      <c r="K48" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L44" s="1">
+      <c r="L48" s="1">
         <v>0.42753472222222227</v>
       </c>
-      <c r="M44" s="1">
+      <c r="M48" s="1">
         <v>0.43100694444444443</v>
       </c>
-      <c r="N44" s="1" t="s">
+      <c r="N48" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O44" s="1">
+      <c r="O48" s="1">
         <v>0.43241898148148145</v>
       </c>
-      <c r="P44" s="1">
+      <c r="P48" s="1">
         <v>0.43612268518518515</v>
       </c>
-      <c r="Q44" s="1" t="s">
+      <c r="Q48" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="R44" s="1">
+      <c r="R48" s="1">
         <v>0.4445601851851852</v>
       </c>
-      <c r="S44" s="1">
+      <c r="S48" s="1">
         <v>0.44803240740740741</v>
       </c>
-      <c r="T44" s="1" t="s">
+      <c r="T48" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="U44" s="1">
+      <c r="U48" s="1">
         <v>0.4485763888888889</v>
       </c>
-      <c r="V44" s="1">
+      <c r="V48" s="1">
         <v>0.45204861111111111</v>
       </c>
-      <c r="W44" s="1" t="s">
+      <c r="W48" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="X44" s="1">
+      <c r="X48" s="1">
         <v>0.45768518518518514</v>
       </c>
-      <c r="Y44" s="1">
+      <c r="Y48" s="1">
         <v>0.4611574074074074</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="Z48" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E45" s="2">
-        <f>(C44-B44)*86400</f>
-        <v>151.00000000000122</v>
-      </c>
-      <c r="F45" s="2"/>
-      <c r="H45">
-        <f>(F44-B44)*86400</f>
-        <v>579.00000000000421</v>
-      </c>
-      <c r="K45">
-        <f>(I44-B44)*86400</f>
-        <v>1152.0000000000027</v>
-      </c>
-      <c r="N45">
-        <f>(L44-B44)*86400</f>
-        <v>1609.0000000000084</v>
-      </c>
-      <c r="Q45">
-        <f>(O44-B44)*86400</f>
-        <v>2031.0000000000009</v>
-      </c>
-      <c r="T45">
-        <f>(R44-B44)*86400</f>
-        <v>3080.000000000005</v>
-      </c>
-      <c r="W45">
-        <f>(U44-B44)*86400</f>
-        <v>3427.000000000005</v>
-      </c>
-      <c r="Z45">
-        <f>(X44-B44)*86400</f>
-        <v>4214</v>
-      </c>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E46" s="2">
-        <f>(D44-B44)*86400</f>
-        <v>451.00000000000495</v>
-      </c>
-      <c r="H46">
-        <f>(G44-B44)*86400</f>
-        <v>974.00000000000682</v>
-      </c>
-      <c r="K46">
-        <f>(J44-B44)*86400</f>
-        <v>1542.0000000000061</v>
-      </c>
-      <c r="N46">
-        <f>(M44-B44)*86400</f>
-        <v>1909.0000000000027</v>
-      </c>
-      <c r="Q46">
-        <f>(P44-B44)*86400</f>
-        <v>2351.0000000000014</v>
-      </c>
-      <c r="T46">
-        <f>(S44-B44)*86400</f>
-        <v>3380.0000000000041</v>
-      </c>
-      <c r="W46">
-        <f>(V44-B44)*86400</f>
-        <v>3727.0000000000036</v>
-      </c>
-      <c r="Z46">
-        <f>(Y44-B44)*86400</f>
-        <v>4514.0000000000036</v>
-      </c>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E47">
+      <c r="AA48" s="7">
+        <v>0.46134259259259264</v>
+      </c>
+      <c r="AB48" s="1">
+        <v>0.46141203703703698</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>44</v>
+      </c>
+      <c r="E49" s="2">
+        <f>((C48-B48)*86400)-B50</f>
+        <v>145.00000000000122</v>
+      </c>
+      <c r="F49" s="2"/>
+      <c r="H49">
+        <f>((F48-B48)*86400)-B50</f>
+        <v>573.00000000000421</v>
+      </c>
+      <c r="K49">
+        <f>((I48-B48)*86400)-B50</f>
+        <v>1146.0000000000027</v>
+      </c>
+      <c r="N49">
+        <f>((L48-B48)*86400)-B50</f>
+        <v>1603.0000000000084</v>
+      </c>
+      <c r="Q49">
+        <f>((O48-B48)*86400)-B50</f>
+        <v>2025.0000000000009</v>
+      </c>
+      <c r="T49">
+        <f>((R48-B48)*86400)-B50</f>
+        <v>3074.000000000005</v>
+      </c>
+      <c r="W49">
+        <f>((U48-B48)*86400)-B50</f>
+        <v>3421.000000000005</v>
+      </c>
+      <c r="Z49">
+        <f>((X48-B48)*86400)-B50</f>
+        <v>4208</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>6</v>
+      </c>
+      <c r="E50" s="2">
+        <f>((D48-B48)*86400)-B50</f>
+        <v>445.00000000000495</v>
+      </c>
+      <c r="H50">
+        <f>((G48-B48)*86400)-B50</f>
+        <v>968.00000000000682</v>
+      </c>
+      <c r="K50">
+        <f>((J48-B48)*86400)-B50</f>
+        <v>1536.0000000000061</v>
+      </c>
+      <c r="N50">
+        <f>((M48-B48)*86400)-B50</f>
+        <v>1903.0000000000027</v>
+      </c>
+      <c r="Q50">
+        <f>((P48-B48)*86400)-B50</f>
+        <v>2345.0000000000014</v>
+      </c>
+      <c r="T50">
+        <f>((S48-B48)*86400)-B50</f>
+        <v>3374.0000000000041</v>
+      </c>
+      <c r="W50">
+        <f>((V48-B48)*86400)-B50</f>
+        <v>3721.0000000000036</v>
+      </c>
+      <c r="Z50">
+        <f>((Y48-B48)*86400)-B50</f>
+        <v>4508.0000000000036</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="E51">
         <v>1</v>
       </c>
-      <c r="H47">
+      <c r="H51">
         <v>10</v>
       </c>
-      <c r="K47">
+      <c r="K51">
         <v>7</v>
       </c>
-      <c r="N47">
+      <c r="N51">
         <v>1</v>
       </c>
-      <c r="Q47">
+      <c r="Q51">
         <v>4.9400000000000004</v>
       </c>
-      <c r="T47">
+      <c r="T51">
         <v>3</v>
       </c>
-      <c r="W47">
+      <c r="W51">
         <v>5.66</v>
       </c>
-      <c r="Z47">
+      <c r="Z51">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="H48">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="H52">
         <v>10</v>
       </c>
-      <c r="K48">
+      <c r="K52">
         <v>6</v>
       </c>
-      <c r="Q48">
+      <c r="Q52">
         <v>5.31</v>
       </c>
-      <c r="W48">
+      <c r="W52">
         <v>3.1</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>38</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B54" s="1">
         <v>0.40179398148148149</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C54" s="1">
         <v>0.40557870370370369</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D54" s="1">
         <v>0.4090509259259259</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F54" s="1">
         <v>0.41189814814814812</v>
       </c>
-      <c r="G50" s="1">
+      <c r="G54" s="1">
         <v>0.41645833333333332</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="H54" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I50" s="1">
+      <c r="I54" s="1">
         <v>0.41924768518518518</v>
       </c>
-      <c r="J50" s="1">
+      <c r="J54" s="1">
         <v>0.42398148148148151</v>
       </c>
-      <c r="K50" s="1" t="s">
+      <c r="K54" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L50" s="1">
+      <c r="L54" s="1">
         <v>0.42495370370370367</v>
       </c>
-      <c r="M50" s="1">
+      <c r="M54" s="1">
         <v>0.42842592592592593</v>
       </c>
-      <c r="N50" s="1" t="s">
+      <c r="N54" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O50" s="1">
+      <c r="O54" s="1">
         <v>0.43041666666666667</v>
       </c>
-      <c r="P50" s="1">
+      <c r="P54" s="1">
         <v>0.43413194444444447</v>
       </c>
-      <c r="Q50" s="1" t="s">
+      <c r="Q54" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="R50" s="1">
+      <c r="R54" s="1">
         <v>0.4412962962962963</v>
       </c>
-      <c r="S50" s="1">
+      <c r="S54" s="1">
         <v>0.44476851851851856</v>
       </c>
-      <c r="T50" s="1" t="s">
+      <c r="T54" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="U50" s="1">
+      <c r="U54" s="1">
         <v>0.44545138888888891</v>
       </c>
-      <c r="V50" s="1">
+      <c r="V54" s="1">
         <v>0.44893518518518521</v>
       </c>
-      <c r="W50" s="1" t="s">
+      <c r="W54" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="X50" s="1">
+      <c r="X54" s="1">
         <v>0.45585648148148145</v>
       </c>
-      <c r="Y50" s="1">
+      <c r="Y54" s="1">
         <v>0.45932870370370371</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="Z54" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E51" s="2">
-        <f>(C50-B50)*86400</f>
-        <v>326.99999999999835</v>
-      </c>
-      <c r="F51" s="2"/>
-      <c r="H51">
-        <f>(F50-B50)*86400</f>
-        <v>872.99999999999739</v>
-      </c>
-      <c r="K51">
-        <f>(I50-B50)*86400</f>
-        <v>1507.9999999999991</v>
-      </c>
-      <c r="N51">
-        <f>(L50-B50)*86400</f>
-        <v>2000.9999999999964</v>
-      </c>
-      <c r="Q51">
-        <f>(O50-B50)*86400</f>
-        <v>2472.9999999999995</v>
-      </c>
-      <c r="T51">
-        <f>(R50-B50)*86400</f>
-        <v>3412.9999999999995</v>
-      </c>
-      <c r="W51">
-        <f>(U50-B50)*86400</f>
-        <v>3772.0000000000014</v>
-      </c>
-      <c r="Z51">
-        <f>(X50-B50)*86400</f>
-        <v>4670.9999999999964</v>
-      </c>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E52" s="2">
-        <f>(D50-B50)*86400</f>
-        <v>626.99999999999727</v>
-      </c>
-      <c r="H52">
-        <f>(G50-B50)*86400</f>
-        <v>1266.9999999999982</v>
-      </c>
-      <c r="K52">
-        <f>(J50-B50)*86400</f>
-        <v>1917.0000000000023</v>
-      </c>
-      <c r="N52">
-        <f>(M50-B50)*86400</f>
-        <v>2301</v>
-      </c>
-      <c r="Q52">
-        <f>(P50-B50)*86400</f>
-        <v>2794.0000000000018</v>
-      </c>
-      <c r="T52">
-        <f>(S50-B50)*86400</f>
-        <v>3713.0000000000032</v>
-      </c>
-      <c r="W52">
-        <f>(V50-B50)*86400</f>
-        <v>4073.0000000000018</v>
-      </c>
-      <c r="Z52">
-        <f>(Y50-B50)*86400</f>
-        <v>4971</v>
-      </c>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E53">
+      <c r="AA54" s="7">
+        <v>0.45947916666666666</v>
+      </c>
+      <c r="AB54" s="1">
+        <v>0.45962962962962961</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>44</v>
+      </c>
+      <c r="E55" s="2">
+        <f>((C54-B54)*86400)-B56</f>
+        <v>313.99999999999835</v>
+      </c>
+      <c r="F55" s="2"/>
+      <c r="H55">
+        <f>((F54-B54)*86400)-B56</f>
+        <v>859.99999999999739</v>
+      </c>
+      <c r="K55">
+        <f>((I54-B54)*86400)-B56</f>
+        <v>1494.9999999999991</v>
+      </c>
+      <c r="N55">
+        <f>((L54-B54)*86400)-B56</f>
+        <v>1987.9999999999964</v>
+      </c>
+      <c r="Q55">
+        <f>((O54-B54)*86400)-B56</f>
+        <v>2459.9999999999995</v>
+      </c>
+      <c r="T55">
+        <f>((R54-B54)*86400)-B56</f>
+        <v>3399.9999999999995</v>
+      </c>
+      <c r="W55">
+        <f>((U54-B54)*86400)-B56</f>
+        <v>3759.0000000000014</v>
+      </c>
+      <c r="Z55">
+        <f>((X54-B54)*86400)-B56</f>
+        <v>4657.9999999999964</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>13</v>
+      </c>
+      <c r="E56" s="2">
+        <f>((D54-B54)*86400)-B56</f>
+        <v>613.99999999999727</v>
+      </c>
+      <c r="H56">
+        <f>((G54-B54)*86400)-B56</f>
+        <v>1253.9999999999982</v>
+      </c>
+      <c r="K56">
+        <f>((J54-B54)*86400)-B56</f>
+        <v>1904.0000000000023</v>
+      </c>
+      <c r="N56">
+        <f>((M54-B54)*86400)-B56</f>
+        <v>2288</v>
+      </c>
+      <c r="Q56">
+        <f>((P54-B54)*86400)-B56</f>
+        <v>2781.0000000000018</v>
+      </c>
+      <c r="T56">
+        <f>((S54-B54)*86400)-B56</f>
+        <v>3700.0000000000032</v>
+      </c>
+      <c r="W56">
+        <f>((V54-B54)*86400)-B56</f>
+        <v>4060.0000000000018</v>
+      </c>
+      <c r="Z56">
+        <f>((Y54-B54)*86400)-B56</f>
+        <v>4958</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="E57">
         <v>2</v>
       </c>
-      <c r="H53">
+      <c r="H57">
         <v>4</v>
       </c>
-      <c r="K53">
+      <c r="K57">
         <v>7</v>
       </c>
-      <c r="N53">
+      <c r="N57">
         <v>2</v>
       </c>
-      <c r="Q53">
+      <c r="Q57">
         <v>5.84</v>
       </c>
-      <c r="T53">
+      <c r="T57">
         <v>5</v>
       </c>
-      <c r="W53">
+      <c r="W57">
         <v>6.06</v>
       </c>
-      <c r="Z53">
+      <c r="Z57">
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="H54">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="H58">
         <v>5</v>
       </c>
-      <c r="K54">
+      <c r="K58">
         <v>6</v>
       </c>
-      <c r="Q54">
+      <c r="Q58">
         <v>4.84</v>
       </c>
-      <c r="W54">
+      <c r="W58">
         <v>2.83</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B60" s="1">
         <v>0.55021990740740734</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C60" s="1">
         <v>0.55237268518518523</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D60" s="1">
         <v>0.55584490740740744</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F56" s="1">
+      <c r="F60" s="1">
         <v>0.55751157407407403</v>
       </c>
-      <c r="G56" s="1">
+      <c r="G60" s="1">
         <v>0.56207175925925923</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="H60" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I56" s="1">
+      <c r="I60" s="1">
         <v>0.56365740740740744</v>
       </c>
-      <c r="J56" s="1">
+      <c r="J60" s="1">
         <v>0.56800925925925927</v>
       </c>
-      <c r="K56" s="1" t="s">
+      <c r="K60" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L56" s="1">
+      <c r="L60" s="1">
         <v>0.56855324074074076</v>
       </c>
-      <c r="M56" s="1">
+      <c r="M60" s="1">
         <v>0.57202546296296297</v>
       </c>
-      <c r="N56" s="1" t="s">
+      <c r="N60" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O56" s="1">
+      <c r="O60" s="1">
         <v>0.573125</v>
       </c>
-      <c r="P56" s="1">
+      <c r="P60" s="1">
         <v>0.5768402777777778</v>
       </c>
-      <c r="Q56" s="1" t="s">
+      <c r="Q60" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="R56" s="1">
+      <c r="R60" s="1">
         <v>0.58266203703703701</v>
       </c>
-      <c r="S56" s="1">
+      <c r="S60" s="1">
         <v>0.58613425925925922</v>
       </c>
-      <c r="T56" s="1" t="s">
+      <c r="T60" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="U56" s="1">
+      <c r="U60" s="1">
         <v>0.58668981481481486</v>
       </c>
-      <c r="V56" s="1">
+      <c r="V60" s="1">
         <v>0.59843750000000007</v>
       </c>
-      <c r="W56" s="1" t="s">
+      <c r="W60" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="X56" s="1">
+      <c r="X60" s="1">
         <v>0.59474537037037034</v>
       </c>
-      <c r="Y56" s="1">
+      <c r="Y60" s="1">
         <v>0.59821759259259266</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="Z60" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E57" s="2">
-        <f>(C56-B56)*86400</f>
-        <v>186.00000000000989</v>
-      </c>
-      <c r="F57" s="2"/>
-      <c r="H57">
-        <f>(F56-B56)*86400</f>
-        <v>630.0000000000025</v>
-      </c>
-      <c r="K57">
-        <f>(I56-B56)*86400</f>
-        <v>1161.0000000000089</v>
-      </c>
-      <c r="N57">
-        <f>(L56-B56)*86400</f>
-        <v>1584.0000000000077</v>
-      </c>
-      <c r="Q57">
-        <f>(O56-B56)*86400</f>
-        <v>1979.0000000000057</v>
-      </c>
-      <c r="T57">
-        <f>(R56-B56)*86400</f>
-        <v>2803.0000000000032</v>
-      </c>
-      <c r="W57">
-        <f>(U56-B56)*86400</f>
-        <v>3151.0000000000095</v>
-      </c>
-      <c r="Z57">
-        <f>(X56-B56)*86400</f>
-        <v>3847.0000000000036</v>
-      </c>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E58" s="2">
-        <f>(D56-B56)*86400</f>
-        <v>486.00000000000881</v>
-      </c>
-      <c r="H58">
-        <f>(G56-B56)*86400</f>
-        <v>1024.0000000000034</v>
-      </c>
-      <c r="K58">
-        <f>(J56-B56)*86400</f>
-        <v>1537.0000000000068</v>
-      </c>
-      <c r="N58">
-        <f>(M56-B56)*86400</f>
-        <v>1884.0000000000068</v>
-      </c>
-      <c r="Q58">
-        <f>(P56-B56)*86400</f>
-        <v>2300.0000000000077</v>
-      </c>
-      <c r="T58">
-        <f>(S56-B56)*86400</f>
-        <v>3103.0000000000023</v>
-      </c>
-      <c r="W58">
-        <f>(V56-B56)*86400</f>
-        <v>4166.0000000000118</v>
-      </c>
-      <c r="Z58">
-        <f>(Y56-B56)*86400</f>
-        <v>4147.0000000000118</v>
-      </c>
-    </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E59">
+      <c r="AA60" s="7">
+        <v>0.59831018518518519</v>
+      </c>
+      <c r="AB60" s="1">
+        <v>0.59843750000000007</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>44</v>
+      </c>
+      <c r="E61" s="2">
+        <f>((C60-B60)*86400)-B62</f>
+        <v>175.00000000000989</v>
+      </c>
+      <c r="F61" s="2"/>
+      <c r="H61">
+        <f>((F60-B60)*86400)-B62</f>
+        <v>619.0000000000025</v>
+      </c>
+      <c r="K61">
+        <f>((I60-B60)*86400)-B62</f>
+        <v>1150.0000000000089</v>
+      </c>
+      <c r="N61">
+        <f>((L60-B60)*86400)-B62</f>
+        <v>1573.0000000000077</v>
+      </c>
+      <c r="Q61">
+        <f>((O60-B60)*86400)-B62</f>
+        <v>1968.0000000000057</v>
+      </c>
+      <c r="T61">
+        <f>((R60-B60)*86400)-B62</f>
+        <v>2792.0000000000032</v>
+      </c>
+      <c r="W61">
+        <f>((U60-B60)*86400)-B62</f>
+        <v>3140.0000000000095</v>
+      </c>
+      <c r="Z61">
+        <f>((X60-B60)*86400)-B62</f>
+        <v>3836.0000000000036</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>11</v>
+      </c>
+      <c r="E62" s="2">
+        <f>((D60-B60)*86400)-B62</f>
+        <v>475.00000000000881</v>
+      </c>
+      <c r="H62">
+        <f>((G60-B60)*86400)-B62</f>
+        <v>1013.0000000000034</v>
+      </c>
+      <c r="K62">
+        <f>((J60-B60)*86400)-B62</f>
+        <v>1526.0000000000068</v>
+      </c>
+      <c r="N62">
+        <f>((M60-B60)*86400)-B62</f>
+        <v>1873.0000000000068</v>
+      </c>
+      <c r="Q62">
+        <f>((P60-B60)*86400)-B62</f>
+        <v>2289.0000000000077</v>
+      </c>
+      <c r="T62">
+        <f>((S60-B60)*86400)-B62</f>
+        <v>3092.0000000000023</v>
+      </c>
+      <c r="W62">
+        <f>((V60-B60)*86400)-B62</f>
+        <v>4155.0000000000118</v>
+      </c>
+      <c r="Z62">
+        <f>((Y60-B60)*86400)-B62</f>
+        <v>4136.0000000000118</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="E63">
         <v>2</v>
       </c>
-      <c r="H59">
+      <c r="H63">
         <v>10</v>
       </c>
-      <c r="K59">
+      <c r="K63">
         <v>4</v>
       </c>
-      <c r="N59">
+      <c r="N63">
         <v>2</v>
       </c>
-      <c r="Q59">
+      <c r="Q63">
         <v>5.28</v>
       </c>
-      <c r="T59">
+      <c r="T63">
         <v>5</v>
       </c>
-      <c r="W59">
+      <c r="W63">
         <v>5.3</v>
       </c>
-      <c r="Z59">
+      <c r="Z63">
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="H60">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="H64">
         <v>5</v>
       </c>
-      <c r="K60">
+      <c r="K64">
         <v>2</v>
       </c>
-      <c r="Q60">
+      <c r="Q64">
         <v>5.16</v>
       </c>
-      <c r="W60">
+      <c r="W64">
         <v>3.23</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B62" s="5">
+      <c r="B66" s="5">
         <v>0.5035532407407407</v>
       </c>
-      <c r="C62" s="5">
+      <c r="C66" s="5">
         <v>0.50611111111111107</v>
       </c>
-      <c r="D62" s="5">
+      <c r="D66" s="5">
         <v>0.50958333333333339</v>
       </c>
-      <c r="E62" s="5" t="s">
+      <c r="E66" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F62" s="5">
+      <c r="F66" s="5">
         <v>0.5116666666666666</v>
       </c>
-      <c r="G62" s="5">
+      <c r="G66" s="5">
         <v>0.51623842592592595</v>
       </c>
-      <c r="H62" s="5" t="s">
+      <c r="H66" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I62" s="5">
+      <c r="I66" s="5">
         <v>0.51906249999999998</v>
       </c>
-      <c r="J62" s="5">
+      <c r="J66" s="5">
         <v>0.52324074074074078</v>
       </c>
-      <c r="K62" s="5" t="s">
+      <c r="K66" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L62" s="5">
+      <c r="L66" s="5">
         <v>0.52432870370370377</v>
       </c>
-      <c r="M62" s="5">
+      <c r="M66" s="5">
         <v>0.52780092592592587</v>
       </c>
-      <c r="N62" s="5" t="s">
+      <c r="N66" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="O62" s="5">
+      <c r="O66" s="5">
         <v>0.52953703703703703</v>
       </c>
-      <c r="P62" s="5">
+      <c r="P66" s="5">
         <v>0.53325231481481483</v>
       </c>
-      <c r="Q62" s="5" t="s">
+      <c r="Q66" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="R62" s="5">
+      <c r="R66" s="5">
         <v>0.54010416666666672</v>
       </c>
-      <c r="S62" s="5">
+      <c r="S66" s="5">
         <v>0.54357638888888882</v>
       </c>
-      <c r="T62" s="5" t="s">
+      <c r="T66" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="U62" s="5">
+      <c r="U66" s="5">
         <v>0.54432870370370368</v>
       </c>
-      <c r="V62" s="5">
+      <c r="V66" s="5">
         <v>0.54781250000000004</v>
       </c>
-      <c r="W62" s="5" t="s">
+      <c r="W66" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="X62" s="5">
+      <c r="X66" s="5">
         <v>0.55313657407407402</v>
       </c>
-      <c r="Y62" s="5">
+      <c r="Y66" s="5">
         <v>0.55660879629629634</v>
       </c>
-      <c r="Z62" s="4" t="s">
+      <c r="Z66" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="6">
-        <f>(C62-B62)*86400</f>
-        <v>220.99999999999937</v>
-      </c>
-      <c r="F63" s="6"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4">
-        <f>(F62-B62)*86400</f>
-        <v>700.99999999999773</v>
-      </c>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="4">
-        <f>(I62-B62)*86400</f>
-        <v>1340.0000000000016</v>
-      </c>
-      <c r="L63" s="4"/>
-      <c r="M63" s="4"/>
-      <c r="N63" s="4">
-        <f>(L62-B62)*86400</f>
-        <v>1795.0000000000089</v>
-      </c>
-      <c r="O63" s="4"/>
-      <c r="P63" s="4"/>
-      <c r="Q63" s="4">
-        <f>(O62-B62)*86400</f>
-        <v>2245.0000000000023</v>
-      </c>
-      <c r="R63" s="4"/>
-      <c r="S63" s="4"/>
-      <c r="T63" s="4">
-        <f>(R62-B62)*86400</f>
-        <v>3158.0000000000077</v>
-      </c>
-      <c r="U63" s="4"/>
-      <c r="V63" s="4"/>
-      <c r="W63" s="4">
-        <f>(U62-B62)*86400</f>
-        <v>3523.0000000000009</v>
-      </c>
-      <c r="X63" s="4"/>
-      <c r="Y63" s="4"/>
-      <c r="Z63" s="4">
-        <f>(X62-B62)*86400</f>
-        <v>4283.9999999999982</v>
-      </c>
-    </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="6">
-        <f>(D62-B62)*86400</f>
-        <v>521.00000000000796</v>
-      </c>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4">
-        <f>(G62-B62)*86400</f>
-        <v>1096.000000000005</v>
-      </c>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
-      <c r="K64" s="4">
-        <f>(J62-B62)*86400</f>
-        <v>1701.0000000000068</v>
-      </c>
-      <c r="L64" s="4"/>
-      <c r="M64" s="4"/>
-      <c r="N64" s="4">
-        <f>(M62-B62)*86400</f>
-        <v>2094.9999999999982</v>
-      </c>
-      <c r="O64" s="4"/>
-      <c r="P64" s="4"/>
-      <c r="Q64" s="4">
-        <f>(P62-B62)*86400</f>
-        <v>2566.0000000000045</v>
-      </c>
-      <c r="R64" s="4"/>
-      <c r="S64" s="4"/>
-      <c r="T64" s="4">
-        <f>(S62-B62)*86400</f>
-        <v>3457.9999999999968</v>
-      </c>
-      <c r="U64" s="4"/>
-      <c r="V64" s="4"/>
-      <c r="W64" s="4">
-        <f>(V62-B62)*86400</f>
-        <v>3824.0000000000064</v>
-      </c>
-      <c r="X64" s="4"/>
-      <c r="Y64" s="4"/>
-      <c r="Z64" s="4">
-        <f>(Y62-B62)*86400</f>
-        <v>4584.0000000000064</v>
-      </c>
-    </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4">
+      <c r="AA66" s="7">
+        <v>0.55593749999999997</v>
+      </c>
+      <c r="AB66" s="1">
+        <v>0.55680555555555555</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="6">
+        <f>((C66-B66)*86400)-B68</f>
+        <v>145.99999999999937</v>
+      </c>
+      <c r="F67" s="6"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4">
+        <f>((F66-B66)*86400)-B68</f>
+        <v>625.99999999999773</v>
+      </c>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4">
+        <f>((I66-B66)*86400)-B68</f>
+        <v>1265.0000000000016</v>
+      </c>
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="4">
+        <f>((L66-B66)*86400)-B68</f>
+        <v>1720.0000000000089</v>
+      </c>
+      <c r="O67" s="4"/>
+      <c r="P67" s="4"/>
+      <c r="Q67" s="4">
+        <f>((O66-B66)*86400)-B68</f>
+        <v>2170.0000000000023</v>
+      </c>
+      <c r="R67" s="4"/>
+      <c r="S67" s="4"/>
+      <c r="T67" s="4">
+        <f>((R66-B66)*86400)-B68</f>
+        <v>3083.0000000000077</v>
+      </c>
+      <c r="U67" s="4"/>
+      <c r="V67" s="4"/>
+      <c r="W67" s="4">
+        <f>((U66-B66)*86400)-B68</f>
+        <v>3448.0000000000009</v>
+      </c>
+      <c r="X67" s="4"/>
+      <c r="Y67" s="4"/>
+      <c r="Z67" s="4">
+        <f>((X66-B66)*86400)-B68</f>
+        <v>4208.9999999999982</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4">
+        <v>75</v>
+      </c>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="6">
+        <f>((D66-B66)*86400)-B68</f>
+        <v>446.00000000000796</v>
+      </c>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4">
+        <f>((G66-B66)*86400)-B68</f>
+        <v>1021.000000000005</v>
+      </c>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4">
+        <f>((J66-B66)*86400)-B68</f>
+        <v>1626.0000000000068</v>
+      </c>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="4">
+        <f>((M66-B66)*86400)-B68</f>
+        <v>2019.9999999999982</v>
+      </c>
+      <c r="O68" s="4"/>
+      <c r="P68" s="4"/>
+      <c r="Q68" s="4">
+        <f>((P66-B66)*86400)-B68</f>
+        <v>2491.0000000000045</v>
+      </c>
+      <c r="R68" s="4"/>
+      <c r="S68" s="4"/>
+      <c r="T68" s="4">
+        <f>((S66-B66)*86400)-B68</f>
+        <v>3382.9999999999968</v>
+      </c>
+      <c r="U68" s="4"/>
+      <c r="V68" s="4"/>
+      <c r="W68" s="4">
+        <f>((V66-B66)*86400)-B68</f>
+        <v>3749.0000000000064</v>
+      </c>
+      <c r="X68" s="4"/>
+      <c r="Y68" s="4"/>
+      <c r="Z68" s="4">
+        <f>((Y66-B66)*86400)-B68</f>
+        <v>4509.0000000000064</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4">
         <v>1</v>
       </c>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4">
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4">
         <v>7</v>
       </c>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
-      <c r="K65" s="4">
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4">
         <v>4</v>
       </c>
-      <c r="L65" s="4"/>
-      <c r="M65" s="4"/>
-      <c r="N65" s="4">
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="4">
         <v>1</v>
       </c>
-      <c r="O65" s="4"/>
-      <c r="P65" s="4"/>
-      <c r="Q65" s="4">
+      <c r="O69" s="4"/>
+      <c r="P69" s="4"/>
+      <c r="Q69" s="4">
         <v>5.0599999999999996</v>
       </c>
-      <c r="R65" s="4"/>
-      <c r="S65" s="4"/>
-      <c r="T65" s="4">
+      <c r="R69" s="4"/>
+      <c r="S69" s="4"/>
+      <c r="T69" s="4">
         <v>5</v>
       </c>
-      <c r="U65" s="4"/>
-      <c r="V65" s="4"/>
-      <c r="W65" s="4">
+      <c r="U69" s="4"/>
+      <c r="V69" s="4"/>
+      <c r="W69" s="4">
         <v>6.06</v>
       </c>
-      <c r="X65" s="4"/>
-      <c r="Y65" s="4"/>
-      <c r="Z65" s="4">
+      <c r="X69" s="4"/>
+      <c r="Y69" s="4"/>
+      <c r="Z69" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="H66" s="7">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4">
         <v>7</v>
       </c>
-      <c r="I66" s="7"/>
-      <c r="J66" s="7"/>
-      <c r="K66" s="7">
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4">
         <v>4</v>
       </c>
-      <c r="L66" s="7"/>
-      <c r="M66" s="7"/>
-      <c r="N66" s="7"/>
-      <c r="O66" s="7"/>
-      <c r="P66" s="7"/>
-      <c r="Q66" s="7">
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="4"/>
+      <c r="O70" s="4"/>
+      <c r="P70" s="4"/>
+      <c r="Q70" s="4">
         <v>1.96</v>
       </c>
-      <c r="R66" s="7"/>
-      <c r="S66" s="7"/>
-      <c r="T66" s="7"/>
-      <c r="U66" s="7"/>
-      <c r="V66" s="7"/>
-      <c r="W66" s="7">
+      <c r="R70" s="4"/>
+      <c r="S70" s="4"/>
+      <c r="T70" s="4"/>
+      <c r="U70" s="4"/>
+      <c r="V70" s="4"/>
+      <c r="W70" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="X66" s="7"/>
-      <c r="Y66" s="7"/>
-      <c r="Z66" s="7"/>
-    </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="X70" s="4"/>
+      <c r="Y70" s="4"/>
+      <c r="Z70" s="4">
+        <v>4203</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4">
+        <v>140</v>
+      </c>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4">
+        <v>620</v>
+      </c>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4">
+        <v>1259</v>
+      </c>
+      <c r="L71" s="4"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="4">
+        <v>1721</v>
+      </c>
+      <c r="O71" s="4"/>
+      <c r="P71" s="4"/>
+      <c r="Q71" s="4">
+        <v>2170</v>
+      </c>
+      <c r="R71" s="4"/>
+      <c r="S71" s="4"/>
+      <c r="T71" s="4">
+        <v>3077</v>
+      </c>
+      <c r="U71" s="4"/>
+      <c r="V71" s="4"/>
+      <c r="W71" s="4"/>
+      <c r="X71" s="4"/>
+      <c r="Y71" s="4"/>
+      <c r="Z71" s="4">
+        <v>4507</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4">
+        <v>440</v>
+      </c>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4">
+        <v>1014</v>
+      </c>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4">
+        <v>1620</v>
+      </c>
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="4">
+        <v>2019</v>
+      </c>
+      <c r="O72" s="4"/>
+      <c r="P72" s="4"/>
+      <c r="Q72" s="4">
+        <v>2490</v>
+      </c>
+      <c r="R72" s="4"/>
+      <c r="S72" s="4"/>
+      <c r="T72" s="4">
+        <v>3377</v>
+      </c>
+      <c r="U72" s="4"/>
+      <c r="V72" s="4"/>
+      <c r="W72" s="4"/>
+      <c r="X72" s="4"/>
+      <c r="Y72" s="4"/>
+      <c r="Z72" s="4"/>
+    </row>
+    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>41</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B74" s="1">
         <v>0.60223379629629636</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C74" s="1">
         <v>0.60579861111111111</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D74" s="1">
         <v>0.60927083333333332</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F68" s="1">
-        <v>0.6111805555555555</v>
-      </c>
-      <c r="G68" s="1">
-        <v>0.61571759259259262</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I68" s="1">
-        <v>0.61760416666666662</v>
-      </c>
-      <c r="J68" s="1">
-        <v>0.6219675925925926</v>
-      </c>
-      <c r="K68" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L68" s="1">
-        <v>0.62296296296296294</v>
-      </c>
-      <c r="M68" s="1">
-        <v>0.62643518518518515</v>
-      </c>
-      <c r="N68" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O68" s="1">
-        <v>0.6283333333333333</v>
-      </c>
-      <c r="P68" s="1">
-        <v>0.63203703703703706</v>
-      </c>
-      <c r="Q68" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R68" s="1">
-        <v>0.63927083333333334</v>
-      </c>
-      <c r="S68" s="1">
-        <v>0.64274305555555555</v>
-      </c>
-      <c r="T68" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="U68" s="1">
-        <v>0.64391203703703703</v>
-      </c>
-      <c r="V68" s="1">
-        <v>0.64739583333333328</v>
-      </c>
-      <c r="W68" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X68" s="1">
-        <v>0.65256944444444442</v>
-      </c>
-      <c r="Y68" s="1">
-        <v>0.65604166666666663</v>
-      </c>
-      <c r="Z68" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C69" s="1"/>
-      <c r="E69" s="2">
-        <f>(C68-B68)*86400</f>
-        <v>307.9999999999938</v>
-      </c>
-      <c r="F69" s="2"/>
-      <c r="H69">
-        <f>(F68-B68)*86400</f>
-        <v>772.99999999998977</v>
-      </c>
-      <c r="K69">
-        <f>(I68-B68)*86400</f>
-        <v>1327.9999999999902</v>
-      </c>
-      <c r="N69">
-        <f>(L68-B68)*86400</f>
-        <v>1790.9999999999923</v>
-      </c>
-      <c r="Q69">
-        <f>(O68-B68)*86400</f>
-        <v>2254.9999999999914</v>
-      </c>
-      <c r="T69">
-        <f>(R68-B68)*86400</f>
-        <v>3199.999999999995</v>
-      </c>
-      <c r="W69">
-        <f>(U68-B68)*86400</f>
-        <v>3600.9999999999936</v>
-      </c>
-      <c r="Z69">
-        <f>(X68-B68)*86400</f>
-        <v>4348.9999999999927</v>
-      </c>
-    </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C70" s="1"/>
-      <c r="E70" s="2">
-        <f>(D68-B68)*86400</f>
-        <v>607.99999999999272</v>
-      </c>
-      <c r="H70">
-        <f>(G68-B68)*86400</f>
-        <v>1164.9999999999966</v>
-      </c>
-      <c r="K70">
-        <f>(J68-B68)*86400</f>
-        <v>1704.9999999999948</v>
-      </c>
-      <c r="N70">
-        <f>(M68-B68)*86400</f>
-        <v>2090.9999999999909</v>
-      </c>
-      <c r="Q70">
-        <f>(P68-B68)*86400</f>
-        <v>2574.9999999999964</v>
-      </c>
-      <c r="T70">
-        <f>(S68-B68)*86400</f>
-        <v>3499.9999999999941</v>
-      </c>
-      <c r="W70">
-        <f>(V68-B68)*86400</f>
-        <v>3901.9999999999895</v>
-      </c>
-      <c r="Z70">
-        <f>(Y68-B68)*86400</f>
-        <v>4648.9999999999909</v>
-      </c>
-    </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E71">
-        <v>2</v>
-      </c>
-      <c r="H71">
-        <v>4</v>
-      </c>
-      <c r="K71">
-        <v>3</v>
-      </c>
-      <c r="N71">
-        <v>2</v>
-      </c>
-      <c r="Q71">
-        <v>5.78</v>
-      </c>
-      <c r="T71">
-        <v>5</v>
-      </c>
-      <c r="W71">
-        <v>4.63</v>
-      </c>
-      <c r="Z71">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="H72">
-        <v>3</v>
-      </c>
-      <c r="K72">
-        <v>5</v>
-      </c>
-      <c r="Q72">
-        <v>4.53</v>
-      </c>
-      <c r="W72">
-        <v>3.57</v>
-      </c>
-    </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>42</v>
-      </c>
-      <c r="B74" s="1">
-        <v>0.47842592592592598</v>
-      </c>
-      <c r="C74" s="1">
-        <v>0.47968749999999999</v>
-      </c>
-      <c r="D74" s="1">
-        <v>0.4831597222222222</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F74" s="1">
-        <v>0.4848958333333333</v>
+        <v>0.6111805555555555</v>
       </c>
       <c r="G74" s="1">
-        <v>0.48946759259259259</v>
+        <v>0.61571759259259262</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I74" s="1">
-        <v>0.4914351851851852</v>
+        <v>0.61760416666666662</v>
       </c>
       <c r="J74" s="1">
-        <v>0.49496527777777777</v>
+        <v>0.6219675925925926</v>
       </c>
       <c r="K74" s="1" t="s">
         <v>30</v>
       </c>
       <c r="L74" s="1">
-        <v>0.49563657407407408</v>
+        <v>0.62296296296296294</v>
       </c>
       <c r="M74" s="1">
-        <v>0.49910879629629629</v>
+        <v>0.62643518518518515</v>
       </c>
       <c r="N74" s="1" t="s">
         <v>31</v>
       </c>
       <c r="O74" s="1">
-        <v>0.5009837962962963</v>
+        <v>0.6283333333333333</v>
       </c>
       <c r="P74" s="1">
-        <v>0.50469907407407411</v>
+        <v>0.63203703703703706</v>
       </c>
       <c r="Q74" s="1" t="s">
         <v>28</v>
       </c>
       <c r="R74" s="1">
-        <v>0.51009259259259265</v>
+        <v>0.63927083333333334</v>
       </c>
       <c r="S74" s="1">
-        <v>0.51356481481481475</v>
+        <v>0.64274305555555555</v>
       </c>
       <c r="T74" s="1" t="s">
         <v>20</v>
       </c>
       <c r="U74" s="1">
-        <v>0.51447916666666671</v>
+        <v>0.64391203703703703</v>
       </c>
       <c r="V74" s="1">
-        <v>0.51796296296296296</v>
+        <v>0.64739583333333328</v>
       </c>
       <c r="W74" s="1" t="s">
         <v>28</v>
       </c>
       <c r="X74" s="1">
-        <v>0.52704861111111112</v>
+        <v>0.65256944444444442</v>
       </c>
       <c r="Y74" s="1">
-        <v>0.53052083333333333</v>
+        <v>0.65604166666666663</v>
       </c>
       <c r="Z74" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C75" s="1"/>
+      <c r="AA74" s="7">
+        <v>0.65596064814814814</v>
+      </c>
+      <c r="AB74" s="1">
+        <v>0.65628472222222223</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>44</v>
+      </c>
       <c r="E75" s="2">
-        <f>(C74-B74)*86400</f>
-        <v>108.99999999999466</v>
+        <f>((C74-B74)*86400)-B76</f>
+        <v>279.9999999999938</v>
       </c>
       <c r="F75" s="2"/>
       <c r="H75">
-        <f>(F74-B74)*86400</f>
-        <v>558.99999999999307</v>
+        <f>((F74-B74)*86400)-B76</f>
+        <v>744.99999999998977</v>
       </c>
       <c r="K75">
-        <f>(I74-B74)*86400</f>
-        <v>1123.9999999999966</v>
+        <f>((I74-B74)*86400)-B76</f>
+        <v>1299.9999999999902</v>
       </c>
       <c r="N75">
-        <f>(L74-B74)*86400</f>
-        <v>1486.9999999999959</v>
+        <f>((L74-B74)*86400)-B76</f>
+        <v>1762.9999999999923</v>
       </c>
       <c r="Q75">
-        <f>(O74-B74)*86400</f>
-        <v>1948.9999999999961</v>
+        <f>((O74-B74)*86400)-B76</f>
+        <v>2226.9999999999914</v>
       </c>
       <c r="T75">
-        <f>(R74-B74)*86400</f>
-        <v>2736.0000000000009</v>
+        <f>((R74-B74)*86400)-B76</f>
+        <v>3171.999999999995</v>
       </c>
       <c r="W75">
-        <f>(U74-B74)*86400</f>
-        <v>3114.9999999999995</v>
+        <f>((U74-B74)*86400)-B76</f>
+        <v>3572.9999999999936</v>
       </c>
       <c r="Z75">
-        <f>(X74-B74)*86400</f>
-        <v>4200.9999999999964</v>
-      </c>
-    </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C76" s="1"/>
+        <f>((X74-B74)*86400)-B76</f>
+        <v>4320.9999999999927</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>28</v>
+      </c>
       <c r="E76" s="2">
-        <f>(D74-B74)*86400</f>
-        <v>408.99999999999358</v>
+        <f>((D74-B74)*86400)-B76</f>
+        <v>579.99999999999272</v>
       </c>
       <c r="H76">
-        <f>(G74-B74)*86400</f>
-        <v>953.99999999999568</v>
+        <f>((G74-B74)*86400)-B76</f>
+        <v>1136.9999999999966</v>
       </c>
       <c r="K76">
-        <f>(J74-B74)*86400</f>
-        <v>1428.9999999999948</v>
+        <f>((J74-B74)*86400)-B76</f>
+        <v>1676.9999999999948</v>
       </c>
       <c r="N76">
-        <f>(M74-B74)*86400</f>
-        <v>1786.9999999999948</v>
+        <f>((M74-B74)*86400)-B76</f>
+        <v>2062.9999999999909</v>
       </c>
       <c r="Q76">
-        <f>(P74-B74)*86400</f>
-        <v>2269.9999999999982</v>
+        <f>((P74-B74)*86400)-B76</f>
+        <v>2546.9999999999964</v>
       </c>
       <c r="T76">
-        <f>(S74-B74)*86400</f>
-        <v>3035.99999999999</v>
+        <f>((S74-B74)*86400)-B76</f>
+        <v>3471.9999999999941</v>
       </c>
       <c r="W76">
-        <f>(V74-B74)*86400</f>
-        <v>3415.999999999995</v>
+        <f>((V74-B74)*86400)-B76</f>
+        <v>3873.9999999999895</v>
       </c>
       <c r="Z76">
-        <f>(Y74-B74)*86400</f>
-        <v>4500.9999999999955</v>
-      </c>
-    </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+        <f>((Y74-B74)*86400)-B76</f>
+        <v>4620.9999999999909</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E77">
         <v>2</v>
       </c>
       <c r="H77">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K77">
         <v>3</v>
@@ -3173,221 +3299,456 @@
         <v>2</v>
       </c>
       <c r="Q77">
-        <v>5.31</v>
+        <v>5.78</v>
       </c>
       <c r="T77">
         <v>5</v>
       </c>
       <c r="W77">
-        <v>5.43</v>
+        <v>4.63</v>
       </c>
       <c r="Z77">
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
       <c r="H78">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K78">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q78">
-        <v>4.97</v>
+        <v>4.53</v>
       </c>
       <c r="W78">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B80" s="1">
-        <v>0.6896064814814814</v>
+        <v>0.47842592592592598</v>
       </c>
       <c r="C80" s="1">
-        <v>0.69295138888888896</v>
+        <v>0.47968749999999999</v>
       </c>
       <c r="D80" s="1">
-        <v>0.69642361111111117</v>
+        <v>0.4831597222222222</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F80" s="1">
-        <v>0.69807870370370362</v>
+        <v>0.4848958333333333</v>
       </c>
       <c r="G80" s="1">
-        <v>0.7026041666666667</v>
+        <v>0.48946759259259259</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I80" s="1">
-        <v>0.70496527777777773</v>
+        <v>0.4914351851851852</v>
       </c>
       <c r="J80" s="1">
-        <v>0.70945601851851858</v>
+        <v>0.49496527777777777</v>
       </c>
       <c r="K80" s="1" t="s">
         <v>30</v>
       </c>
       <c r="L80" s="1">
-        <v>0.71015046296296302</v>
+        <v>0.49563657407407408</v>
       </c>
       <c r="M80" s="1">
-        <v>0.71362268518518512</v>
+        <v>0.49910879629629629</v>
       </c>
       <c r="N80" s="1" t="s">
         <v>31</v>
       </c>
       <c r="O80" s="1">
-        <v>0.71547453703703701</v>
+        <v>0.5009837962962963</v>
       </c>
       <c r="P80" s="1">
-        <v>0.71918981481481481</v>
+        <v>0.50469907407407411</v>
       </c>
       <c r="Q80" s="1" t="s">
         <v>28</v>
       </c>
       <c r="R80" s="1">
-        <v>0.72857638888888887</v>
+        <v>0.51009259259259265</v>
       </c>
       <c r="S80" s="1">
-        <v>0.73204861111111119</v>
+        <v>0.51356481481481475</v>
       </c>
       <c r="T80" s="1" t="s">
         <v>20</v>
       </c>
       <c r="U80" s="1">
-        <v>0.73285879629629624</v>
+        <v>0.51447916666666671</v>
       </c>
       <c r="V80" s="1">
-        <v>0.73634259259259249</v>
+        <v>0.51796296296296296</v>
       </c>
       <c r="W80" s="1" t="s">
         <v>28</v>
       </c>
       <c r="X80" s="1">
-        <v>0.74515046296296295</v>
+        <v>0.52704861111111112</v>
       </c>
       <c r="Y80" s="1">
-        <v>0.74862268518518515</v>
+        <v>0.53052083333333333</v>
       </c>
       <c r="Z80" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C81" s="1"/>
+      <c r="AA80" s="7">
+        <v>0.54223379629629631</v>
+      </c>
+      <c r="AB80" s="1">
+        <v>0.53077546296296296</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>44</v>
+      </c>
       <c r="E81" s="2">
-        <f>(C80-B80)*86400</f>
-        <v>289.00000000001319</v>
+        <f>((C80-B80)*86400)-B82</f>
+        <v>108.99999999999466</v>
       </c>
       <c r="F81" s="2"/>
       <c r="H81">
-        <f>(F80-B80)*86400</f>
-        <v>731.99999999999932</v>
+        <f>((F80-B80)*86400)-B82</f>
+        <v>558.99999999999307</v>
       </c>
       <c r="K81">
-        <f>(I80-B80)*86400</f>
-        <v>1327.0000000000027</v>
+        <f>((I80-B80)*86400)-B82</f>
+        <v>1123.9999999999966</v>
       </c>
       <c r="N81">
-        <f>(L80-B80)*86400</f>
-        <v>1775.0000000000121</v>
+        <f>((L80-B80)*86400)-B82</f>
+        <v>1486.9999999999959</v>
       </c>
       <c r="Q81">
-        <f>(O80-B80)*86400</f>
-        <v>2235.0000000000041</v>
+        <f>((O80-B80)*86400)-B82</f>
+        <v>1948.9999999999961</v>
       </c>
       <c r="T81">
-        <f>(R80-B80)*86400</f>
-        <v>3367.000000000005</v>
+        <f>((R80-B80)*86400)-B82</f>
+        <v>2736.0000000000009</v>
       </c>
       <c r="W81">
-        <f>(U80-B80)*86400</f>
-        <v>3737.0000000000023</v>
+        <f>((U80-B80)*86400)-B82</f>
+        <v>3114.9999999999995</v>
       </c>
       <c r="Z81">
-        <f>(X80-B80)*86400</f>
-        <v>4799.0000000000055</v>
-      </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C82" s="1"/>
+        <f>((X80-B80)*86400)-B82</f>
+        <v>4200.9999999999964</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>0</v>
+      </c>
       <c r="E82" s="2">
-        <f>(D80-B80)*86400</f>
-        <v>589.00000000001216</v>
+        <f>((D80-B80)*86400)-B82</f>
+        <v>408.99999999999358</v>
       </c>
       <c r="H82">
-        <f>(G80-B80)*86400</f>
-        <v>1123.0000000000093</v>
+        <f>((G80-B80)*86400)-B82</f>
+        <v>953.99999999999568</v>
       </c>
       <c r="K82">
-        <f>(J80-B80)*86400</f>
-        <v>1715.0000000000123</v>
+        <f>((J80-B80)*86400)-B82</f>
+        <v>1428.9999999999948</v>
       </c>
       <c r="N82">
-        <f>(M80-B80)*86400</f>
-        <v>2075.0000000000014</v>
+        <f>((M80-B80)*86400)-B82</f>
+        <v>1786.9999999999948</v>
       </c>
       <c r="Q82">
-        <f>(P80-B80)*86400</f>
-        <v>2556.0000000000064</v>
+        <f>((P80-B80)*86400)-B82</f>
+        <v>2269.9999999999982</v>
       </c>
       <c r="T82">
-        <f>(S80-B80)*86400</f>
-        <v>3667.0000000000136</v>
+        <f>((S80-B80)*86400)-B82</f>
+        <v>3035.99999999999</v>
       </c>
       <c r="W82">
-        <f>(V80-B80)*86400</f>
-        <v>4037.9999999999982</v>
+        <f>((V80-B80)*86400)-B82</f>
+        <v>3415.999999999995</v>
       </c>
       <c r="Z82">
-        <f>(Y80-B80)*86400</f>
-        <v>5099.0000000000045</v>
-      </c>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.25">
+        <f>((Y80-B80)*86400)-B82</f>
+        <v>4500.9999999999955</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H83">
         <v>5</v>
       </c>
       <c r="K83">
+        <v>3</v>
+      </c>
+      <c r="N83">
         <v>2</v>
       </c>
-      <c r="N83">
-        <v>1</v>
-      </c>
       <c r="Q83">
-        <v>5.47</v>
+        <v>5.31</v>
       </c>
       <c r="T83">
         <v>5</v>
       </c>
       <c r="W83">
-        <v>6.9</v>
+        <v>5.43</v>
       </c>
       <c r="Z83">
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
       <c r="H84">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K84">
         <v>3</v>
       </c>
       <c r="Q84">
+        <v>4.97</v>
+      </c>
+      <c r="W84">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>43</v>
+      </c>
+      <c r="B86" s="1">
+        <v>0.6896064814814814</v>
+      </c>
+      <c r="C86" s="1">
+        <v>0.69295138888888896</v>
+      </c>
+      <c r="D86" s="1">
+        <v>0.69642361111111117</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F86" s="1">
+        <v>0.69807870370370362</v>
+      </c>
+      <c r="G86" s="1">
+        <v>0.7026041666666667</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I86" s="1">
+        <v>0.70496527777777773</v>
+      </c>
+      <c r="J86" s="1">
+        <v>0.70945601851851858</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L86" s="1">
+        <v>0.71015046296296302</v>
+      </c>
+      <c r="M86" s="1">
+        <v>0.71362268518518512</v>
+      </c>
+      <c r="N86" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O86" s="1">
+        <v>0.71547453703703701</v>
+      </c>
+      <c r="P86" s="1">
+        <v>0.71918981481481481</v>
+      </c>
+      <c r="Q86" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R86" s="1">
+        <v>0.72857638888888887</v>
+      </c>
+      <c r="S86" s="1">
+        <v>0.73204861111111119</v>
+      </c>
+      <c r="T86" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U86" s="1">
+        <v>0.73285879629629624</v>
+      </c>
+      <c r="V86" s="1">
+        <v>0.73634259259259249</v>
+      </c>
+      <c r="W86" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X86" s="1">
+        <v>0.74515046296296295</v>
+      </c>
+      <c r="Y86" s="1">
+        <v>0.74862268518518515</v>
+      </c>
+      <c r="Z86" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA86" s="7">
+        <v>0.7486342592592593</v>
+      </c>
+      <c r="AB86" s="1">
+        <v>0.74895833333333339</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>44</v>
+      </c>
+      <c r="E87" s="2">
+        <f>((C86-B86)*86400)-B88</f>
+        <v>261.00000000001319</v>
+      </c>
+      <c r="F87" s="2"/>
+      <c r="H87">
+        <f>((F86-B86)*86400)-B88</f>
+        <v>703.99999999999932</v>
+      </c>
+      <c r="K87">
+        <f>((I86-B86)*86400)-B88</f>
+        <v>1299.0000000000027</v>
+      </c>
+      <c r="N87">
+        <f>((L86-B86)*86400)-B88</f>
+        <v>1747.0000000000121</v>
+      </c>
+      <c r="Q87">
+        <f>((O86-B86)*86400)-B88</f>
+        <v>2207.0000000000041</v>
+      </c>
+      <c r="T87">
+        <f>((R86-B86)*86400)-B88</f>
+        <v>3339.000000000005</v>
+      </c>
+      <c r="W87">
+        <f>((U86-B86)*86400)-B88</f>
+        <v>3709.0000000000023</v>
+      </c>
+      <c r="Z87">
+        <f>((X86-B86)*86400)-B88</f>
+        <v>4771.0000000000055</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>28</v>
+      </c>
+      <c r="E88" s="2">
+        <f>((D86-B86)*86400)-B88</f>
+        <v>561.00000000001216</v>
+      </c>
+      <c r="H88">
+        <f>((G86-B86)*86400)-B88</f>
+        <v>1095.0000000000093</v>
+      </c>
+      <c r="K88">
+        <f>((J86-B86)*86400)-B88</f>
+        <v>1687.0000000000123</v>
+      </c>
+      <c r="N88">
+        <f>((M86-B86)*86400)-B88</f>
+        <v>2047.0000000000014</v>
+      </c>
+      <c r="Q88">
+        <f>((P86-B86)*86400)-B88</f>
+        <v>2528.0000000000064</v>
+      </c>
+      <c r="T88">
+        <f>((S86-B86)*86400)-B88</f>
+        <v>3639.0000000000136</v>
+      </c>
+      <c r="W88">
+        <f>((V86-B86)*86400)-B88</f>
+        <v>4009.9999999999982</v>
+      </c>
+      <c r="Z88">
+        <f>((Y86-B86)*86400)-B88</f>
+        <v>5071.0000000000045</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>5</v>
+      </c>
+      <c r="K89">
+        <v>2</v>
+      </c>
+      <c r="N89">
+        <v>1</v>
+      </c>
+      <c r="Q89">
+        <v>5.47</v>
+      </c>
+      <c r="T89">
+        <v>5</v>
+      </c>
+      <c r="W89">
+        <v>6.9</v>
+      </c>
+      <c r="Z89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="H90">
+        <v>7</v>
+      </c>
+      <c r="K90">
+        <v>3</v>
+      </c>
+      <c r="Q90">
         <v>5.18</v>
       </c>
-      <c r="W84">
+      <c r="W90">
         <v>2.33</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>45</v>
+      </c>
+      <c r="B91" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>55</v>
+      </c>
+      <c r="B92" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>34</v>
+      </c>
+      <c r="B93" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/ExperimentFolder_v23.9.19/DataStorage/Segmententabelle.xlsx
+++ b/ExperimentFolder_v23.9.19/DataStorage/Segmententabelle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="53">
   <si>
     <t>Subject</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>visual inspection</t>
+  </si>
+  <si>
+    <t>9 sec korrektur</t>
   </si>
 </sst>
 </file>
@@ -223,13 +226,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="21" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -531,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB93"/>
+  <dimension ref="A1:AB95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="P88" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,168 +571,168 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AA1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AB1" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>0.66851851851851851</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>0.67167824074074067</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>0.67515046296296299</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>0.67707175925925922</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <v>0.6815972222222223</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <v>0.6840856481481481</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="4">
         <v>0.68984953703703711</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="4">
         <v>0.69221064814814814</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="4">
         <v>0.69568287037037047</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="4">
         <v>0.69811342592592596</v>
       </c>
-      <c r="P2" s="5">
+      <c r="P2" s="4">
         <v>0.70182870370370365</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="5">
+      <c r="R2" s="4">
         <v>0.71127314814814813</v>
       </c>
-      <c r="S2" s="5">
+      <c r="S2" s="4">
         <v>0.71474537037037045</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="T2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="5">
+      <c r="U2" s="4">
         <v>0.71537037037037043</v>
       </c>
-      <c r="V2" s="5">
+      <c r="V2" s="4">
         <v>0.71885416666666668</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="W2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="X2" s="5">
+      <c r="X2" s="4">
         <v>0.72628472222222218</v>
       </c>
-      <c r="Y2" s="5">
+      <c r="Y2" s="4">
         <v>0.7297569444444445</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="Z2" s="4" t="s">
         <v>20</v>
       </c>
       <c r="AA2" s="1">
@@ -740,195 +743,195 @@
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="6">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="5">
         <f>((C2-B2)*86400)-B4</f>
         <v>272.99999999999471</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4">
+      <c r="F3" s="5"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3">
         <f>((F2-B2)*86400)-B4</f>
         <v>738.99999999999727</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4">
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3">
         <f>((I2-B2)*86400)-B4</f>
         <v>1344.9999999999959</v>
       </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4">
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3">
         <f>((L2-B2)*86400)-B4</f>
         <v>2047.0000000000002</v>
       </c>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4">
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3">
         <f>((O2-B2)*86400)-B4</f>
         <v>2557.0000000000032</v>
       </c>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4">
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3">
         <f>((R2-B2)*86400)-B4</f>
         <v>3693.9999999999986</v>
       </c>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4">
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3">
         <f>((U2-B2)*86400)-B4</f>
         <v>4048.0000000000059</v>
       </c>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4">
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3">
         <f>((X2-B2)*86400)-B4</f>
         <v>4990.9999999999964</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3">
         <v>0</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="6">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="5">
         <f>((D2-B2)*86400)-B4</f>
         <v>573.00000000000318</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3">
         <f>((G2-B2)*86400)-B4</f>
         <v>1130.0000000000073</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4">
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3">
         <f>((J2-B2)*86400)-B4</f>
         <v>1843.0000000000068</v>
       </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4">
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3">
         <f>((M2-B2)*86400)-B4</f>
         <v>2347.0000000000086</v>
       </c>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4">
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3">
         <f>((P2-B2)*86400)-B4</f>
         <v>2877.9999999999959</v>
       </c>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4">
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3">
         <f>((S2-B2)*86400)-B4</f>
         <v>3994.0000000000073</v>
       </c>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4">
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3">
         <f>((V2-B2)*86400)-B4</f>
         <v>4349.0000000000018</v>
       </c>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4">
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3">
         <f>((Y2-B2)*86400)-B4</f>
         <v>5291.0000000000055</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3">
         <v>1</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4">
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3">
         <v>9</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4">
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3">
         <v>2</v>
       </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4">
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3">
         <v>1</v>
       </c>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4">
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3">
         <v>7</v>
       </c>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4">
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3">
         <v>5</v>
       </c>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4">
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3">
         <v>7.33</v>
       </c>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4">
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3">
         <v>7</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4">
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3">
         <v>3</v>
       </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4">
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3">
         <v>4.75</v>
       </c>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4">
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3">
         <v>3.26</v>
       </c>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="1">
@@ -1129,7 +1132,7 @@
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="1">
@@ -1207,7 +1210,7 @@
       <c r="Z14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AA14" s="7">
+      <c r="AA14" s="6">
         <v>0.50714120370370364</v>
       </c>
       <c r="AB14" s="1">
@@ -1330,7 +1333,7 @@
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E19">
@@ -1355,7 +1358,7 @@
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B22" s="1">
@@ -1433,7 +1436,7 @@
       <c r="Z22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AA22" s="7">
+      <c r="AA22" s="6">
         <v>0.79927083333333337</v>
       </c>
       <c r="AB22" s="1">
@@ -1556,12 +1559,12 @@
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B30" s="1">
@@ -1639,7 +1642,7 @@
       <c r="Z30" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AA30" s="7">
+      <c r="AA30" s="6">
         <v>0.48643518518518519</v>
       </c>
       <c r="AB30" s="1">
@@ -1762,7 +1765,7 @@
       </c>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B36" s="1">
@@ -1840,7 +1843,7 @@
       <c r="Z36" t="s">
         <v>20</v>
       </c>
-      <c r="AA36" s="7">
+      <c r="AA36" s="6">
         <v>0.44045138888888885</v>
       </c>
       <c r="AB36" s="1">
@@ -1963,7 +1966,7 @@
       </c>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="8" t="s">
         <v>36</v>
       </c>
       <c r="B42" s="1">
@@ -2041,7 +2044,7 @@
       <c r="Z42" t="s">
         <v>20</v>
       </c>
-      <c r="AA42" s="7">
+      <c r="AA42" s="6">
         <v>0.74577546296296304</v>
       </c>
       <c r="AB42" s="1">
@@ -2164,7 +2167,7 @@
       </c>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="A48" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B48" s="1">
@@ -2242,7 +2245,7 @@
       <c r="Z48" t="s">
         <v>20</v>
       </c>
-      <c r="AA48" s="7">
+      <c r="AA48" s="6">
         <v>0.46134259259259264</v>
       </c>
       <c r="AB48" s="1">
@@ -2365,7 +2368,7 @@
       </c>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54" s="8" t="s">
         <v>38</v>
       </c>
       <c r="B54" s="1">
@@ -2443,7 +2446,7 @@
       <c r="Z54" t="s">
         <v>20</v>
       </c>
-      <c r="AA54" s="7">
+      <c r="AA54" s="6">
         <v>0.45947916666666666</v>
       </c>
       <c r="AB54" s="1">
@@ -2566,7 +2569,7 @@
       </c>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="9" t="s">
         <v>39</v>
       </c>
       <c r="B60" s="1">
@@ -2630,7 +2633,7 @@
         <v>0.58668981481481486</v>
       </c>
       <c r="V60" s="1">
-        <v>0.59843750000000007</v>
+        <v>0.59017361111111111</v>
       </c>
       <c r="W60" s="1" t="s">
         <v>28</v>
@@ -2644,7 +2647,7 @@
       <c r="Z60" t="s">
         <v>20</v>
       </c>
-      <c r="AA60" s="7">
+      <c r="AA60" s="6">
         <v>0.59831018518518519</v>
       </c>
       <c r="AB60" s="1">
@@ -2719,7 +2722,7 @@
       </c>
       <c r="W62">
         <f>((V60-B60)*86400)-B62</f>
-        <v>4155.0000000000118</v>
+        <v>3441.0000000000055</v>
       </c>
       <c r="Z62">
         <f>((Y60-B60)*86400)-B62</f>
@@ -2767,85 +2770,85 @@
       </c>
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B66" s="5">
+      <c r="B66" s="4">
         <v>0.5035532407407407</v>
       </c>
-      <c r="C66" s="5">
+      <c r="C66" s="4">
         <v>0.50611111111111107</v>
       </c>
-      <c r="D66" s="5">
+      <c r="D66" s="4">
         <v>0.50958333333333339</v>
       </c>
-      <c r="E66" s="5" t="s">
+      <c r="E66" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F66" s="5">
+      <c r="F66" s="4">
         <v>0.5116666666666666</v>
       </c>
-      <c r="G66" s="5">
+      <c r="G66" s="4">
         <v>0.51623842592592595</v>
       </c>
-      <c r="H66" s="5" t="s">
+      <c r="H66" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I66" s="5">
+      <c r="I66" s="4">
         <v>0.51906249999999998</v>
       </c>
-      <c r="J66" s="5">
+      <c r="J66" s="4">
         <v>0.52324074074074078</v>
       </c>
-      <c r="K66" s="5" t="s">
+      <c r="K66" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L66" s="5">
+      <c r="L66" s="4">
         <v>0.52432870370370377</v>
       </c>
-      <c r="M66" s="5">
+      <c r="M66" s="4">
         <v>0.52780092592592587</v>
       </c>
-      <c r="N66" s="5" t="s">
+      <c r="N66" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="O66" s="5">
+      <c r="O66" s="4">
         <v>0.52953703703703703</v>
       </c>
-      <c r="P66" s="5">
+      <c r="P66" s="4">
         <v>0.53325231481481483</v>
       </c>
-      <c r="Q66" s="5" t="s">
+      <c r="Q66" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="R66" s="5">
+      <c r="R66" s="4">
         <v>0.54010416666666672</v>
       </c>
-      <c r="S66" s="5">
+      <c r="S66" s="4">
         <v>0.54357638888888882</v>
       </c>
-      <c r="T66" s="5" t="s">
+      <c r="T66" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="U66" s="5">
+      <c r="U66" s="4">
         <v>0.54432870370370368</v>
       </c>
-      <c r="V66" s="5">
+      <c r="V66" s="4">
         <v>0.54781250000000004</v>
       </c>
-      <c r="W66" s="5" t="s">
+      <c r="W66" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="X66" s="5">
+      <c r="X66" s="4">
         <v>0.55313657407407402</v>
       </c>
-      <c r="Y66" s="5">
+      <c r="Y66" s="4">
         <v>0.55660879629629634</v>
       </c>
-      <c r="Z66" s="4" t="s">
+      <c r="Z66" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AA66" s="7">
+      <c r="AA66" s="6">
         <v>0.55593749999999997</v>
       </c>
       <c r="AB66" s="1">
@@ -2853,279 +2856,279 @@
       </c>
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4" t="s">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="6">
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="5">
         <f>((C66-B66)*86400)-B68</f>
         <v>145.99999999999937</v>
       </c>
-      <c r="F67" s="6"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4">
+      <c r="F67" s="5"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3">
         <f>((F66-B66)*86400)-B68</f>
         <v>625.99999999999773</v>
       </c>
-      <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
-      <c r="K67" s="4">
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3">
         <f>((I66-B66)*86400)-B68</f>
         <v>1265.0000000000016</v>
       </c>
-      <c r="L67" s="4"/>
-      <c r="M67" s="4"/>
-      <c r="N67" s="4">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3">
         <f>((L66-B66)*86400)-B68</f>
         <v>1720.0000000000089</v>
       </c>
-      <c r="O67" s="4"/>
-      <c r="P67" s="4"/>
-      <c r="Q67" s="4">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3">
         <f>((O66-B66)*86400)-B68</f>
         <v>2170.0000000000023</v>
       </c>
-      <c r="R67" s="4"/>
-      <c r="S67" s="4"/>
-      <c r="T67" s="4">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3">
         <f>((R66-B66)*86400)-B68</f>
         <v>3083.0000000000077</v>
       </c>
-      <c r="U67" s="4"/>
-      <c r="V67" s="4"/>
-      <c r="W67" s="4">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+      <c r="W67" s="3">
         <f>((U66-B66)*86400)-B68</f>
         <v>3448.0000000000009</v>
       </c>
-      <c r="X67" s="4"/>
-      <c r="Y67" s="4"/>
-      <c r="Z67" s="4">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3">
         <f>((X66-B66)*86400)-B68</f>
         <v>4208.9999999999982</v>
       </c>
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3">
         <v>75</v>
       </c>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="6">
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="5">
         <f>((D66-B66)*86400)-B68</f>
         <v>446.00000000000796</v>
       </c>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4">
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3">
         <f>((G66-B66)*86400)-B68</f>
         <v>1021.000000000005</v>
       </c>
-      <c r="I68" s="4"/>
-      <c r="J68" s="4"/>
-      <c r="K68" s="4">
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3">
         <f>((J66-B66)*86400)-B68</f>
         <v>1626.0000000000068</v>
       </c>
-      <c r="L68" s="4"/>
-      <c r="M68" s="4"/>
-      <c r="N68" s="4">
+      <c r="L68" s="3"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3">
         <f>((M66-B66)*86400)-B68</f>
         <v>2019.9999999999982</v>
       </c>
-      <c r="O68" s="4"/>
-      <c r="P68" s="4"/>
-      <c r="Q68" s="4">
+      <c r="O68" s="3"/>
+      <c r="P68" s="3"/>
+      <c r="Q68" s="3">
         <f>((P66-B66)*86400)-B68</f>
         <v>2491.0000000000045</v>
       </c>
-      <c r="R68" s="4"/>
-      <c r="S68" s="4"/>
-      <c r="T68" s="4">
+      <c r="R68" s="3"/>
+      <c r="S68" s="3"/>
+      <c r="T68" s="3">
         <f>((S66-B66)*86400)-B68</f>
         <v>3382.9999999999968</v>
       </c>
-      <c r="U68" s="4"/>
-      <c r="V68" s="4"/>
-      <c r="W68" s="4">
+      <c r="U68" s="3"/>
+      <c r="V68" s="3"/>
+      <c r="W68" s="3">
         <f>((V66-B66)*86400)-B68</f>
         <v>3749.0000000000064</v>
       </c>
-      <c r="X68" s="4"/>
-      <c r="Y68" s="4"/>
-      <c r="Z68" s="4">
+      <c r="X68" s="3"/>
+      <c r="Y68" s="3"/>
+      <c r="Z68" s="3">
         <f>((Y66-B66)*86400)-B68</f>
         <v>4509.0000000000064</v>
       </c>
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3">
         <v>1</v>
       </c>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4">
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3">
         <v>7</v>
       </c>
-      <c r="I69" s="4"/>
-      <c r="J69" s="4"/>
-      <c r="K69" s="4">
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3">
         <v>4</v>
       </c>
-      <c r="L69" s="4"/>
-      <c r="M69" s="4"/>
-      <c r="N69" s="4">
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3">
         <v>1</v>
       </c>
-      <c r="O69" s="4"/>
-      <c r="P69" s="4"/>
-      <c r="Q69" s="4">
+      <c r="O69" s="3"/>
+      <c r="P69" s="3"/>
+      <c r="Q69" s="3">
         <v>5.0599999999999996</v>
       </c>
-      <c r="R69" s="4"/>
-      <c r="S69" s="4"/>
-      <c r="T69" s="4">
+      <c r="R69" s="3"/>
+      <c r="S69" s="3"/>
+      <c r="T69" s="3">
         <v>5</v>
       </c>
-      <c r="U69" s="4"/>
-      <c r="V69" s="4"/>
-      <c r="W69" s="4">
+      <c r="U69" s="3"/>
+      <c r="V69" s="3"/>
+      <c r="W69" s="3">
         <v>6.06</v>
       </c>
-      <c r="X69" s="4"/>
-      <c r="Y69" s="4"/>
-      <c r="Z69" s="4">
+      <c r="X69" s="3"/>
+      <c r="Y69" s="3"/>
+      <c r="Z69" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4">
+      <c r="A70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3">
         <v>7</v>
       </c>
-      <c r="I70" s="4"/>
-      <c r="J70" s="4"/>
-      <c r="K70" s="4">
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3">
         <v>4</v>
       </c>
-      <c r="L70" s="4"/>
-      <c r="M70" s="4"/>
-      <c r="N70" s="4"/>
-      <c r="O70" s="4"/>
-      <c r="P70" s="4"/>
-      <c r="Q70" s="4">
+      <c r="L70" s="3"/>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="3"/>
+      <c r="P70" s="3"/>
+      <c r="Q70" s="3">
         <v>1.96</v>
       </c>
-      <c r="R70" s="4"/>
-      <c r="S70" s="4"/>
-      <c r="T70" s="4"/>
-      <c r="U70" s="4"/>
-      <c r="V70" s="4"/>
-      <c r="W70" s="4">
+      <c r="R70" s="3"/>
+      <c r="S70" s="3"/>
+      <c r="T70" s="3"/>
+      <c r="U70" s="3"/>
+      <c r="V70" s="3"/>
+      <c r="W70" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="X70" s="4"/>
-      <c r="Y70" s="4"/>
-      <c r="Z70" s="4">
+      <c r="X70" s="3"/>
+      <c r="Y70" s="3"/>
+      <c r="Z70" s="3">
         <v>4203</v>
       </c>
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A71" s="4"/>
-      <c r="B71" s="4" t="s">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4">
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3">
         <v>140</v>
       </c>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4">
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3">
         <v>620</v>
       </c>
-      <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
-      <c r="K71" s="4">
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3">
         <v>1259</v>
       </c>
-      <c r="L71" s="4"/>
-      <c r="M71" s="4"/>
-      <c r="N71" s="4">
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3">
         <v>1721</v>
       </c>
-      <c r="O71" s="4"/>
-      <c r="P71" s="4"/>
-      <c r="Q71" s="4">
+      <c r="O71" s="3"/>
+      <c r="P71" s="3"/>
+      <c r="Q71" s="3">
         <v>2170</v>
       </c>
-      <c r="R71" s="4"/>
-      <c r="S71" s="4"/>
-      <c r="T71" s="4">
+      <c r="R71" s="3"/>
+      <c r="S71" s="3"/>
+      <c r="T71" s="3">
         <v>3077</v>
       </c>
-      <c r="U71" s="4"/>
-      <c r="V71" s="4"/>
-      <c r="W71" s="4"/>
-      <c r="X71" s="4"/>
-      <c r="Y71" s="4"/>
-      <c r="Z71" s="4">
+      <c r="U71" s="3"/>
+      <c r="V71" s="3"/>
+      <c r="W71" s="3"/>
+      <c r="X71" s="3"/>
+      <c r="Y71" s="3"/>
+      <c r="Z71" s="3">
         <v>4507</v>
       </c>
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A72" s="4"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3">
         <v>440</v>
       </c>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4">
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3">
         <v>1014</v>
       </c>
-      <c r="I72" s="4"/>
-      <c r="J72" s="4"/>
-      <c r="K72" s="4">
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3">
         <v>1620</v>
       </c>
-      <c r="L72" s="4"/>
-      <c r="M72" s="4"/>
-      <c r="N72" s="4">
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3">
         <v>2019</v>
       </c>
-      <c r="O72" s="4"/>
-      <c r="P72" s="4"/>
-      <c r="Q72" s="4">
+      <c r="O72" s="3"/>
+      <c r="P72" s="3"/>
+      <c r="Q72" s="3">
         <v>2490</v>
       </c>
-      <c r="R72" s="4"/>
-      <c r="S72" s="4"/>
-      <c r="T72" s="4">
+      <c r="R72" s="3"/>
+      <c r="S72" s="3"/>
+      <c r="T72" s="3">
         <v>3377</v>
       </c>
-      <c r="U72" s="4"/>
-      <c r="V72" s="4"/>
-      <c r="W72" s="4"/>
-      <c r="X72" s="4"/>
-      <c r="Y72" s="4"/>
-      <c r="Z72" s="4"/>
+      <c r="U72" s="3"/>
+      <c r="V72" s="3"/>
+      <c r="W72" s="3"/>
+      <c r="X72" s="3"/>
+      <c r="Y72" s="3"/>
+      <c r="Z72" s="3"/>
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="A74" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B74" s="1">
@@ -3203,7 +3206,7 @@
       <c r="Z74" t="s">
         <v>20</v>
       </c>
-      <c r="AA74" s="7">
+      <c r="AA74" s="6">
         <v>0.65596064814814814</v>
       </c>
       <c r="AB74" s="1">
@@ -3326,7 +3329,7 @@
       </c>
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="A80" s="8" t="s">
         <v>42</v>
       </c>
       <c r="B80" s="1">
@@ -3404,7 +3407,7 @@
       <c r="Z80" t="s">
         <v>20</v>
       </c>
-      <c r="AA80" s="7">
+      <c r="AA80" s="6">
         <v>0.54223379629629631</v>
       </c>
       <c r="AB80" s="1">
@@ -3417,73 +3420,73 @@
       </c>
       <c r="E81" s="2">
         <f>((C80-B80)*86400)-B82</f>
-        <v>108.99999999999466</v>
+        <v>99.999999999994657</v>
       </c>
       <c r="F81" s="2"/>
       <c r="H81">
         <f>((F80-B80)*86400)-B82</f>
-        <v>558.99999999999307</v>
+        <v>549.99999999999307</v>
       </c>
       <c r="K81">
         <f>((I80-B80)*86400)-B82</f>
-        <v>1123.9999999999966</v>
+        <v>1114.9999999999966</v>
       </c>
       <c r="N81">
         <f>((L80-B80)*86400)-B82</f>
-        <v>1486.9999999999959</v>
+        <v>1477.9999999999959</v>
       </c>
       <c r="Q81">
         <f>((O80-B80)*86400)-B82</f>
-        <v>1948.9999999999961</v>
+        <v>1939.9999999999961</v>
       </c>
       <c r="T81">
         <f>((R80-B80)*86400)-B82</f>
-        <v>2736.0000000000009</v>
+        <v>2727.0000000000009</v>
       </c>
       <c r="W81">
         <f>((U80-B80)*86400)-B82</f>
-        <v>3114.9999999999995</v>
+        <v>3105.9999999999995</v>
       </c>
       <c r="Z81">
         <f>((X80-B80)*86400)-B82</f>
-        <v>4200.9999999999964</v>
+        <v>4191.9999999999964</v>
       </c>
     </row>
     <row r="82" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B82">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E82" s="2">
         <f>((D80-B80)*86400)-B82</f>
-        <v>408.99999999999358</v>
+        <v>399.99999999999358</v>
       </c>
       <c r="H82">
         <f>((G80-B80)*86400)-B82</f>
-        <v>953.99999999999568</v>
+        <v>944.99999999999568</v>
       </c>
       <c r="K82">
         <f>((J80-B80)*86400)-B82</f>
-        <v>1428.9999999999948</v>
+        <v>1419.9999999999948</v>
       </c>
       <c r="N82">
         <f>((M80-B80)*86400)-B82</f>
-        <v>1786.9999999999948</v>
+        <v>1777.9999999999948</v>
       </c>
       <c r="Q82">
         <f>((P80-B80)*86400)-B82</f>
-        <v>2269.9999999999982</v>
+        <v>2260.9999999999982</v>
       </c>
       <c r="T82">
         <f>((S80-B80)*86400)-B82</f>
-        <v>3035.99999999999</v>
+        <v>3026.99999999999</v>
       </c>
       <c r="W82">
         <f>((V80-B80)*86400)-B82</f>
-        <v>3415.999999999995</v>
+        <v>3406.999999999995</v>
       </c>
       <c r="Z82">
         <f>((Y80-B80)*86400)-B82</f>
-        <v>4500.9999999999955</v>
+        <v>4491.9999999999955</v>
       </c>
     </row>
     <row r="83" spans="1:28" x14ac:dyDescent="0.25">
@@ -3526,228 +3529,252 @@
         <v>3.2</v>
       </c>
     </row>
+    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>51</v>
+      </c>
+      <c r="E85">
+        <v>100</v>
+      </c>
+    </row>
     <row r="86" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="B86" t="s">
+        <v>52</v>
+      </c>
+      <c r="E86">
+        <v>400</v>
+      </c>
+      <c r="N86">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="N87">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>43</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B88" s="1">
         <v>0.6896064814814814</v>
       </c>
-      <c r="C86" s="1">
+      <c r="C88" s="1">
         <v>0.69295138888888896</v>
       </c>
-      <c r="D86" s="1">
+      <c r="D88" s="1">
         <v>0.69642361111111117</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="E88" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F86" s="1">
+      <c r="F88" s="1">
         <v>0.69807870370370362</v>
       </c>
-      <c r="G86" s="1">
+      <c r="G88" s="1">
         <v>0.7026041666666667</v>
       </c>
-      <c r="H86" s="1" t="s">
+      <c r="H88" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I86" s="1">
+      <c r="I88" s="1">
         <v>0.70496527777777773</v>
       </c>
-      <c r="J86" s="1">
+      <c r="J88" s="1">
         <v>0.70945601851851858</v>
       </c>
-      <c r="K86" s="1" t="s">
+      <c r="K88" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L86" s="1">
+      <c r="L88" s="1">
         <v>0.71015046296296302</v>
       </c>
-      <c r="M86" s="1">
+      <c r="M88" s="1">
         <v>0.71362268518518512</v>
       </c>
-      <c r="N86" s="1" t="s">
+      <c r="N88" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O86" s="1">
+      <c r="O88" s="1">
         <v>0.71547453703703701</v>
       </c>
-      <c r="P86" s="1">
+      <c r="P88" s="1">
         <v>0.71918981481481481</v>
       </c>
-      <c r="Q86" s="1" t="s">
+      <c r="Q88" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="R86" s="1">
+      <c r="R88" s="1">
         <v>0.72857638888888887</v>
       </c>
-      <c r="S86" s="1">
+      <c r="S88" s="1">
         <v>0.73204861111111119</v>
       </c>
-      <c r="T86" s="1" t="s">
+      <c r="T88" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="U86" s="1">
+      <c r="U88" s="1">
         <v>0.73285879629629624</v>
       </c>
-      <c r="V86" s="1">
+      <c r="V88" s="1">
         <v>0.73634259259259249</v>
       </c>
-      <c r="W86" s="1" t="s">
+      <c r="W88" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="X86" s="1">
+      <c r="X88" s="1">
         <v>0.74515046296296295</v>
       </c>
-      <c r="Y86" s="1">
+      <c r="Y88" s="1">
         <v>0.74862268518518515</v>
       </c>
-      <c r="Z86" t="s">
+      <c r="Z88" t="s">
         <v>20</v>
       </c>
-      <c r="AA86" s="7">
+      <c r="AA88" s="6">
         <v>0.7486342592592593</v>
       </c>
-      <c r="AB86" s="1">
+      <c r="AB88" s="1">
         <v>0.74895833333333339</v>
       </c>
     </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
+    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
         <v>44</v>
       </c>
-      <c r="E87" s="2">
-        <f>((C86-B86)*86400)-B88</f>
+      <c r="E89" s="2">
+        <f>((C88-B88)*86400)-B90</f>
         <v>261.00000000001319</v>
       </c>
-      <c r="F87" s="2"/>
-      <c r="H87">
-        <f>((F86-B86)*86400)-B88</f>
+      <c r="F89" s="2"/>
+      <c r="H89">
+        <f>((F88-B88)*86400)-B90</f>
         <v>703.99999999999932</v>
       </c>
-      <c r="K87">
-        <f>((I86-B86)*86400)-B88</f>
+      <c r="K89">
+        <f>((I88-B88)*86400)-B90</f>
         <v>1299.0000000000027</v>
       </c>
-      <c r="N87">
-        <f>((L86-B86)*86400)-B88</f>
+      <c r="N89">
+        <f>((L88-B88)*86400)-B90</f>
         <v>1747.0000000000121</v>
       </c>
-      <c r="Q87">
-        <f>((O86-B86)*86400)-B88</f>
+      <c r="Q89">
+        <f>((O88-B88)*86400)-B90</f>
         <v>2207.0000000000041</v>
       </c>
-      <c r="T87">
-        <f>((R86-B86)*86400)-B88</f>
+      <c r="T89">
+        <f>((R88-B88)*86400)-B90</f>
         <v>3339.000000000005</v>
       </c>
-      <c r="W87">
-        <f>((U86-B86)*86400)-B88</f>
+      <c r="W89">
+        <f>((U88-B88)*86400)-B90</f>
         <v>3709.0000000000023</v>
       </c>
-      <c r="Z87">
-        <f>((X86-B86)*86400)-B88</f>
+      <c r="Z89">
+        <f>((X88-B88)*86400)-B90</f>
         <v>4771.0000000000055</v>
       </c>
     </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B88">
+    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B90">
         <v>28</v>
       </c>
-      <c r="E88" s="2">
-        <f>((D86-B86)*86400)-B88</f>
+      <c r="E90" s="2">
+        <f>((D88-B88)*86400)-B90</f>
         <v>561.00000000001216</v>
       </c>
-      <c r="H88">
-        <f>((G86-B86)*86400)-B88</f>
+      <c r="H90">
+        <f>((G88-B88)*86400)-B90</f>
         <v>1095.0000000000093</v>
       </c>
-      <c r="K88">
-        <f>((J86-B86)*86400)-B88</f>
+      <c r="K90">
+        <f>((J88-B88)*86400)-B90</f>
         <v>1687.0000000000123</v>
       </c>
-      <c r="N88">
-        <f>((M86-B86)*86400)-B88</f>
+      <c r="N90">
+        <f>((M88-B88)*86400)-B90</f>
         <v>2047.0000000000014</v>
       </c>
-      <c r="Q88">
-        <f>((P86-B86)*86400)-B88</f>
+      <c r="Q90">
+        <f>((P88-B88)*86400)-B90</f>
         <v>2528.0000000000064</v>
       </c>
-      <c r="T88">
-        <f>((S86-B86)*86400)-B88</f>
+      <c r="T90">
+        <f>((S88-B88)*86400)-B90</f>
         <v>3639.0000000000136</v>
       </c>
-      <c r="W88">
-        <f>((V86-B86)*86400)-B88</f>
+      <c r="W90">
+        <f>((V88-B88)*86400)-B90</f>
         <v>4009.9999999999982</v>
       </c>
-      <c r="Z88">
-        <f>((Y86-B86)*86400)-B88</f>
+      <c r="Z90">
+        <f>((Y88-B88)*86400)-B90</f>
         <v>5071.0000000000045</v>
       </c>
     </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="E89">
+    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="E91">
         <v>1</v>
       </c>
-      <c r="H89">
+      <c r="H91">
         <v>5</v>
       </c>
-      <c r="K89">
+      <c r="K91">
         <v>2</v>
       </c>
-      <c r="N89">
+      <c r="N91">
         <v>1</v>
       </c>
-      <c r="Q89">
+      <c r="Q91">
         <v>5.47</v>
       </c>
-      <c r="T89">
+      <c r="T91">
         <v>5</v>
       </c>
-      <c r="W89">
+      <c r="W91">
         <v>6.9</v>
       </c>
-      <c r="Z89">
+      <c r="Z91">
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="H90">
+    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="H92">
         <v>7</v>
       </c>
-      <c r="K90">
+      <c r="K92">
         <v>3</v>
       </c>
-      <c r="Q90">
+      <c r="Q92">
         <v>5.18</v>
       </c>
-      <c r="W90">
+      <c r="W92">
         <v>2.33</v>
       </c>
     </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>45</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B93" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A92">
+    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A94">
         <v>55</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B94" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A93">
+    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A95">
         <v>34</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B95" t="s">
         <v>48</v>
       </c>
     </row>

--- a/ExperimentFolder_v23.9.19/DataStorage/Segmententabelle.xlsx
+++ b/ExperimentFolder_v23.9.19/DataStorage/Segmententabelle.xlsx
@@ -181,7 +181,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,8 +195,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,6 +220,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -222,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -230,9 +250,15 @@
     <xf numFmtId="21" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="21" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="21" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -536,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P88" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80:E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,7 +683,7 @@
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="4">
@@ -931,7 +957,7 @@
       <c r="Z6" s="3"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="11" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="1">
@@ -1000,13 +1026,13 @@
       <c r="W8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="X8" s="1">
+      <c r="X8" s="9">
         <v>0.50081018518518516</v>
       </c>
-      <c r="Y8" s="1">
+      <c r="Y8" s="9">
         <v>0.50428240740740737</v>
       </c>
-      <c r="Z8" s="1" t="s">
+      <c r="Z8" s="9" t="s">
         <v>20</v>
       </c>
       <c r="AA8" s="1">
@@ -1049,7 +1075,9 @@
         <f>((U8-B8)*86400)-B10</f>
         <v>3473.9999999999955</v>
       </c>
-      <c r="Z9">
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10">
         <f>((X8-B8)*86400)-B10</f>
         <v>4293.9999999999955</v>
       </c>
@@ -1086,7 +1114,9 @@
         <f>((V8-B8)*86400)-B10</f>
         <v>3773.9999999999991</v>
       </c>
-      <c r="Z10">
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10">
         <f>((Y8-B8)*86400)-B10</f>
         <v>4593.9999999999945</v>
       </c>
@@ -1113,7 +1143,9 @@
       <c r="W11">
         <v>6.7</v>
       </c>
-      <c r="Z11">
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10">
         <v>6</v>
       </c>
     </row>
@@ -1130,9 +1162,12 @@
       <c r="W12">
         <v>2.56</v>
       </c>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="1">
@@ -1358,7 +1393,7 @@
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B22" s="1">
@@ -1564,7 +1599,7 @@
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B30" s="1">
@@ -1765,7 +1800,7 @@
       </c>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="11" t="s">
         <v>35</v>
       </c>
       <c r="B36" s="1">
@@ -1816,13 +1851,13 @@
       <c r="Q36" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="R36" s="1">
+      <c r="R36" s="12">
         <v>0.42277777777777775</v>
       </c>
-      <c r="S36" s="1">
+      <c r="S36" s="12">
         <v>0.42625000000000002</v>
       </c>
-      <c r="T36" s="1" t="s">
+      <c r="T36" s="12" t="s">
         <v>20</v>
       </c>
       <c r="U36" s="1">
@@ -1875,7 +1910,9 @@
         <f>((O36-B36)*86400)-B38</f>
         <v>2063.9999999999964</v>
       </c>
-      <c r="T37">
+      <c r="R37" s="13"/>
+      <c r="S37" s="13"/>
+      <c r="T37" s="13">
         <f>((R36-B36)*86400)-B38</f>
         <v>2815.9999999999973</v>
       </c>
@@ -1912,7 +1949,9 @@
         <f>((P36-B36)*86400)-B38</f>
         <v>2386.9999999999973</v>
       </c>
-      <c r="T38">
+      <c r="R38" s="13"/>
+      <c r="S38" s="13"/>
+      <c r="T38" s="13">
         <f>((S36-B36)*86400)-B38</f>
         <v>3116.0000000000009</v>
       </c>
@@ -1941,7 +1980,9 @@
       <c r="Q39">
         <v>5.81</v>
       </c>
-      <c r="T39">
+      <c r="R39" s="13"/>
+      <c r="S39" s="13"/>
+      <c r="T39" s="13">
         <v>5</v>
       </c>
       <c r="W39">
@@ -1966,7 +2007,7 @@
       </c>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B42" s="1">
@@ -2167,19 +2208,19 @@
       </c>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B48" s="1">
         <v>0.40891203703703699</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="12">
         <v>0.41065972222222219</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="12">
         <v>0.41413194444444446</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" s="12" t="s">
         <v>31</v>
       </c>
       <c r="F48" s="1">
@@ -2200,13 +2241,13 @@
       <c r="K48" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L48" s="1">
+      <c r="L48" s="12">
         <v>0.42753472222222227</v>
       </c>
-      <c r="M48" s="1">
+      <c r="M48" s="12">
         <v>0.43100694444444443</v>
       </c>
-      <c r="N48" s="1" t="s">
+      <c r="N48" s="12" t="s">
         <v>31</v>
       </c>
       <c r="O48" s="1">
@@ -2227,13 +2268,13 @@
       <c r="T48" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="U48" s="1">
+      <c r="U48" s="12">
         <v>0.4485763888888889</v>
       </c>
-      <c r="V48" s="1">
+      <c r="V48" s="12">
         <v>0.45204861111111111</v>
       </c>
-      <c r="W48" s="1" t="s">
+      <c r="W48" s="12" t="s">
         <v>28</v>
       </c>
       <c r="X48" s="1">
@@ -2256,7 +2297,9 @@
       <c r="B49" t="s">
         <v>44</v>
       </c>
-      <c r="E49" s="2">
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="14">
         <f>((C48-B48)*86400)-B50</f>
         <v>145.00000000000122</v>
       </c>
@@ -2269,7 +2312,9 @@
         <f>((I48-B48)*86400)-B50</f>
         <v>1146.0000000000027</v>
       </c>
-      <c r="N49">
+      <c r="L49" s="13"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="13">
         <f>((L48-B48)*86400)-B50</f>
         <v>1603.0000000000084</v>
       </c>
@@ -2281,7 +2326,9 @@
         <f>((R48-B48)*86400)-B50</f>
         <v>3074.000000000005</v>
       </c>
-      <c r="W49">
+      <c r="U49" s="13"/>
+      <c r="V49" s="13"/>
+      <c r="W49" s="13">
         <f>((U48-B48)*86400)-B50</f>
         <v>3421.000000000005</v>
       </c>
@@ -2294,7 +2341,9 @@
       <c r="B50">
         <v>6</v>
       </c>
-      <c r="E50" s="2">
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="14">
         <f>((D48-B48)*86400)-B50</f>
         <v>445.00000000000495</v>
       </c>
@@ -2306,7 +2355,9 @@
         <f>((J48-B48)*86400)-B50</f>
         <v>1536.0000000000061</v>
       </c>
-      <c r="N50">
+      <c r="L50" s="13"/>
+      <c r="M50" s="13"/>
+      <c r="N50" s="13">
         <f>((M48-B48)*86400)-B50</f>
         <v>1903.0000000000027</v>
       </c>
@@ -2318,7 +2369,9 @@
         <f>((S48-B48)*86400)-B50</f>
         <v>3374.0000000000041</v>
       </c>
-      <c r="W50">
+      <c r="U50" s="13"/>
+      <c r="V50" s="13"/>
+      <c r="W50" s="13">
         <f>((V48-B48)*86400)-B50</f>
         <v>3721.0000000000036</v>
       </c>
@@ -2328,7 +2381,9 @@
       </c>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="E51">
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13">
         <v>1</v>
       </c>
       <c r="H51">
@@ -2337,7 +2392,9 @@
       <c r="K51">
         <v>7</v>
       </c>
-      <c r="N51">
+      <c r="L51" s="13"/>
+      <c r="M51" s="13"/>
+      <c r="N51" s="13">
         <v>1</v>
       </c>
       <c r="Q51">
@@ -2346,7 +2403,9 @@
       <c r="T51">
         <v>3</v>
       </c>
-      <c r="W51">
+      <c r="U51" s="13"/>
+      <c r="V51" s="13"/>
+      <c r="W51" s="13">
         <v>5.66</v>
       </c>
       <c r="Z51">
@@ -2363,12 +2422,14 @@
       <c r="Q52">
         <v>5.31</v>
       </c>
-      <c r="W52">
+      <c r="U52" s="13"/>
+      <c r="V52" s="13"/>
+      <c r="W52" s="13">
         <v>3.1</v>
       </c>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A54" s="8" t="s">
+      <c r="A54" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B54" s="1">
@@ -2569,7 +2630,7 @@
       </c>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="15" t="s">
         <v>39</v>
       </c>
       <c r="B60" s="1">
@@ -2770,7 +2831,7 @@
       </c>
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A66" s="7" t="s">
+      <c r="A66" s="8" t="s">
         <v>40</v>
       </c>
       <c r="B66" s="4">
@@ -3027,7 +3088,7 @@
       <c r="O70" s="3"/>
       <c r="P70" s="3"/>
       <c r="Q70" s="3">
-        <v>1.96</v>
+        <v>6</v>
       </c>
       <c r="R70" s="3"/>
       <c r="S70" s="3"/>
@@ -3035,7 +3096,7 @@
       <c r="U70" s="3"/>
       <c r="V70" s="3"/>
       <c r="W70" s="3">
-        <v>1.1000000000000001</v>
+        <v>2</v>
       </c>
       <c r="X70" s="3"/>
       <c r="Y70" s="3"/>
@@ -3128,7 +3189,7 @@
       <c r="Z72" s="3"/>
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A74" s="8" t="s">
+      <c r="A74" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B74" s="1">
@@ -3329,19 +3390,19 @@
       </c>
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A80" s="8" t="s">
+      <c r="A80" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B80" s="1">
         <v>0.47842592592592598</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C80" s="12">
         <v>0.47968749999999999</v>
       </c>
-      <c r="D80" s="1">
+      <c r="D80" s="12">
         <v>0.4831597222222222</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="E80" s="12" t="s">
         <v>31</v>
       </c>
       <c r="F80" s="1">
@@ -3398,13 +3459,13 @@
       <c r="W80" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="X80" s="1">
+      <c r="X80" s="12">
         <v>0.52704861111111112</v>
       </c>
-      <c r="Y80" s="1">
+      <c r="Y80" s="12">
         <v>0.53052083333333333</v>
       </c>
-      <c r="Z80" t="s">
+      <c r="Z80" s="13" t="s">
         <v>20</v>
       </c>
       <c r="AA80" s="6">
@@ -3418,7 +3479,9 @@
       <c r="B81" t="s">
         <v>44</v>
       </c>
-      <c r="E81" s="2">
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="14">
         <f>((C80-B80)*86400)-B82</f>
         <v>99.999999999994657</v>
       </c>
@@ -3447,7 +3510,9 @@
         <f>((U80-B80)*86400)-B82</f>
         <v>3105.9999999999995</v>
       </c>
-      <c r="Z81">
+      <c r="X81" s="13"/>
+      <c r="Y81" s="13"/>
+      <c r="Z81" s="13">
         <f>((X80-B80)*86400)-B82</f>
         <v>4191.9999999999964</v>
       </c>
@@ -3456,7 +3521,9 @@
       <c r="B82">
         <v>9</v>
       </c>
-      <c r="E82" s="2">
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="14">
         <f>((D80-B80)*86400)-B82</f>
         <v>399.99999999999358</v>
       </c>
@@ -3484,13 +3551,17 @@
         <f>((V80-B80)*86400)-B82</f>
         <v>3406.999999999995</v>
       </c>
-      <c r="Z82">
+      <c r="X82" s="13"/>
+      <c r="Y82" s="13"/>
+      <c r="Z82" s="13">
         <f>((Y80-B80)*86400)-B82</f>
         <v>4491.9999999999955</v>
       </c>
     </row>
     <row r="83" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="E83">
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13">
         <v>2</v>
       </c>
       <c r="H83">
@@ -3511,11 +3582,16 @@
       <c r="W83">
         <v>5.43</v>
       </c>
-      <c r="Z83">
+      <c r="X83" s="13"/>
+      <c r="Y83" s="13"/>
+      <c r="Z83" s="13">
         <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
       <c r="H84">
         <v>6</v>
       </c>
@@ -3528,12 +3604,17 @@
       <c r="W84">
         <v>3.2</v>
       </c>
+      <c r="X84" s="13"/>
+      <c r="Y84" s="13"/>
+      <c r="Z84" s="13"/>
     </row>
     <row r="85" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>51</v>
       </c>
-      <c r="E85">
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13">
         <v>100</v>
       </c>
     </row>
@@ -3541,7 +3622,9 @@
       <c r="B86" t="s">
         <v>52</v>
       </c>
-      <c r="E86">
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13">
         <v>400</v>
       </c>
       <c r="N86">
@@ -3554,7 +3637,7 @@
       </c>
     </row>
     <row r="88" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="A88" s="11" t="s">
         <v>43</v>
       </c>
       <c r="B88" s="1">

--- a/ExperimentFolder_v23.9.19/DataStorage/Segmententabelle.xlsx
+++ b/ExperimentFolder_v23.9.19/DataStorage/Segmententabelle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="49">
   <si>
     <t>Subject</t>
   </si>
@@ -151,18 +151,6 @@
   </si>
   <si>
     <t>Korrektur:</t>
-  </si>
-  <si>
-    <t>Korrekturzeit</t>
-  </si>
-  <si>
-    <t>Gerät</t>
-  </si>
-  <si>
-    <t>HTW</t>
-  </si>
-  <si>
-    <t>Privat</t>
   </si>
   <si>
     <t>EndRecording</t>
@@ -560,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB95"/>
+  <dimension ref="A1:AB92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80:E86"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,10 +664,10 @@
         <v>27</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
@@ -1369,7 +1357,7 @@
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E19">
         <v>142</v>
@@ -1595,7 +1583,7 @@
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
@@ -3107,7 +3095,7 @@
     <row r="71" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -3610,7 +3598,7 @@
     </row>
     <row r="85" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C85" s="13"/>
       <c r="D85" s="13"/>
@@ -3620,7 +3608,7 @@
     </row>
     <row r="86" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C86" s="13"/>
       <c r="D86" s="13"/>
@@ -3835,30 +3823,6 @@
       </c>
       <c r="W92">
         <v>2.33</v>
-      </c>
-    </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>45</v>
-      </c>
-      <c r="B93" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>55</v>
-      </c>
-      <c r="B94" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>34</v>
-      </c>
-      <c r="B95" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
